--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamho\Dropbox\Energy Innovation\InputData_RevisionRequest\trans\BCDTRtSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GyeHyunPark\Dropbox\Energy Innovation\InputData_Working\개인폴더-계현\trans\이륜차수정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2417F7C1-A71A-4E59-AF58-A0A749E3252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2580F1AA-2F90-40B6-8982-6234BC78C043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="1070" windowWidth="19800" windowHeight="17010" firstSheet="16" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="1065" windowWidth="19800" windowHeight="17010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -47,22 +47,11 @@
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="791">
   <si>
     <t>Source:</t>
   </si>
@@ -2443,10 +2432,6 @@
     <t>2021</t>
   </si>
   <si>
-    <t>항만에서 2019년과 동일한 물량을 처리할 때까지 2021년의 성장세를 사용하며 이후</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
     <t>고정</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
@@ -2455,10 +2440,6 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>2021자료와 비교를 위해 각 년도의 1월-7월 자료만 사용</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
     <t>철도총괄지표</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
@@ -2513,10 +2494,6 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>규모별대수는 2019년 고정</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
     <t>다목적(중)</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
@@ -2753,10 +2730,6 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>차량대수</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
     <t>psgr</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
@@ -2766,6 +2739,46 @@
   </si>
   <si>
     <t>Asia-Pacific Journal of Busines</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>freight-LDVs</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>freight-HDVs</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger-LDVs</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger-HDVs</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>규모별 대수(2019)</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종별 차량 대수(2019)</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021자료와 비교를 위해 각 년도의 1월-7월 자료만 사용했다.</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년 항만처리 물량은 코로나로 인해 감소한 수치로 추정된다. 이에 2019년 물량까지 회복되는 증가율은 비교적 가파르게 설정하였다.</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가율은 2020-&gt;2021 물량증가율인 약4.6%를 사용했으며, 2019년의 물량에 도달한 이후 기존 CAGR인 0.6%를 이용하여 2050년까지 데이터를 추정했다.</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
 </sst>
@@ -3441,7 +3454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -4212,6 +4225,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4473,7 +4514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4883,9 +4924,6 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4947,31 +4985,23 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="183" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4982,6 +5012,30 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4999,6 +5053,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5014,9 +5074,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5041,12 +5098,6 @@
     </xf>
     <xf numFmtId="0" fontId="66" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="155">
@@ -5411,14 +5462,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>562991</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>162287</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>162286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5858,15 +5909,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="152"/>
-    <col min="2" max="2" width="9" style="152" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="152"/>
+    <col min="1" max="1" width="9" style="151"/>
+    <col min="2" max="2" width="9" style="151" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -5878,268 +5927,268 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="163" t="s">
-        <v>759</v>
-      </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
+      <c r="B3" s="162" t="s">
+        <v>756</v>
+      </c>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="B4" s="152" t="s">
-        <v>755</v>
+      <c r="B4" s="151" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="152" t="s">
-        <v>756</v>
+      <c r="B5" s="151" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="152" t="s">
-        <v>760</v>
+      <c r="B6" s="151" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="B7" s="153" t="s">
-        <v>757</v>
+      <c r="B7" s="152" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="163" t="s">
-        <v>761</v>
+      <c r="B10" s="162" t="s">
+        <v>758</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
       <c r="E10" s="80"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="152" t="s">
-        <v>740</v>
+      <c r="B11" s="151" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="152" t="s">
-        <v>751</v>
+      <c r="B12" s="151" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="153" t="s">
-        <v>738</v>
-      </c>
-      <c r="O13" s="153"/>
+      <c r="B13" s="152" t="s">
+        <v>735</v>
+      </c>
+      <c r="O13" s="152"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="153" t="s">
-        <v>739</v>
-      </c>
-      <c r="O15" s="153"/>
+      <c r="B15" s="152" t="s">
+        <v>736</v>
+      </c>
+      <c r="O15" s="152"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="153" t="s">
-        <v>737</v>
-      </c>
-      <c r="O17" s="153"/>
+      <c r="B17" s="152" t="s">
+        <v>734</v>
+      </c>
+      <c r="O17" s="152"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="163" t="s">
-        <v>762</v>
+      <c r="B20" s="162" t="s">
+        <v>759</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="151" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="151" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="152" t="s">
+        <v>738</v>
+      </c>
+      <c r="O23" s="152"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="152" t="s">
+        <v>739</v>
+      </c>
+      <c r="O25" s="152"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="O26" s="152"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="152" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="152" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="153" t="s">
-        <v>741</v>
-      </c>
-      <c r="O23" s="153"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="153" t="s">
-        <v>742</v>
-      </c>
-      <c r="O25" s="153"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="O26" s="153"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="153" t="s">
-        <v>743</v>
-      </c>
-    </row>
     <row r="28" spans="2:15">
-      <c r="O28" s="153"/>
+      <c r="O28" s="152"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="163" t="s">
-        <v>763</v>
+      <c r="B30" s="162" t="s">
+        <v>760</v>
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="152" t="s">
-        <v>764</v>
+      <c r="B31" s="151" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="152" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" ht="17.5">
-      <c r="B33" s="171" t="s">
-        <v>765</v>
+      <c r="B32" s="151" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="18">
+      <c r="B33" s="170" t="s">
+        <v>762</v>
       </c>
       <c r="C33" s="82"/>
       <c r="D33" s="82"/>
       <c r="E33" s="82"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="153" t="s">
-        <v>753</v>
+      <c r="B34" s="152" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="81" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="154" t="s">
-        <v>744</v>
+      <c r="B38" s="153" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="154">
+      <c r="B39" s="153">
         <v>2017</v>
       </c>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="152" t="s">
-        <v>749</v>
+      <c r="B40" s="151" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="155" t="s">
-        <v>745</v>
+      <c r="B41" s="154" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="155"/>
+      <c r="B42" s="154"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="155"/>
+      <c r="B43" s="154"/>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="165" t="s">
-        <v>767</v>
+      <c r="B44" s="164" t="s">
+        <v>764</v>
       </c>
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
-      <c r="O44" s="154"/>
+      <c r="O44" s="153"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="164" t="s">
+      <c r="B45" s="163" t="s">
+        <v>765</v>
+      </c>
+      <c r="O45" s="153"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="163">
+        <v>2021</v>
+      </c>
+      <c r="O46" s="153"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="163" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="152" t="s">
+        <v>751</v>
+      </c>
+      <c r="O48" s="154"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="163" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="162" t="s">
         <v>768</v>
-      </c>
-      <c r="O45" s="154"/>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="164">
-        <v>2021</v>
-      </c>
-      <c r="O46" s="154"/>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="164" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="153" t="s">
-        <v>754</v>
-      </c>
-      <c r="O48" s="155"/>
-    </row>
-    <row r="49" spans="2:15">
-      <c r="B49" s="164" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="163" t="s">
-        <v>771</v>
       </c>
       <c r="C52" s="80"/>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="152" t="s">
-        <v>772</v>
+      <c r="B53" s="151" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="152" t="s">
-        <v>751</v>
+      <c r="B54" s="151" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" s="152" t="s">
-        <v>773</v>
-      </c>
-      <c r="O55" s="153"/>
+      <c r="B55" s="151" t="s">
+        <v>770</v>
+      </c>
+      <c r="O55" s="152"/>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="153" t="s">
-        <v>748</v>
-      </c>
-      <c r="O56" s="153"/>
+      <c r="B56" s="152" t="s">
+        <v>745</v>
+      </c>
+      <c r="O56" s="152"/>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="163" t="s">
-        <v>774</v>
+      <c r="B59" s="162" t="s">
+        <v>771</v>
       </c>
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
     </row>
     <row r="60" spans="2:15">
-      <c r="B60" s="152" t="s">
-        <v>784</v>
+      <c r="B60" s="151" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="61" spans="2:15">
-      <c r="B61" s="154">
+      <c r="B61" s="153">
         <v>2018</v>
       </c>
     </row>
     <row r="62" spans="2:15">
-      <c r="B62" s="153" t="s">
-        <v>746</v>
+      <c r="B62" s="152" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="2:15">
-      <c r="B63" s="152" t="s">
-        <v>747</v>
+      <c r="B63" s="151" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6149,56 +6198,56 @@
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="156" t="s">
+      <c r="A66" s="155" t="s">
+        <v>772</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="155" t="s">
+        <v>773</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="155"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="155" t="s">
+        <v>774</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="155"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="155" t="s">
         <v>775</v>
       </c>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="156" t="s">
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="155"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="155" t="s">
         <v>776</v>
       </c>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="156"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="156" t="s">
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="155"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="155" t="s">
         <v>777</v>
       </c>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="156"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="156" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="156"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="156" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="156"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="156" t="s">
-        <v>780</v>
-      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="152" t="s">
+      <c r="A77" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="152">
+      <c r="B77" s="151">
         <v>2019</v>
       </c>
       <c r="D77" s="143"/>
@@ -6207,10 +6256,10 @@
       <c r="D78" s="143"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="160" t="s">
+      <c r="A79" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="157">
+      <c r="B79" s="156">
         <v>0.62137100000000001</v>
       </c>
       <c r="C79" s="83" t="s">
@@ -6218,21 +6267,21 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="161" t="s">
+      <c r="A80" s="160" t="s">
         <v>184</v>
       </c>
-      <c r="B80" s="158">
+      <c r="B80" s="157">
         <v>365</v>
       </c>
-      <c r="C80" s="159" t="s">
+      <c r="C80" s="158" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="162"/>
+      <c r="A82" s="161"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="162"/>
+      <c r="A83" s="161"/>
     </row>
   </sheetData>
   <phoneticPr fontId="42" type="noConversion"/>
@@ -6263,25 +6312,25 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="198" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="85" t="s">
@@ -6529,18 +6578,18 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="193" t="s">
+      <c r="A11" s="200" t="s">
         <v>419</v>
       </c>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
       <c r="K11" s="87">
         <v>44452.580524965277</v>
       </c>
@@ -6568,86 +6617,86 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="167" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08203125" style="167" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="167" customWidth="1"/>
-    <col min="5" max="7" width="15.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.75" style="167" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="167"/>
+    <col min="1" max="1" width="19.25" style="166" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="166" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="166" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="166" customWidth="1"/>
+    <col min="5" max="7" width="15.5" style="166" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.75" style="166" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="166"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.5" thickBot="1">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1">
       <c r="A1" s="48" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="144" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2" s="144" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.149999999999999" customHeight="1">
-      <c r="A2" s="144" t="s">
-        <v>705</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>706</v>
-      </c>
-      <c r="C2" s="168">
+      <c r="C2" s="167">
         <v>2011</v>
       </c>
-      <c r="D2" s="168">
+      <c r="D2" s="167">
         <v>2012</v>
       </c>
-      <c r="E2" s="168">
+      <c r="E2" s="167">
         <v>2013</v>
       </c>
-      <c r="F2" s="168">
+      <c r="F2" s="167">
         <v>2014</v>
       </c>
-      <c r="G2" s="168">
+      <c r="G2" s="167">
         <v>2015</v>
       </c>
-      <c r="H2" s="168">
+      <c r="H2" s="167">
         <v>2016</v>
       </c>
-      <c r="I2" s="168">
+      <c r="I2" s="167">
         <v>2017</v>
       </c>
-      <c r="J2" s="168">
+      <c r="J2" s="167">
         <v>2018</v>
       </c>
-      <c r="K2" s="149" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="K2" s="148" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="120" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>712</v>
-      </c>
-      <c r="C3" s="169">
+        <v>710</v>
+      </c>
+      <c r="C3" s="168">
         <v>1118621000</v>
       </c>
-      <c r="D3" s="169">
+      <c r="D3" s="168">
         <v>1149340000</v>
       </c>
-      <c r="E3" s="169">
+      <c r="E3" s="168">
         <v>1224820000</v>
       </c>
-      <c r="F3" s="169">
+      <c r="F3" s="168">
         <v>1263472000</v>
       </c>
-      <c r="G3" s="169">
+      <c r="G3" s="168">
         <v>1269417000</v>
       </c>
-      <c r="H3" s="169">
+      <c r="H3" s="168">
         <v>1449535000</v>
       </c>
-      <c r="I3" s="169">
+      <c r="I3" s="168">
         <v>1490319000</v>
       </c>
-      <c r="J3" s="169">
+      <c r="J3" s="168">
         <v>1521590000</v>
       </c>
       <c r="K3" s="114">
@@ -6655,62 +6704,62 @@
         <v>4.4931475049839742E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.149999999999999" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="111" t="s">
         <v>190</v>
       </c>
       <c r="B4" s="122" t="s">
-        <v>713</v>
-      </c>
-      <c r="C4" s="169">
+        <v>711</v>
+      </c>
+      <c r="C4" s="168">
         <v>36784000000</v>
       </c>
-      <c r="D4" s="169">
+      <c r="D4" s="168">
         <v>42493000000</v>
       </c>
-      <c r="E4" s="169">
+      <c r="E4" s="168">
         <v>38531000000</v>
       </c>
-      <c r="F4" s="169">
+      <c r="F4" s="168">
         <v>39500000000</v>
       </c>
-      <c r="G4" s="169">
+      <c r="G4" s="168">
         <v>40343000000</v>
       </c>
-      <c r="H4" s="169">
+      <c r="H4" s="168">
         <v>43384000000</v>
       </c>
-      <c r="I4" s="169">
+      <c r="I4" s="168">
         <v>46295000000</v>
       </c>
-      <c r="J4" s="169">
+      <c r="J4" s="168">
         <v>48027000000</v>
       </c>
-      <c r="K4" s="150">
+      <c r="K4" s="149">
         <f>(J4/C4)^(1/7)-1</f>
         <v>3.8835168293443356E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="120" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B5" s="122" t="s">
-        <v>715</v>
-      </c>
-      <c r="C5" s="169">
+        <v>713</v>
+      </c>
+      <c r="C5" s="168">
         <v>40011987</v>
       </c>
-      <c r="D5" s="169">
+      <c r="D5" s="168">
         <v>40308928</v>
       </c>
-      <c r="E5" s="169">
+      <c r="E5" s="168">
         <v>39822270</v>
       </c>
-      <c r="F5" s="169">
+      <c r="F5" s="168">
         <v>37379168</v>
       </c>
-      <c r="G5" s="169">
+      <c r="G5" s="168">
         <v>37093642</v>
       </c>
       <c r="H5" s="146">
@@ -6727,26 +6776,26 @@
         <v>-3.6178781626822532E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="112" t="s">
         <v>190</v>
       </c>
       <c r="B6" s="122" t="s">
-        <v>716</v>
-      </c>
-      <c r="C6" s="169">
+        <v>714</v>
+      </c>
+      <c r="C6" s="168">
         <v>9996737509</v>
       </c>
-      <c r="D6" s="169">
+      <c r="D6" s="168">
         <v>10458878979</v>
       </c>
-      <c r="E6" s="169">
+      <c r="E6" s="168">
         <v>10458878979</v>
       </c>
-      <c r="F6" s="169">
+      <c r="F6" s="168">
         <v>9563602650</v>
       </c>
-      <c r="G6" s="169">
+      <c r="G6" s="168">
         <v>9479257421</v>
       </c>
       <c r="H6" s="146">
@@ -6758,7 +6807,7 @@
       <c r="J6" s="146">
         <v>7877511771.6429996</v>
       </c>
-      <c r="K6" s="151">
+      <c r="K6" s="150">
         <f>(J6/C6)^(1/7)-1</f>
         <v>-3.3462559735330077E-2</v>
       </c>
@@ -6777,54 +6826,54 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="201" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148">
+      <c r="A2" s="147"/>
+      <c r="B2" s="147">
         <v>2019</v>
       </c>
-      <c r="C2" s="148">
+      <c r="C2" s="147">
         <v>2020</v>
       </c>
-      <c r="D2" s="148">
+      <c r="D2" s="147">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="147" t="s">
         <v>484</v>
       </c>
-      <c r="B3" s="148">
+      <c r="B3" s="147">
         <f>SUM(B5:B11)</f>
         <v>83614684</v>
       </c>
-      <c r="C3" s="148">
+      <c r="C3" s="147">
         <f t="shared" ref="C3:D3" si="0">SUM(C5:C11)</f>
         <v>53053344</v>
       </c>
-      <c r="D3" s="148">
+      <c r="D3" s="147">
         <f t="shared" si="0"/>
         <v>53490530</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="147" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="148"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="145">
         <f>C3/$B$3</f>
         <v>0.63449793100934282</v>
@@ -6835,166 +6884,166 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="147" t="s">
         <v>423</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="147">
         <f>'Rail2019-psgr'!B16</f>
         <v>11247113</v>
       </c>
-      <c r="C5" s="148">
+      <c r="C5" s="147">
         <f>'Rail2020-psgr'!B16</f>
         <v>12029401</v>
       </c>
-      <c r="D5" s="148">
+      <c r="D5" s="147">
         <f>'Rail2021-psgr'!B11</f>
         <v>5643888</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="147" t="s">
         <v>424</v>
       </c>
-      <c r="B6" s="148">
+      <c r="B6" s="147">
         <f>'Rail2019-psgr'!B15</f>
         <v>11440634</v>
       </c>
-      <c r="C6" s="148">
+      <c r="C6" s="147">
         <f>'Rail2020-psgr'!B15</f>
         <v>7039739</v>
       </c>
-      <c r="D6" s="148">
+      <c r="D6" s="147">
         <f>'Rail2021-psgr'!B10</f>
         <v>6477296</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="147" t="s">
         <v>425</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="147">
         <f>'Rail2019-psgr'!B14</f>
         <v>12140375</v>
       </c>
-      <c r="C7" s="148">
+      <c r="C7" s="147">
         <f>'Rail2020-psgr'!B14</f>
         <v>4085433</v>
       </c>
-      <c r="D7" s="148">
+      <c r="D7" s="147">
         <f>'Rail2021-psgr'!B9</f>
         <v>7992796</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="147" t="s">
         <v>426</v>
       </c>
-      <c r="B8" s="148">
+      <c r="B8" s="147">
         <f>'Rail2019-psgr'!B13</f>
         <v>11928672</v>
       </c>
-      <c r="C8" s="148">
+      <c r="C8" s="147">
         <f>'Rail2020-psgr'!B13</f>
         <v>5577505</v>
       </c>
-      <c r="D8" s="148">
+      <c r="D8" s="147">
         <f>'Rail2021-psgr'!B8</f>
         <v>8161437</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="147" t="s">
         <v>481</v>
       </c>
-      <c r="B9" s="148">
+      <c r="B9" s="147">
         <f>'Rail2019-psgr'!B12</f>
         <v>13025005</v>
       </c>
-      <c r="C9" s="148">
+      <c r="C9" s="147">
         <f>'Rail2020-psgr'!B12</f>
         <v>7875367</v>
       </c>
-      <c r="D9" s="148">
+      <c r="D9" s="147">
         <f>'Rail2021-psgr'!B7</f>
         <v>8972979</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="147" t="s">
         <v>482</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="147">
         <f>'Rail2019-psgr'!B11</f>
         <v>12025237</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="147">
         <f>'Rail2020-psgr'!B11</f>
         <v>7812478</v>
       </c>
-      <c r="D10" s="148">
+      <c r="D10" s="147">
         <f>'Rail2021-psgr'!B6</f>
         <v>8575737</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="147" t="s">
         <v>483</v>
       </c>
-      <c r="B11" s="148">
+      <c r="B11" s="147">
         <f>'Rail2019-psgr'!B10</f>
         <v>11807648</v>
       </c>
-      <c r="C11" s="148">
+      <c r="C11" s="147">
         <f>'Rail2020-psgr'!B10</f>
         <v>8633421</v>
       </c>
-      <c r="D11" s="148">
+      <c r="D11" s="147">
         <f>'Rail2021-psgr'!B5</f>
         <v>7666397</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="201" t="s">
         <v>420</v>
       </c>
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="148"/>
-      <c r="B14" s="148">
+      <c r="A14" s="147"/>
+      <c r="B14" s="147">
         <v>2019</v>
       </c>
-      <c r="C14" s="148">
+      <c r="C14" s="147">
         <v>2020</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="147">
         <v>2021</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="147" t="s">
         <v>421</v>
       </c>
-      <c r="B15" s="148">
+      <c r="B15" s="147">
         <f>SUM(B17:B20)</f>
         <v>9458964</v>
       </c>
-      <c r="C15" s="148">
+      <c r="C15" s="147">
         <f t="shared" ref="C15:D15" si="1">SUM(C17:C20)</f>
         <v>9072564</v>
       </c>
-      <c r="D15" s="148">
+      <c r="D15" s="147">
         <f t="shared" si="1"/>
         <v>8650541</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="148" t="s">
+      <c r="A16" s="147" t="s">
         <v>422</v>
       </c>
-      <c r="B16" s="148"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="145">
         <f>C15/$B$15</f>
         <v>0.95914986038640171</v>
@@ -7005,69 +7054,69 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="147" t="s">
         <v>423</v>
       </c>
-      <c r="B17" s="148">
+      <c r="B17" s="147">
         <f>'Rail2019-freight'!B17</f>
         <v>2301353</v>
       </c>
-      <c r="C17" s="148">
+      <c r="C17" s="147">
         <f>'Rail2020-freight'!B17</f>
         <v>2030096</v>
       </c>
-      <c r="D17" s="148">
+      <c r="D17" s="147">
         <f>'Rail2021-freight'!B9</f>
         <v>2001346</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="147" t="s">
         <v>424</v>
       </c>
-      <c r="B18" s="148">
+      <c r="B18" s="147">
         <f>'Rail2019-freight'!B16</f>
         <v>1897115</v>
       </c>
-      <c r="C18" s="148">
+      <c r="C18" s="147">
         <f>'Rail2020-freight'!B16</f>
         <v>2163356</v>
       </c>
-      <c r="D18" s="148">
+      <c r="D18" s="147">
         <f>'Rail2021-freight'!B8</f>
         <v>1772636</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="148" t="s">
+      <c r="A19" s="147" t="s">
         <v>425</v>
       </c>
-      <c r="B19" s="148">
+      <c r="B19" s="147">
         <f>'Rail2019-freight'!B15</f>
         <v>2613538</v>
       </c>
-      <c r="C19" s="148">
+      <c r="C19" s="147">
         <f>'Rail2020-freight'!B15</f>
         <v>2484472</v>
       </c>
-      <c r="D19" s="148">
+      <c r="D19" s="147">
         <f>'Rail2021-freight'!B7</f>
         <v>2495179</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="147" t="s">
         <v>426</v>
       </c>
-      <c r="B20" s="148">
+      <c r="B20" s="147">
         <f>'Rail2019-freight'!B14</f>
         <v>2646958</v>
       </c>
-      <c r="C20" s="148">
+      <c r="C20" s="147">
         <f>'Rail2020-freight'!B14</f>
         <v>2394640</v>
       </c>
-      <c r="D20" s="148">
+      <c r="D20" s="147">
         <f>'Rail2021-freight'!B6</f>
         <v>2381380</v>
       </c>
@@ -7079,7 +7128,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -7100,24 +7149,24 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="48.5" style="6" customWidth="1"/>
-    <col min="2" max="3" width="28.33203125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="28.375" style="6" customWidth="1"/>
     <col min="4" max="5" width="28.5" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" customHeight="1">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A1" s="202" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-    </row>
-    <row r="2" spans="1:5" ht="37" customHeight="1">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+    </row>
+    <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A2" s="92" t="s">
         <v>494</v>
       </c>
@@ -7134,7 +7183,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32.15" customHeight="1">
+    <row r="3" spans="1:5" ht="32.1" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>497</v>
       </c>
@@ -7151,7 +7200,7 @@
         <v>2809248</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32.15" customHeight="1">
+    <row r="4" spans="1:5" ht="32.1" customHeight="1">
       <c r="A4" s="93" t="s">
         <v>498</v>
       </c>
@@ -7168,7 +7217,7 @@
         <v>1898548</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32.15" customHeight="1">
+    <row r="5" spans="1:5" ht="32.1" customHeight="1">
       <c r="A5" s="93" t="s">
         <v>499</v>
       </c>
@@ -7185,7 +7234,7 @@
         <v>1042765</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32.15" customHeight="1">
+    <row r="6" spans="1:5" ht="32.1" customHeight="1">
       <c r="A6" s="93" t="s">
         <v>500</v>
       </c>
@@ -7202,7 +7251,7 @@
         <v>597606</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32.15" customHeight="1">
+    <row r="7" spans="1:5" ht="32.1" customHeight="1">
       <c r="A7" s="93" t="s">
         <v>501</v>
       </c>
@@ -7219,7 +7268,7 @@
         <v>68553</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32.15" customHeight="1">
+    <row r="8" spans="1:5" ht="32.1" customHeight="1">
       <c r="A8" s="93" t="s">
         <v>502</v>
       </c>
@@ -7236,7 +7285,7 @@
         <v>56693</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32.15" customHeight="1">
+    <row r="9" spans="1:5" ht="32.1" customHeight="1">
       <c r="A9" s="93" t="s">
         <v>503</v>
       </c>
@@ -7253,7 +7302,7 @@
         <v>36054</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32.15" customHeight="1">
+    <row r="10" spans="1:5" ht="32.1" customHeight="1">
       <c r="A10" s="93" t="s">
         <v>504</v>
       </c>
@@ -7270,7 +7319,7 @@
         <v>29391</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32.15" customHeight="1">
+    <row r="11" spans="1:5" ht="32.1" customHeight="1">
       <c r="A11" s="93" t="s">
         <v>505</v>
       </c>
@@ -7287,7 +7336,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32.15" customHeight="1">
+    <row r="12" spans="1:5" ht="32.1" customHeight="1">
       <c r="A12" s="93" t="s">
         <v>506</v>
       </c>
@@ -7304,7 +7353,7 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32.15" customHeight="1">
+    <row r="13" spans="1:5" ht="32.1" customHeight="1">
       <c r="A13" s="93" t="s">
         <v>507</v>
       </c>
@@ -7321,7 +7370,7 @@
         <v>11884</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32.15" customHeight="1">
+    <row r="14" spans="1:5" ht="32.1" customHeight="1">
       <c r="A14" s="93" t="s">
         <v>508</v>
       </c>
@@ -7338,7 +7387,7 @@
         <v>910700</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32.15" customHeight="1">
+    <row r="15" spans="1:5" ht="32.1" customHeight="1">
       <c r="A15" s="93" t="s">
         <v>509</v>
       </c>
@@ -7355,7 +7404,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32.15" customHeight="1">
+    <row r="16" spans="1:5" ht="32.1" customHeight="1">
       <c r="A16" s="93" t="s">
         <v>510</v>
       </c>
@@ -7372,7 +7421,7 @@
         <v>8202</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32.15" customHeight="1">
+    <row r="17" spans="1:5" ht="32.1" customHeight="1">
       <c r="A17" s="93" t="s">
         <v>511</v>
       </c>
@@ -7389,7 +7438,7 @@
         <v>13358</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32.15" customHeight="1">
+    <row r="18" spans="1:5" ht="32.1" customHeight="1">
       <c r="A18" s="93" t="s">
         <v>512</v>
       </c>
@@ -7406,7 +7455,7 @@
         <v>18281</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32.15" customHeight="1">
+    <row r="19" spans="1:5" ht="32.1" customHeight="1">
       <c r="A19" s="93" t="s">
         <v>513</v>
       </c>
@@ -7423,7 +7472,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32.15" customHeight="1">
+    <row r="20" spans="1:5" ht="32.1" customHeight="1">
       <c r="A20" s="93" t="s">
         <v>514</v>
       </c>
@@ -7440,7 +7489,7 @@
         <v>7030</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32.15" customHeight="1">
+    <row r="21" spans="1:5" ht="32.1" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>515</v>
       </c>
@@ -7457,7 +7506,7 @@
         <v>12816</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32.15" customHeight="1">
+    <row r="22" spans="1:5" ht="32.1" customHeight="1">
       <c r="A22" s="93" t="s">
         <v>516</v>
       </c>
@@ -7474,7 +7523,7 @@
         <v>10905</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="32.15" customHeight="1">
+    <row r="23" spans="1:5" ht="32.1" customHeight="1">
       <c r="A23" s="93" t="s">
         <v>517</v>
       </c>
@@ -7491,7 +7540,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="32.15" customHeight="1">
+    <row r="24" spans="1:5" ht="32.1" customHeight="1">
       <c r="A24" s="93" t="s">
         <v>518</v>
       </c>
@@ -7508,7 +7557,7 @@
         <v>10831</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32.15" customHeight="1">
+    <row r="25" spans="1:5" ht="32.1" customHeight="1">
       <c r="A25" s="93" t="s">
         <v>519</v>
       </c>
@@ -7525,7 +7574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32.15" customHeight="1">
+    <row r="26" spans="1:5" ht="32.1" customHeight="1">
       <c r="A26" s="93" t="s">
         <v>520</v>
       </c>
@@ -7542,7 +7591,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32.15" customHeight="1">
+    <row r="27" spans="1:5" ht="32.1" customHeight="1">
       <c r="A27" s="93" t="s">
         <v>521</v>
       </c>
@@ -7559,7 +7608,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32.15" customHeight="1">
+    <row r="28" spans="1:5" ht="32.1" customHeight="1">
       <c r="A28" s="93" t="s">
         <v>522</v>
       </c>
@@ -7576,7 +7625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32.15" customHeight="1">
+    <row r="29" spans="1:5" ht="32.1" customHeight="1">
       <c r="A29" s="93" t="s">
         <v>523</v>
       </c>
@@ -7593,7 +7642,7 @@
         <v>33476</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32.15" customHeight="1">
+    <row r="30" spans="1:5" ht="32.1" customHeight="1">
       <c r="A30" s="93" t="s">
         <v>524</v>
       </c>
@@ -7610,7 +7659,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32.15" customHeight="1">
+    <row r="31" spans="1:5" ht="32.1" customHeight="1">
       <c r="A31" s="93" t="s">
         <v>525</v>
       </c>
@@ -7627,7 +7676,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32.15" customHeight="1">
+    <row r="32" spans="1:5" ht="32.1" customHeight="1">
       <c r="A32" s="93" t="s">
         <v>526</v>
       </c>
@@ -7644,7 +7693,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="32.15" customHeight="1">
+    <row r="33" spans="1:5" ht="32.1" customHeight="1">
       <c r="A33" s="93" t="s">
         <v>527</v>
       </c>
@@ -7661,7 +7710,7 @@
         <v>14458</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="32.15" customHeight="1">
+    <row r="34" spans="1:5" ht="32.1" customHeight="1">
       <c r="A34" s="93" t="s">
         <v>528</v>
       </c>
@@ -7678,7 +7727,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="32.15" customHeight="1">
+    <row r="35" spans="1:5" ht="32.1" customHeight="1">
       <c r="A35" s="93" t="s">
         <v>529</v>
       </c>
@@ -7695,7 +7744,7 @@
         <v>10675</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="32.15" customHeight="1">
+    <row r="36" spans="1:5" ht="32.1" customHeight="1">
       <c r="A36" s="93" t="s">
         <v>530</v>
       </c>
@@ -7712,7 +7761,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="32.15" customHeight="1">
+    <row r="37" spans="1:5" ht="32.1" customHeight="1">
       <c r="A37" s="93" t="s">
         <v>531</v>
       </c>
@@ -7729,7 +7778,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="32.15" customHeight="1">
+    <row r="38" spans="1:5" ht="32.1" customHeight="1">
       <c r="A38" s="93" t="s">
         <v>532</v>
       </c>
@@ -7746,7 +7795,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="32.15" customHeight="1">
+    <row r="39" spans="1:5" ht="32.1" customHeight="1">
       <c r="A39" s="93" t="s">
         <v>533</v>
       </c>
@@ -7763,7 +7812,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="32.15" customHeight="1">
+    <row r="40" spans="1:5" ht="32.1" customHeight="1">
       <c r="A40" s="93" t="s">
         <v>534</v>
       </c>
@@ -7780,7 +7829,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="32.15" customHeight="1">
+    <row r="41" spans="1:5" ht="32.1" customHeight="1">
       <c r="A41" s="93" t="s">
         <v>535</v>
       </c>
@@ -7797,7 +7846,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="32.15" customHeight="1">
+    <row r="42" spans="1:5" ht="32.1" customHeight="1">
       <c r="A42" s="93" t="s">
         <v>536</v>
       </c>
@@ -7814,7 +7863,7 @@
         <v>10114</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="32.15" customHeight="1">
+    <row r="43" spans="1:5" ht="32.1" customHeight="1">
       <c r="A43" s="93" t="s">
         <v>537</v>
       </c>
@@ -7831,7 +7880,7 @@
         <v>28215</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="32.15" customHeight="1">
+    <row r="44" spans="1:5" ht="32.1" customHeight="1">
       <c r="A44" s="93" t="s">
         <v>538</v>
       </c>
@@ -7848,7 +7897,7 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="32.15" customHeight="1">
+    <row r="45" spans="1:5" ht="32.1" customHeight="1">
       <c r="A45" s="93" t="s">
         <v>539</v>
       </c>
@@ -7865,7 +7914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="32.15" customHeight="1">
+    <row r="46" spans="1:5" ht="32.1" customHeight="1">
       <c r="A46" s="93" t="s">
         <v>540</v>
       </c>
@@ -7882,7 +7931,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="32.15" customHeight="1">
+    <row r="47" spans="1:5" ht="32.1" customHeight="1">
       <c r="A47" s="93" t="s">
         <v>541</v>
       </c>
@@ -7899,7 +7948,7 @@
         <v>51950</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="32.15" customHeight="1">
+    <row r="48" spans="1:5" ht="32.1" customHeight="1">
       <c r="A48" s="93" t="s">
         <v>542</v>
       </c>
@@ -7916,7 +7965,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="32.15" customHeight="1">
+    <row r="49" spans="1:5" ht="32.1" customHeight="1">
       <c r="A49" s="93" t="s">
         <v>543</v>
       </c>
@@ -7933,7 +7982,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="32.15" customHeight="1">
+    <row r="50" spans="1:5" ht="32.1" customHeight="1">
       <c r="A50" s="93" t="s">
         <v>544</v>
       </c>
@@ -7950,7 +7999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="32.15" customHeight="1">
+    <row r="51" spans="1:5" ht="32.1" customHeight="1">
       <c r="A51" s="93" t="s">
         <v>545</v>
       </c>
@@ -7967,7 +8016,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="32.15" customHeight="1">
+    <row r="52" spans="1:5" ht="32.1" customHeight="1">
       <c r="A52" s="93" t="s">
         <v>546</v>
       </c>
@@ -7984,7 +8033,7 @@
         <v>9594</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="32.15" customHeight="1">
+    <row r="53" spans="1:5" ht="32.1" customHeight="1">
       <c r="A53" s="93" t="s">
         <v>547</v>
       </c>
@@ -8001,7 +8050,7 @@
         <v>11320</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="32.15" customHeight="1">
+    <row r="54" spans="1:5" ht="32.1" customHeight="1">
       <c r="A54" s="93" t="s">
         <v>548</v>
       </c>
@@ -8018,7 +8067,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="32.15" customHeight="1">
+    <row r="55" spans="1:5" ht="32.1" customHeight="1">
       <c r="A55" s="93" t="s">
         <v>549</v>
       </c>
@@ -8035,7 +8084,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="32.15" customHeight="1">
+    <row r="56" spans="1:5" ht="32.1" customHeight="1">
       <c r="A56" s="93" t="s">
         <v>550</v>
       </c>
@@ -8052,7 +8101,7 @@
         <v>20714</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="32.15" customHeight="1">
+    <row r="57" spans="1:5" ht="32.1" customHeight="1">
       <c r="A57" s="93" t="s">
         <v>551</v>
       </c>
@@ -8069,7 +8118,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="32.15" customHeight="1">
+    <row r="58" spans="1:5" ht="32.1" customHeight="1">
       <c r="A58" s="93" t="s">
         <v>552</v>
       </c>
@@ -8086,7 +8135,7 @@
         <v>13423</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="32.15" customHeight="1">
+    <row r="59" spans="1:5" ht="32.1" customHeight="1">
       <c r="A59" s="93" t="s">
         <v>553</v>
       </c>
@@ -8103,7 +8152,7 @@
         <v>14270</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="32.15" customHeight="1">
+    <row r="60" spans="1:5" ht="32.1" customHeight="1">
       <c r="A60" s="93" t="s">
         <v>554</v>
       </c>
@@ -8120,7 +8169,7 @@
         <v>16153</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="32.15" customHeight="1">
+    <row r="61" spans="1:5" ht="32.1" customHeight="1">
       <c r="A61" s="93" t="s">
         <v>555</v>
       </c>
@@ -8137,7 +8186,7 @@
         <v>13003</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="32.15" customHeight="1">
+    <row r="62" spans="1:5" ht="32.1" customHeight="1">
       <c r="A62" s="93" t="s">
         <v>556</v>
       </c>
@@ -8154,7 +8203,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="32.15" customHeight="1">
+    <row r="63" spans="1:5" ht="32.1" customHeight="1">
       <c r="A63" s="93" t="s">
         <v>557</v>
       </c>
@@ -8171,7 +8220,7 @@
         <v>8108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="32.15" customHeight="1">
+    <row r="64" spans="1:5" ht="32.1" customHeight="1">
       <c r="A64" s="93" t="s">
         <v>558</v>
       </c>
@@ -8188,7 +8237,7 @@
         <v>5446</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="32.15" customHeight="1">
+    <row r="65" spans="1:5" ht="32.1" customHeight="1">
       <c r="A65" s="93" t="s">
         <v>559</v>
       </c>
@@ -8205,7 +8254,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="32.15" customHeight="1">
+    <row r="66" spans="1:5" ht="32.1" customHeight="1">
       <c r="A66" s="93" t="s">
         <v>560</v>
       </c>
@@ -8222,7 +8271,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="32.15" customHeight="1">
+    <row r="67" spans="1:5" ht="32.1" customHeight="1">
       <c r="A67" s="93" t="s">
         <v>561</v>
       </c>
@@ -8239,7 +8288,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="32.15" customHeight="1">
+    <row r="68" spans="1:5" ht="32.1" customHeight="1">
       <c r="A68" s="93" t="s">
         <v>562</v>
       </c>
@@ -8256,7 +8305,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="32.15" customHeight="1">
+    <row r="69" spans="1:5" ht="32.1" customHeight="1">
       <c r="A69" s="93" t="s">
         <v>563</v>
       </c>
@@ -8273,7 +8322,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="32.15" customHeight="1">
+    <row r="70" spans="1:5" ht="32.1" customHeight="1">
       <c r="A70" s="93" t="s">
         <v>564</v>
       </c>
@@ -8290,7 +8339,7 @@
         <v>9086</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="32.15" customHeight="1">
+    <row r="71" spans="1:5" ht="32.1" customHeight="1">
       <c r="A71" s="93" t="s">
         <v>565</v>
       </c>
@@ -8307,7 +8356,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="32.15" customHeight="1">
+    <row r="72" spans="1:5" ht="32.1" customHeight="1">
       <c r="A72" s="93" t="s">
         <v>566</v>
       </c>
@@ -8324,7 +8373,7 @@
         <v>25724</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="32.15" customHeight="1">
+    <row r="73" spans="1:5" ht="32.1" customHeight="1">
       <c r="A73" s="93" t="s">
         <v>567</v>
       </c>
@@ -8341,7 +8390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="32.15" customHeight="1">
+    <row r="74" spans="1:5" ht="32.1" customHeight="1">
       <c r="A74" s="93" t="s">
         <v>568</v>
       </c>
@@ -8358,7 +8407,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="32.15" customHeight="1">
+    <row r="75" spans="1:5" ht="32.1" customHeight="1">
       <c r="A75" s="93" t="s">
         <v>569</v>
       </c>
@@ -8375,7 +8424,7 @@
         <v>10635</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="32.15" customHeight="1">
+    <row r="76" spans="1:5" ht="32.1" customHeight="1">
       <c r="A76" s="93" t="s">
         <v>570</v>
       </c>
@@ -8392,7 +8441,7 @@
         <v>5799</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="32.15" customHeight="1">
+    <row r="77" spans="1:5" ht="32.1" customHeight="1">
       <c r="A77" s="93" t="s">
         <v>571</v>
       </c>
@@ -8409,7 +8458,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="32.15" customHeight="1">
+    <row r="78" spans="1:5" ht="32.1" customHeight="1">
       <c r="A78" s="93" t="s">
         <v>572</v>
       </c>
@@ -8426,7 +8475,7 @@
         <v>19328</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="32.15" customHeight="1">
+    <row r="79" spans="1:5" ht="32.1" customHeight="1">
       <c r="A79" s="93" t="s">
         <v>573</v>
       </c>
@@ -8443,7 +8492,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="32.15" customHeight="1">
+    <row r="80" spans="1:5" ht="32.1" customHeight="1">
       <c r="A80" s="93" t="s">
         <v>574</v>
       </c>
@@ -8460,7 +8509,7 @@
         <v>27316</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="32.15" customHeight="1">
+    <row r="81" spans="1:5" ht="32.1" customHeight="1">
       <c r="A81" s="93" t="s">
         <v>575</v>
       </c>
@@ -8477,7 +8526,7 @@
         <v>30467</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="32.15" customHeight="1">
+    <row r="82" spans="1:5" ht="32.1" customHeight="1">
       <c r="A82" s="93" t="s">
         <v>576</v>
       </c>
@@ -8494,7 +8543,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="32.15" customHeight="1">
+    <row r="83" spans="1:5" ht="32.1" customHeight="1">
       <c r="A83" s="93" t="s">
         <v>577</v>
       </c>
@@ -8511,7 +8560,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="32.15" customHeight="1">
+    <row r="84" spans="1:5" ht="32.1" customHeight="1">
       <c r="A84" s="93" t="s">
         <v>578</v>
       </c>
@@ -8528,7 +8577,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="32.15" customHeight="1">
+    <row r="85" spans="1:5" ht="32.1" customHeight="1">
       <c r="A85" s="93" t="s">
         <v>579</v>
       </c>
@@ -8545,7 +8594,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="32.15" customHeight="1">
+    <row r="86" spans="1:5" ht="32.1" customHeight="1">
       <c r="A86" s="93" t="s">
         <v>580</v>
       </c>
@@ -8562,7 +8611,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="32.15" customHeight="1">
+    <row r="87" spans="1:5" ht="32.1" customHeight="1">
       <c r="A87" s="93" t="s">
         <v>581</v>
       </c>
@@ -8579,7 +8628,7 @@
         <v>19414</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="32.15" customHeight="1">
+    <row r="88" spans="1:5" ht="32.1" customHeight="1">
       <c r="A88" s="93" t="s">
         <v>582</v>
       </c>
@@ -8596,7 +8645,7 @@
         <v>15567</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="32.15" customHeight="1">
+    <row r="89" spans="1:5" ht="32.1" customHeight="1">
       <c r="A89" s="93" t="s">
         <v>583</v>
       </c>
@@ -8613,7 +8662,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="32.15" customHeight="1">
+    <row r="90" spans="1:5" ht="32.1" customHeight="1">
       <c r="A90" s="93" t="s">
         <v>584</v>
       </c>
@@ -8630,7 +8679,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="32.15" customHeight="1">
+    <row r="91" spans="1:5" ht="32.1" customHeight="1">
       <c r="A91" s="93" t="s">
         <v>585</v>
       </c>
@@ -8647,7 +8696,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="32.15" customHeight="1">
+    <row r="92" spans="1:5" ht="32.1" customHeight="1">
       <c r="A92" s="93" t="s">
         <v>586</v>
       </c>
@@ -8664,7 +8713,7 @@
         <v>6282</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="32.15" customHeight="1">
+    <row r="93" spans="1:5" ht="32.1" customHeight="1">
       <c r="A93" s="93" t="s">
         <v>587</v>
       </c>
@@ -8681,7 +8730,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="32.15" customHeight="1">
+    <row r="94" spans="1:5" ht="32.1" customHeight="1">
       <c r="A94" s="93" t="s">
         <v>588</v>
       </c>
@@ -8698,7 +8747,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="32.15" customHeight="1">
+    <row r="95" spans="1:5" ht="32.1" customHeight="1">
       <c r="A95" s="93" t="s">
         <v>589</v>
       </c>
@@ -8715,7 +8764,7 @@
         <v>8855</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="32.15" customHeight="1">
+    <row r="96" spans="1:5" ht="32.1" customHeight="1">
       <c r="A96" s="93" t="s">
         <v>590</v>
       </c>
@@ -8732,7 +8781,7 @@
         <v>38246</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="32.15" customHeight="1">
+    <row r="97" spans="1:5" ht="32.1" customHeight="1">
       <c r="A97" s="93" t="s">
         <v>591</v>
       </c>
@@ -8749,7 +8798,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="32.15" customHeight="1">
+    <row r="98" spans="1:5" ht="32.1" customHeight="1">
       <c r="A98" s="93" t="s">
         <v>592</v>
       </c>
@@ -8766,7 +8815,7 @@
         <v>33342</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="32.15" customHeight="1">
+    <row r="99" spans="1:5" ht="32.1" customHeight="1">
       <c r="A99" s="93" t="s">
         <v>593</v>
       </c>
@@ -8783,7 +8832,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="32.15" customHeight="1">
+    <row r="100" spans="1:5" ht="32.1" customHeight="1">
       <c r="A100" s="93" t="s">
         <v>594</v>
       </c>
@@ -8800,7 +8849,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="32.15" customHeight="1">
+    <row r="101" spans="1:5" ht="32.1" customHeight="1">
       <c r="A101" s="93" t="s">
         <v>595</v>
       </c>
@@ -8817,7 +8866,7 @@
         <v>9812</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="32.15" customHeight="1">
+    <row r="102" spans="1:5" ht="32.1" customHeight="1">
       <c r="A102" s="93" t="s">
         <v>596</v>
       </c>
@@ -8834,7 +8883,7 @@
         <v>32879</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="32.15" customHeight="1">
+    <row r="103" spans="1:5" ht="32.1" customHeight="1">
       <c r="A103" s="93" t="s">
         <v>597</v>
       </c>
@@ -8851,7 +8900,7 @@
         <v>20060</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="32.15" customHeight="1">
+    <row r="104" spans="1:5" ht="32.1" customHeight="1">
       <c r="A104" s="93" t="s">
         <v>598</v>
       </c>
@@ -8868,7 +8917,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="32.15" customHeight="1">
+    <row r="105" spans="1:5" ht="32.1" customHeight="1">
       <c r="A105" s="93" t="s">
         <v>599</v>
       </c>
@@ -8885,7 +8934,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="32.15" customHeight="1">
+    <row r="106" spans="1:5" ht="32.1" customHeight="1">
       <c r="A106" s="93" t="s">
         <v>600</v>
       </c>
@@ -8902,7 +8951,7 @@
         <v>35973</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="32.15" customHeight="1">
+    <row r="107" spans="1:5" ht="32.1" customHeight="1">
       <c r="A107" s="93" t="s">
         <v>601</v>
       </c>
@@ -8919,7 +8968,7 @@
         <v>80572</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="32.15" customHeight="1">
+    <row r="108" spans="1:5" ht="32.1" customHeight="1">
       <c r="A108" s="93" t="s">
         <v>602</v>
       </c>
@@ -8936,7 +8985,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="32.15" customHeight="1">
+    <row r="109" spans="1:5" ht="32.1" customHeight="1">
       <c r="A109" s="93" t="s">
         <v>603</v>
       </c>
@@ -8953,7 +9002,7 @@
         <v>11635</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="32.15" customHeight="1">
+    <row r="110" spans="1:5" ht="32.1" customHeight="1">
       <c r="A110" s="93" t="s">
         <v>604</v>
       </c>
@@ -8970,7 +9019,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="32.15" customHeight="1">
+    <row r="111" spans="1:5" ht="32.1" customHeight="1">
       <c r="A111" s="93" t="s">
         <v>605</v>
       </c>
@@ -8987,7 +9036,7 @@
         <v>9882</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="32.15" customHeight="1">
+    <row r="112" spans="1:5" ht="32.1" customHeight="1">
       <c r="A112" s="93" t="s">
         <v>606</v>
       </c>
@@ -9004,7 +9053,7 @@
         <v>4529</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="32.15" customHeight="1">
+    <row r="113" spans="1:5" ht="32.1" customHeight="1">
       <c r="A113" s="93" t="s">
         <v>607</v>
       </c>
@@ -9021,7 +9070,7 @@
         <v>11903</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="32.15" customHeight="1">
+    <row r="114" spans="1:5" ht="32.1" customHeight="1">
       <c r="A114" s="93" t="s">
         <v>608</v>
       </c>
@@ -9038,7 +9087,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="32.15" customHeight="1">
+    <row r="115" spans="1:5" ht="32.1" customHeight="1">
       <c r="A115" s="93" t="s">
         <v>609</v>
       </c>
@@ -9055,7 +9104,7 @@
         <v>4601</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="32.15" customHeight="1">
+    <row r="116" spans="1:5" ht="32.1" customHeight="1">
       <c r="A116" s="93" t="s">
         <v>610</v>
       </c>
@@ -9089,24 +9138,24 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="48.5" style="6" customWidth="1"/>
-    <col min="2" max="3" width="28.33203125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="28.375" style="6" customWidth="1"/>
     <col min="4" max="5" width="28.5" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" customHeight="1">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A1" s="202" t="s">
         <v>650</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-    </row>
-    <row r="2" spans="1:5" ht="37" customHeight="1">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+    </row>
+    <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A2" s="92" t="s">
         <v>494</v>
       </c>
@@ -9123,7 +9172,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32.15" customHeight="1">
+    <row r="3" spans="1:5" ht="32.1" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>497</v>
       </c>
@@ -9140,7 +9189,7 @@
         <v>2122170</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32.15" customHeight="1">
+    <row r="4" spans="1:5" ht="32.1" customHeight="1">
       <c r="A4" s="93" t="s">
         <v>498</v>
       </c>
@@ -9157,7 +9206,7 @@
         <v>1528230</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32.15" customHeight="1">
+    <row r="5" spans="1:5" ht="32.1" customHeight="1">
       <c r="A5" s="93" t="s">
         <v>499</v>
       </c>
@@ -9174,7 +9223,7 @@
         <v>937807</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32.15" customHeight="1">
+    <row r="6" spans="1:5" ht="32.1" customHeight="1">
       <c r="A6" s="93" t="s">
         <v>500</v>
       </c>
@@ -9191,7 +9240,7 @@
         <v>496386</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32.15" customHeight="1">
+    <row r="7" spans="1:5" ht="32.1" customHeight="1">
       <c r="A7" s="93" t="s">
         <v>501</v>
       </c>
@@ -9208,7 +9257,7 @@
         <v>23104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32.15" customHeight="1">
+    <row r="8" spans="1:5" ht="32.1" customHeight="1">
       <c r="A8" s="93" t="s">
         <v>502</v>
       </c>
@@ -9225,7 +9274,7 @@
         <v>20320</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32.15" customHeight="1">
+    <row r="9" spans="1:5" ht="32.1" customHeight="1">
       <c r="A9" s="93" t="s">
         <v>503</v>
       </c>
@@ -9242,7 +9291,7 @@
         <v>14712</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32.15" customHeight="1">
+    <row r="10" spans="1:5" ht="32.1" customHeight="1">
       <c r="A10" s="93" t="s">
         <v>504</v>
       </c>
@@ -9259,7 +9308,7 @@
         <v>6452</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32.15" customHeight="1">
+    <row r="11" spans="1:5" ht="32.1" customHeight="1">
       <c r="A11" s="93" t="s">
         <v>505</v>
       </c>
@@ -9276,7 +9325,7 @@
         <v>17216</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32.15" customHeight="1">
+    <row r="12" spans="1:5" ht="32.1" customHeight="1">
       <c r="A12" s="93" t="s">
         <v>506</v>
       </c>
@@ -9293,7 +9342,7 @@
         <v>7658</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32.15" customHeight="1">
+    <row r="13" spans="1:5" ht="32.1" customHeight="1">
       <c r="A13" s="93" t="s">
         <v>507</v>
       </c>
@@ -9310,7 +9359,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32.15" customHeight="1">
+    <row r="14" spans="1:5" ht="32.1" customHeight="1">
       <c r="A14" s="93" t="s">
         <v>612</v>
       </c>
@@ -9327,7 +9376,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32.15" customHeight="1">
+    <row r="15" spans="1:5" ht="32.1" customHeight="1">
       <c r="A15" s="93" t="s">
         <v>508</v>
       </c>
@@ -9344,7 +9393,7 @@
         <v>593940</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32.15" customHeight="1">
+    <row r="16" spans="1:5" ht="32.1" customHeight="1">
       <c r="A16" s="93" t="s">
         <v>509</v>
       </c>
@@ -9361,7 +9410,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32.15" customHeight="1">
+    <row r="17" spans="1:5" ht="32.1" customHeight="1">
       <c r="A17" s="93" t="s">
         <v>510</v>
       </c>
@@ -9378,7 +9427,7 @@
         <v>5825</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32.15" customHeight="1">
+    <row r="18" spans="1:5" ht="32.1" customHeight="1">
       <c r="A18" s="93" t="s">
         <v>619</v>
       </c>
@@ -9395,7 +9444,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32.15" customHeight="1">
+    <row r="19" spans="1:5" ht="32.1" customHeight="1">
       <c r="A19" s="93" t="s">
         <v>511</v>
       </c>
@@ -9412,7 +9461,7 @@
         <v>7632</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32.15" customHeight="1">
+    <row r="20" spans="1:5" ht="32.1" customHeight="1">
       <c r="A20" s="93" t="s">
         <v>620</v>
       </c>
@@ -9429,7 +9478,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32.15" customHeight="1">
+    <row r="21" spans="1:5" ht="32.1" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>512</v>
       </c>
@@ -9446,7 +9495,7 @@
         <v>15730</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32.15" customHeight="1">
+    <row r="22" spans="1:5" ht="32.1" customHeight="1">
       <c r="A22" s="93" t="s">
         <v>513</v>
       </c>
@@ -9463,7 +9512,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="32.15" customHeight="1">
+    <row r="23" spans="1:5" ht="32.1" customHeight="1">
       <c r="A23" s="93" t="s">
         <v>514</v>
       </c>
@@ -9480,7 +9529,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="32.15" customHeight="1">
+    <row r="24" spans="1:5" ht="32.1" customHeight="1">
       <c r="A24" s="93" t="s">
         <v>651</v>
       </c>
@@ -9497,7 +9546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32.15" customHeight="1">
+    <row r="25" spans="1:5" ht="32.1" customHeight="1">
       <c r="A25" s="93" t="s">
         <v>624</v>
       </c>
@@ -9514,7 +9563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32.15" customHeight="1">
+    <row r="26" spans="1:5" ht="32.1" customHeight="1">
       <c r="A26" s="93" t="s">
         <v>515</v>
       </c>
@@ -9531,7 +9580,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32.15" customHeight="1">
+    <row r="27" spans="1:5" ht="32.1" customHeight="1">
       <c r="A27" s="93" t="s">
         <v>516</v>
       </c>
@@ -9548,7 +9597,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32.15" customHeight="1">
+    <row r="28" spans="1:5" ht="32.1" customHeight="1">
       <c r="A28" s="93" t="s">
         <v>517</v>
       </c>
@@ -9565,7 +9614,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32.15" customHeight="1">
+    <row r="29" spans="1:5" ht="32.1" customHeight="1">
       <c r="A29" s="93" t="s">
         <v>518</v>
       </c>
@@ -9582,7 +9631,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32.15" customHeight="1">
+    <row r="30" spans="1:5" ht="32.1" customHeight="1">
       <c r="A30" s="93" t="s">
         <v>520</v>
       </c>
@@ -9599,7 +9648,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32.15" customHeight="1">
+    <row r="31" spans="1:5" ht="32.1" customHeight="1">
       <c r="A31" s="93" t="s">
         <v>521</v>
       </c>
@@ -9616,7 +9665,7 @@
         <v>32062</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32.15" customHeight="1">
+    <row r="32" spans="1:5" ht="32.1" customHeight="1">
       <c r="A32" s="93" t="s">
         <v>628</v>
       </c>
@@ -9633,7 +9682,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="32.15" customHeight="1">
+    <row r="33" spans="1:5" ht="32.1" customHeight="1">
       <c r="A33" s="93" t="s">
         <v>522</v>
       </c>
@@ -9650,7 +9699,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="32.15" customHeight="1">
+    <row r="34" spans="1:5" ht="32.1" customHeight="1">
       <c r="A34" s="93" t="s">
         <v>523</v>
       </c>
@@ -9667,7 +9716,7 @@
         <v>9048</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="32.15" customHeight="1">
+    <row r="35" spans="1:5" ht="32.1" customHeight="1">
       <c r="A35" s="93" t="s">
         <v>524</v>
       </c>
@@ -9684,7 +9733,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="32.15" customHeight="1">
+    <row r="36" spans="1:5" ht="32.1" customHeight="1">
       <c r="A36" s="93" t="s">
         <v>525</v>
       </c>
@@ -9701,7 +9750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="32.15" customHeight="1">
+    <row r="37" spans="1:5" ht="32.1" customHeight="1">
       <c r="A37" s="93" t="s">
         <v>526</v>
       </c>
@@ -9718,7 +9767,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="32.15" customHeight="1">
+    <row r="38" spans="1:5" ht="32.1" customHeight="1">
       <c r="A38" s="93" t="s">
         <v>527</v>
       </c>
@@ -9735,7 +9784,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="32.15" customHeight="1">
+    <row r="39" spans="1:5" ht="32.1" customHeight="1">
       <c r="A39" s="93" t="s">
         <v>652</v>
       </c>
@@ -9752,7 +9801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="32.15" customHeight="1">
+    <row r="40" spans="1:5" ht="32.1" customHeight="1">
       <c r="A40" s="93" t="s">
         <v>528</v>
       </c>
@@ -9769,7 +9818,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="32.15" customHeight="1">
+    <row r="41" spans="1:5" ht="32.1" customHeight="1">
       <c r="A41" s="93" t="s">
         <v>529</v>
       </c>
@@ -9786,7 +9835,7 @@
         <v>4144</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="32.15" customHeight="1">
+    <row r="42" spans="1:5" ht="32.1" customHeight="1">
       <c r="A42" s="93" t="s">
         <v>530</v>
       </c>
@@ -9803,7 +9852,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="32.15" customHeight="1">
+    <row r="43" spans="1:5" ht="32.1" customHeight="1">
       <c r="A43" s="93" t="s">
         <v>531</v>
       </c>
@@ -9820,7 +9869,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="32.15" customHeight="1">
+    <row r="44" spans="1:5" ht="32.1" customHeight="1">
       <c r="A44" s="93" t="s">
         <v>631</v>
       </c>
@@ -9837,7 +9886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="32.15" customHeight="1">
+    <row r="45" spans="1:5" ht="32.1" customHeight="1">
       <c r="A45" s="93" t="s">
         <v>532</v>
       </c>
@@ -9854,7 +9903,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="32.15" customHeight="1">
+    <row r="46" spans="1:5" ht="32.1" customHeight="1">
       <c r="A46" s="93" t="s">
         <v>653</v>
       </c>
@@ -9871,7 +9920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="32.15" customHeight="1">
+    <row r="47" spans="1:5" ht="32.1" customHeight="1">
       <c r="A47" s="93" t="s">
         <v>533</v>
       </c>
@@ -9888,7 +9937,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="32.15" customHeight="1">
+    <row r="48" spans="1:5" ht="32.1" customHeight="1">
       <c r="A48" s="93" t="s">
         <v>633</v>
       </c>
@@ -9905,7 +9954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="32.15" customHeight="1">
+    <row r="49" spans="1:5" ht="32.1" customHeight="1">
       <c r="A49" s="93" t="s">
         <v>534</v>
       </c>
@@ -9922,7 +9971,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="32.15" customHeight="1">
+    <row r="50" spans="1:5" ht="32.1" customHeight="1">
       <c r="A50" s="93" t="s">
         <v>654</v>
       </c>
@@ -9939,7 +9988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="32.15" customHeight="1">
+    <row r="51" spans="1:5" ht="32.1" customHeight="1">
       <c r="A51" s="93" t="s">
         <v>536</v>
       </c>
@@ -9956,7 +10005,7 @@
         <v>16313</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="32.15" customHeight="1">
+    <row r="52" spans="1:5" ht="32.1" customHeight="1">
       <c r="A52" s="93" t="s">
         <v>634</v>
       </c>
@@ -9973,7 +10022,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="32.15" customHeight="1">
+    <row r="53" spans="1:5" ht="32.1" customHeight="1">
       <c r="A53" s="93" t="s">
         <v>537</v>
       </c>
@@ -9990,7 +10039,7 @@
         <v>9336</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="32.15" customHeight="1">
+    <row r="54" spans="1:5" ht="32.1" customHeight="1">
       <c r="A54" s="93" t="s">
         <v>538</v>
       </c>
@@ -10007,7 +10056,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="32.15" customHeight="1">
+    <row r="55" spans="1:5" ht="32.1" customHeight="1">
       <c r="A55" s="93" t="s">
         <v>655</v>
       </c>
@@ -10024,7 +10073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="32.15" customHeight="1">
+    <row r="56" spans="1:5" ht="32.1" customHeight="1">
       <c r="A56" s="93" t="s">
         <v>540</v>
       </c>
@@ -10041,7 +10090,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="32.15" customHeight="1">
+    <row r="57" spans="1:5" ht="32.1" customHeight="1">
       <c r="A57" s="93" t="s">
         <v>636</v>
       </c>
@@ -10058,7 +10107,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="32.15" customHeight="1">
+    <row r="58" spans="1:5" ht="32.1" customHeight="1">
       <c r="A58" s="93" t="s">
         <v>637</v>
       </c>
@@ -10075,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="32.15" customHeight="1">
+    <row r="59" spans="1:5" ht="32.1" customHeight="1">
       <c r="A59" s="93" t="s">
         <v>541</v>
       </c>
@@ -10092,7 +10141,7 @@
         <v>40913</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="32.15" customHeight="1">
+    <row r="60" spans="1:5" ht="32.1" customHeight="1">
       <c r="A60" s="93" t="s">
         <v>543</v>
       </c>
@@ -10109,7 +10158,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="32.15" customHeight="1">
+    <row r="61" spans="1:5" ht="32.1" customHeight="1">
       <c r="A61" s="93" t="s">
         <v>545</v>
       </c>
@@ -10126,7 +10175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="32.15" customHeight="1">
+    <row r="62" spans="1:5" ht="32.1" customHeight="1">
       <c r="A62" s="93" t="s">
         <v>546</v>
       </c>
@@ -10143,7 +10192,7 @@
         <v>7479</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="32.15" customHeight="1">
+    <row r="63" spans="1:5" ht="32.1" customHeight="1">
       <c r="A63" s="93" t="s">
         <v>547</v>
       </c>
@@ -10160,7 +10209,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="32.15" customHeight="1">
+    <row r="64" spans="1:5" ht="32.1" customHeight="1">
       <c r="A64" s="93" t="s">
         <v>548</v>
       </c>
@@ -10177,7 +10226,7 @@
         <v>15555</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="32.15" customHeight="1">
+    <row r="65" spans="1:5" ht="32.1" customHeight="1">
       <c r="A65" s="93" t="s">
         <v>656</v>
       </c>
@@ -10194,7 +10243,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="32.15" customHeight="1">
+    <row r="66" spans="1:5" ht="32.1" customHeight="1">
       <c r="A66" s="93" t="s">
         <v>549</v>
       </c>
@@ -10211,7 +10260,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="32.15" customHeight="1">
+    <row r="67" spans="1:5" ht="32.1" customHeight="1">
       <c r="A67" s="93" t="s">
         <v>550</v>
       </c>
@@ -10228,7 +10277,7 @@
         <v>16119</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="32.15" customHeight="1">
+    <row r="68" spans="1:5" ht="32.1" customHeight="1">
       <c r="A68" s="93" t="s">
         <v>639</v>
       </c>
@@ -10245,7 +10294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="32.15" customHeight="1">
+    <row r="69" spans="1:5" ht="32.1" customHeight="1">
       <c r="A69" s="93" t="s">
         <v>551</v>
       </c>
@@ -10262,7 +10311,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="32.15" customHeight="1">
+    <row r="70" spans="1:5" ht="32.1" customHeight="1">
       <c r="A70" s="93" t="s">
         <v>552</v>
       </c>
@@ -10279,7 +10328,7 @@
         <v>5192</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="32.15" customHeight="1">
+    <row r="71" spans="1:5" ht="32.1" customHeight="1">
       <c r="A71" s="93" t="s">
         <v>553</v>
       </c>
@@ -10296,7 +10345,7 @@
         <v>9267</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="32.15" customHeight="1">
+    <row r="72" spans="1:5" ht="32.1" customHeight="1">
       <c r="A72" s="93" t="s">
         <v>554</v>
       </c>
@@ -10313,7 +10362,7 @@
         <v>6844</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="32.15" customHeight="1">
+    <row r="73" spans="1:5" ht="32.1" customHeight="1">
       <c r="A73" s="93" t="s">
         <v>555</v>
       </c>
@@ -10330,7 +10379,7 @@
         <v>14150</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="32.15" customHeight="1">
+    <row r="74" spans="1:5" ht="32.1" customHeight="1">
       <c r="A74" s="93" t="s">
         <v>556</v>
       </c>
@@ -10347,7 +10396,7 @@
         <v>5933</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="32.15" customHeight="1">
+    <row r="75" spans="1:5" ht="32.1" customHeight="1">
       <c r="A75" s="93" t="s">
         <v>557</v>
       </c>
@@ -10364,7 +10413,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="32.15" customHeight="1">
+    <row r="76" spans="1:5" ht="32.1" customHeight="1">
       <c r="A76" s="93" t="s">
         <v>640</v>
       </c>
@@ -10381,7 +10430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="32.15" customHeight="1">
+    <row r="77" spans="1:5" ht="32.1" customHeight="1">
       <c r="A77" s="93" t="s">
         <v>558</v>
       </c>
@@ -10398,7 +10447,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="32.15" customHeight="1">
+    <row r="78" spans="1:5" ht="32.1" customHeight="1">
       <c r="A78" s="93" t="s">
         <v>559</v>
       </c>
@@ -10415,7 +10464,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="32.15" customHeight="1">
+    <row r="79" spans="1:5" ht="32.1" customHeight="1">
       <c r="A79" s="93" t="s">
         <v>560</v>
       </c>
@@ -10432,7 +10481,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="32.15" customHeight="1">
+    <row r="80" spans="1:5" ht="32.1" customHeight="1">
       <c r="A80" s="93" t="s">
         <v>561</v>
       </c>
@@ -10449,7 +10498,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="32.15" customHeight="1">
+    <row r="81" spans="1:5" ht="32.1" customHeight="1">
       <c r="A81" s="93" t="s">
         <v>563</v>
       </c>
@@ -10466,7 +10515,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="32.15" customHeight="1">
+    <row r="82" spans="1:5" ht="32.1" customHeight="1">
       <c r="A82" s="93" t="s">
         <v>657</v>
       </c>
@@ -10483,7 +10532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="32.15" customHeight="1">
+    <row r="83" spans="1:5" ht="32.1" customHeight="1">
       <c r="A83" s="93" t="s">
         <v>564</v>
       </c>
@@ -10500,7 +10549,7 @@
         <v>4011</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="32.15" customHeight="1">
+    <row r="84" spans="1:5" ht="32.1" customHeight="1">
       <c r="A84" s="93" t="s">
         <v>565</v>
       </c>
@@ -10517,7 +10566,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="32.15" customHeight="1">
+    <row r="85" spans="1:5" ht="32.1" customHeight="1">
       <c r="A85" s="93" t="s">
         <v>566</v>
       </c>
@@ -10534,7 +10583,7 @@
         <v>24555</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="32.15" customHeight="1">
+    <row r="86" spans="1:5" ht="32.1" customHeight="1">
       <c r="A86" s="93" t="s">
         <v>658</v>
       </c>
@@ -10551,7 +10600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="32.15" customHeight="1">
+    <row r="87" spans="1:5" ht="32.1" customHeight="1">
       <c r="A87" s="93" t="s">
         <v>568</v>
       </c>
@@ -10568,7 +10617,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="32.15" customHeight="1">
+    <row r="88" spans="1:5" ht="32.1" customHeight="1">
       <c r="A88" s="93" t="s">
         <v>569</v>
       </c>
@@ -10585,7 +10634,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="32.15" customHeight="1">
+    <row r="89" spans="1:5" ht="32.1" customHeight="1">
       <c r="A89" s="93" t="s">
         <v>570</v>
       </c>
@@ -10602,7 +10651,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="32.15" customHeight="1">
+    <row r="90" spans="1:5" ht="32.1" customHeight="1">
       <c r="A90" s="93" t="s">
         <v>659</v>
       </c>
@@ -10619,7 +10668,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="32.15" customHeight="1">
+    <row r="91" spans="1:5" ht="32.1" customHeight="1">
       <c r="A91" s="93" t="s">
         <v>571</v>
       </c>
@@ -10636,7 +10685,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="32.15" customHeight="1">
+    <row r="92" spans="1:5" ht="32.1" customHeight="1">
       <c r="A92" s="93" t="s">
         <v>572</v>
       </c>
@@ -10653,7 +10702,7 @@
         <v>8256</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="32.15" customHeight="1">
+    <row r="93" spans="1:5" ht="32.1" customHeight="1">
       <c r="A93" s="93" t="s">
         <v>573</v>
       </c>
@@ -10670,7 +10719,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="32.15" customHeight="1">
+    <row r="94" spans="1:5" ht="32.1" customHeight="1">
       <c r="A94" s="93" t="s">
         <v>574</v>
       </c>
@@ -10687,7 +10736,7 @@
         <v>6386</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="32.15" customHeight="1">
+    <row r="95" spans="1:5" ht="32.1" customHeight="1">
       <c r="A95" s="93" t="s">
         <v>575</v>
       </c>
@@ -10704,7 +10753,7 @@
         <v>6352</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="32.15" customHeight="1">
+    <row r="96" spans="1:5" ht="32.1" customHeight="1">
       <c r="A96" s="93" t="s">
         <v>576</v>
       </c>
@@ -10721,7 +10770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="32.15" customHeight="1">
+    <row r="97" spans="1:5" ht="32.1" customHeight="1">
       <c r="A97" s="93" t="s">
         <v>577</v>
       </c>
@@ -10738,7 +10787,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="32.15" customHeight="1">
+    <row r="98" spans="1:5" ht="32.1" customHeight="1">
       <c r="A98" s="93" t="s">
         <v>578</v>
       </c>
@@ -10755,7 +10804,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="32.15" customHeight="1">
+    <row r="99" spans="1:5" ht="32.1" customHeight="1">
       <c r="A99" s="93" t="s">
         <v>579</v>
       </c>
@@ -10772,7 +10821,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="32.15" customHeight="1">
+    <row r="100" spans="1:5" ht="32.1" customHeight="1">
       <c r="A100" s="93" t="s">
         <v>580</v>
       </c>
@@ -10789,7 +10838,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="32.15" customHeight="1">
+    <row r="101" spans="1:5" ht="32.1" customHeight="1">
       <c r="A101" s="93" t="s">
         <v>581</v>
       </c>
@@ -10806,7 +10855,7 @@
         <v>22315</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="32.15" customHeight="1">
+    <row r="102" spans="1:5" ht="32.1" customHeight="1">
       <c r="A102" s="93" t="s">
         <v>582</v>
       </c>
@@ -10823,7 +10872,7 @@
         <v>11020</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="32.15" customHeight="1">
+    <row r="103" spans="1:5" ht="32.1" customHeight="1">
       <c r="A103" s="93" t="s">
         <v>660</v>
       </c>
@@ -10840,7 +10889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="32.15" customHeight="1">
+    <row r="104" spans="1:5" ht="32.1" customHeight="1">
       <c r="A104" s="93" t="s">
         <v>584</v>
       </c>
@@ -10857,7 +10906,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="32.15" customHeight="1">
+    <row r="105" spans="1:5" ht="32.1" customHeight="1">
       <c r="A105" s="93" t="s">
         <v>585</v>
       </c>
@@ -10874,7 +10923,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="32.15" customHeight="1">
+    <row r="106" spans="1:5" ht="32.1" customHeight="1">
       <c r="A106" s="93" t="s">
         <v>586</v>
       </c>
@@ -10891,7 +10940,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="32.15" customHeight="1">
+    <row r="107" spans="1:5" ht="32.1" customHeight="1">
       <c r="A107" s="93" t="s">
         <v>587</v>
       </c>
@@ -10908,7 +10957,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="32.15" customHeight="1">
+    <row r="108" spans="1:5" ht="32.1" customHeight="1">
       <c r="A108" s="93" t="s">
         <v>588</v>
       </c>
@@ -10925,7 +10974,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="32.15" customHeight="1">
+    <row r="109" spans="1:5" ht="32.1" customHeight="1">
       <c r="A109" s="93" t="s">
         <v>589</v>
       </c>
@@ -10942,7 +10991,7 @@
         <v>11669</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="32.15" customHeight="1">
+    <row r="110" spans="1:5" ht="32.1" customHeight="1">
       <c r="A110" s="93" t="s">
         <v>590</v>
       </c>
@@ -10959,7 +11008,7 @@
         <v>35394</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="32.15" customHeight="1">
+    <row r="111" spans="1:5" ht="32.1" customHeight="1">
       <c r="A111" s="93" t="s">
         <v>591</v>
       </c>
@@ -10976,7 +11025,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="32.15" customHeight="1">
+    <row r="112" spans="1:5" ht="32.1" customHeight="1">
       <c r="A112" s="93" t="s">
         <v>592</v>
       </c>
@@ -10993,7 +11042,7 @@
         <v>10799</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="32.15" customHeight="1">
+    <row r="113" spans="1:5" ht="32.1" customHeight="1">
       <c r="A113" s="93" t="s">
         <v>593</v>
       </c>
@@ -11010,7 +11059,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="32.15" customHeight="1">
+    <row r="114" spans="1:5" ht="32.1" customHeight="1">
       <c r="A114" s="93" t="s">
         <v>661</v>
       </c>
@@ -11027,7 +11076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="32.15" customHeight="1">
+    <row r="115" spans="1:5" ht="32.1" customHeight="1">
       <c r="A115" s="93" t="s">
         <v>594</v>
       </c>
@@ -11044,7 +11093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="32.15" customHeight="1">
+    <row r="116" spans="1:5" ht="32.1" customHeight="1">
       <c r="A116" s="93" t="s">
         <v>595</v>
       </c>
@@ -11061,7 +11110,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="32.15" customHeight="1">
+    <row r="117" spans="1:5" ht="32.1" customHeight="1">
       <c r="A117" s="93" t="s">
         <v>596</v>
       </c>
@@ -11078,7 +11127,7 @@
         <v>11405</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="32.15" customHeight="1">
+    <row r="118" spans="1:5" ht="32.1" customHeight="1">
       <c r="A118" s="93" t="s">
         <v>662</v>
       </c>
@@ -11095,7 +11144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="32.15" customHeight="1">
+    <row r="119" spans="1:5" ht="32.1" customHeight="1">
       <c r="A119" s="93" t="s">
         <v>597</v>
       </c>
@@ -11112,7 +11161,7 @@
         <v>14015</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="32.15" customHeight="1">
+    <row r="120" spans="1:5" ht="32.1" customHeight="1">
       <c r="A120" s="93" t="s">
         <v>647</v>
       </c>
@@ -11129,7 +11178,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="32.15" customHeight="1">
+    <row r="121" spans="1:5" ht="32.1" customHeight="1">
       <c r="A121" s="93" t="s">
         <v>663</v>
       </c>
@@ -11146,7 +11195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="32.15" customHeight="1">
+    <row r="122" spans="1:5" ht="32.1" customHeight="1">
       <c r="A122" s="93" t="s">
         <v>599</v>
       </c>
@@ -11163,7 +11212,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="32.15" customHeight="1">
+    <row r="123" spans="1:5" ht="32.1" customHeight="1">
       <c r="A123" s="93" t="s">
         <v>600</v>
       </c>
@@ -11180,7 +11229,7 @@
         <v>39276</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="32.15" customHeight="1">
+    <row r="124" spans="1:5" ht="32.1" customHeight="1">
       <c r="A124" s="93" t="s">
         <v>664</v>
       </c>
@@ -11197,7 +11246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="32.15" customHeight="1">
+    <row r="125" spans="1:5" ht="32.1" customHeight="1">
       <c r="A125" s="93" t="s">
         <v>601</v>
       </c>
@@ -11214,7 +11263,7 @@
         <v>56724</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="32.15" customHeight="1">
+    <row r="126" spans="1:5" ht="32.1" customHeight="1">
       <c r="A126" s="93" t="s">
         <v>602</v>
       </c>
@@ -11231,7 +11280,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="32.15" customHeight="1">
+    <row r="127" spans="1:5" ht="32.1" customHeight="1">
       <c r="A127" s="93" t="s">
         <v>603</v>
       </c>
@@ -11248,7 +11297,7 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="32.15" customHeight="1">
+    <row r="128" spans="1:5" ht="32.1" customHeight="1">
       <c r="A128" s="93" t="s">
         <v>604</v>
       </c>
@@ -11265,7 +11314,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="32.15" customHeight="1">
+    <row r="129" spans="1:5" ht="32.1" customHeight="1">
       <c r="A129" s="93" t="s">
         <v>605</v>
       </c>
@@ -11282,7 +11331,7 @@
         <v>5557</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="32.15" customHeight="1">
+    <row r="130" spans="1:5" ht="32.1" customHeight="1">
       <c r="A130" s="93" t="s">
         <v>606</v>
       </c>
@@ -11299,7 +11348,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="32.15" customHeight="1">
+    <row r="131" spans="1:5" ht="32.1" customHeight="1">
       <c r="A131" s="93" t="s">
         <v>607</v>
       </c>
@@ -11316,7 +11365,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="32.15" customHeight="1">
+    <row r="132" spans="1:5" ht="32.1" customHeight="1">
       <c r="A132" s="93" t="s">
         <v>608</v>
       </c>
@@ -11333,7 +11382,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="32.15" customHeight="1">
+    <row r="133" spans="1:5" ht="32.1" customHeight="1">
       <c r="A133" s="93" t="s">
         <v>665</v>
       </c>
@@ -11350,7 +11399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="32.15" customHeight="1">
+    <row r="134" spans="1:5" ht="32.1" customHeight="1">
       <c r="A134" s="93" t="s">
         <v>649</v>
       </c>
@@ -11367,7 +11416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="32.15" customHeight="1">
+    <row r="135" spans="1:5" ht="32.1" customHeight="1">
       <c r="A135" s="93" t="s">
         <v>609</v>
       </c>
@@ -11384,7 +11433,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="32.15" customHeight="1">
+    <row r="136" spans="1:5" ht="32.1" customHeight="1">
       <c r="A136" s="93" t="s">
         <v>610</v>
       </c>
@@ -11401,7 +11450,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="32.15" customHeight="1">
+    <row r="137" spans="1:5" ht="32.1" customHeight="1">
       <c r="A137" s="93" t="s">
         <v>666</v>
       </c>
@@ -11435,24 +11484,24 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="48.5" style="6" customWidth="1"/>
-    <col min="2" max="3" width="28.33203125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="28.375" style="6" customWidth="1"/>
     <col min="4" max="5" width="28.5" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" customHeight="1">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A1" s="202" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-    </row>
-    <row r="2" spans="1:5" ht="37" customHeight="1">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+    </row>
+    <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A2" s="92" t="s">
         <v>494</v>
       </c>
@@ -11469,7 +11518,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32.15" customHeight="1">
+    <row r="3" spans="1:5" ht="32.1" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>497</v>
       </c>
@@ -11486,7 +11535,7 @@
         <v>2362615</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32.15" customHeight="1">
+    <row r="4" spans="1:5" ht="32.1" customHeight="1">
       <c r="A4" s="93" t="s">
         <v>498</v>
       </c>
@@ -11503,7 +11552,7 @@
         <v>1674325</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32.15" customHeight="1">
+    <row r="5" spans="1:5" ht="32.1" customHeight="1">
       <c r="A5" s="93" t="s">
         <v>499</v>
       </c>
@@ -11520,7 +11569,7 @@
         <v>1091951</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32.15" customHeight="1">
+    <row r="6" spans="1:5" ht="32.1" customHeight="1">
       <c r="A6" s="93" t="s">
         <v>500</v>
       </c>
@@ -11537,7 +11586,7 @@
         <v>500834</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32.15" customHeight="1">
+    <row r="7" spans="1:5" ht="32.1" customHeight="1">
       <c r="A7" s="93" t="s">
         <v>501</v>
       </c>
@@ -11554,7 +11603,7 @@
         <v>17171</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32.15" customHeight="1">
+    <row r="8" spans="1:5" ht="32.1" customHeight="1">
       <c r="A8" s="93" t="s">
         <v>502</v>
       </c>
@@ -11571,7 +11620,7 @@
         <v>18240</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32.15" customHeight="1">
+    <row r="9" spans="1:5" ht="32.1" customHeight="1">
       <c r="A9" s="93" t="s">
         <v>503</v>
       </c>
@@ -11588,7 +11637,7 @@
         <v>13909</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32.15" customHeight="1">
+    <row r="10" spans="1:5" ht="32.1" customHeight="1">
       <c r="A10" s="93" t="s">
         <v>505</v>
       </c>
@@ -11605,7 +11654,7 @@
         <v>15917</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32.15" customHeight="1">
+    <row r="11" spans="1:5" ht="32.1" customHeight="1">
       <c r="A11" s="93" t="s">
         <v>506</v>
       </c>
@@ -11622,7 +11671,7 @@
         <v>12205</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32.15" customHeight="1">
+    <row r="12" spans="1:5" ht="32.1" customHeight="1">
       <c r="A12" s="93" t="s">
         <v>507</v>
       </c>
@@ -11639,7 +11688,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32.15" customHeight="1">
+    <row r="13" spans="1:5" ht="32.1" customHeight="1">
       <c r="A13" s="93" t="s">
         <v>612</v>
       </c>
@@ -11656,7 +11705,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32.15" customHeight="1">
+    <row r="14" spans="1:5" ht="32.1" customHeight="1">
       <c r="A14" s="93" t="s">
         <v>613</v>
       </c>
@@ -11673,7 +11722,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32.15" customHeight="1">
+    <row r="15" spans="1:5" ht="32.1" customHeight="1">
       <c r="A15" s="93" t="s">
         <v>614</v>
       </c>
@@ -11690,7 +11739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32.15" customHeight="1">
+    <row r="16" spans="1:5" ht="32.1" customHeight="1">
       <c r="A16" s="93" t="s">
         <v>508</v>
       </c>
@@ -11707,7 +11756,7 @@
         <v>688289</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32.15" customHeight="1">
+    <row r="17" spans="1:5" ht="32.1" customHeight="1">
       <c r="A17" s="93" t="s">
         <v>615</v>
       </c>
@@ -11724,7 +11773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32.15" customHeight="1">
+    <row r="18" spans="1:5" ht="32.1" customHeight="1">
       <c r="A18" s="93" t="s">
         <v>616</v>
       </c>
@@ -11741,7 +11790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32.15" customHeight="1">
+    <row r="19" spans="1:5" ht="32.1" customHeight="1">
       <c r="A19" s="93" t="s">
         <v>617</v>
       </c>
@@ -11758,7 +11807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32.15" customHeight="1">
+    <row r="20" spans="1:5" ht="32.1" customHeight="1">
       <c r="A20" s="93" t="s">
         <v>618</v>
       </c>
@@ -11775,7 +11824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32.15" customHeight="1">
+    <row r="21" spans="1:5" ht="32.1" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>509</v>
       </c>
@@ -11792,7 +11841,7 @@
         <v>3571</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32.15" customHeight="1">
+    <row r="22" spans="1:5" ht="32.1" customHeight="1">
       <c r="A22" s="93" t="s">
         <v>510</v>
       </c>
@@ -11809,7 +11858,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="32.15" customHeight="1">
+    <row r="23" spans="1:5" ht="32.1" customHeight="1">
       <c r="A23" s="93" t="s">
         <v>619</v>
       </c>
@@ -11826,7 +11875,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="32.15" customHeight="1">
+    <row r="24" spans="1:5" ht="32.1" customHeight="1">
       <c r="A24" s="93" t="s">
         <v>511</v>
       </c>
@@ -11843,7 +11892,7 @@
         <v>8702</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32.15" customHeight="1">
+    <row r="25" spans="1:5" ht="32.1" customHeight="1">
       <c r="A25" s="93" t="s">
         <v>620</v>
       </c>
@@ -11860,7 +11909,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32.15" customHeight="1">
+    <row r="26" spans="1:5" ht="32.1" customHeight="1">
       <c r="A26" s="93" t="s">
         <v>512</v>
       </c>
@@ -11877,7 +11926,7 @@
         <v>12789</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32.15" customHeight="1">
+    <row r="27" spans="1:5" ht="32.1" customHeight="1">
       <c r="A27" s="93" t="s">
         <v>621</v>
       </c>
@@ -11894,7 +11943,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32.15" customHeight="1">
+    <row r="28" spans="1:5" ht="32.1" customHeight="1">
       <c r="A28" s="93" t="s">
         <v>513</v>
       </c>
@@ -11911,7 +11960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32.15" customHeight="1">
+    <row r="29" spans="1:5" ht="32.1" customHeight="1">
       <c r="A29" s="93" t="s">
         <v>622</v>
       </c>
@@ -11928,7 +11977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32.15" customHeight="1">
+    <row r="30" spans="1:5" ht="32.1" customHeight="1">
       <c r="A30" s="93" t="s">
         <v>623</v>
       </c>
@@ -11945,7 +11994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32.15" customHeight="1">
+    <row r="31" spans="1:5" ht="32.1" customHeight="1">
       <c r="A31" s="93" t="s">
         <v>514</v>
       </c>
@@ -11962,7 +12011,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32.15" customHeight="1">
+    <row r="32" spans="1:5" ht="32.1" customHeight="1">
       <c r="A32" s="93" t="s">
         <v>624</v>
       </c>
@@ -11979,7 +12028,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="32.15" customHeight="1">
+    <row r="33" spans="1:5" ht="32.1" customHeight="1">
       <c r="A33" s="93" t="s">
         <v>515</v>
       </c>
@@ -11996,7 +12045,7 @@
         <v>4796</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="32.15" customHeight="1">
+    <row r="34" spans="1:5" ht="32.1" customHeight="1">
       <c r="A34" s="93" t="s">
         <v>516</v>
       </c>
@@ -12013,7 +12062,7 @@
         <v>10486</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="32.15" customHeight="1">
+    <row r="35" spans="1:5" ht="32.1" customHeight="1">
       <c r="A35" s="93" t="s">
         <v>517</v>
       </c>
@@ -12030,7 +12079,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="32.15" customHeight="1">
+    <row r="36" spans="1:5" ht="32.1" customHeight="1">
       <c r="A36" s="93" t="s">
         <v>625</v>
       </c>
@@ -12047,7 +12096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="32.15" customHeight="1">
+    <row r="37" spans="1:5" ht="32.1" customHeight="1">
       <c r="A37" s="93" t="s">
         <v>518</v>
       </c>
@@ -12064,7 +12113,7 @@
         <v>7582</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="32.15" customHeight="1">
+    <row r="38" spans="1:5" ht="32.1" customHeight="1">
       <c r="A38" s="93" t="s">
         <v>626</v>
       </c>
@@ -12081,7 +12130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="32.15" customHeight="1">
+    <row r="39" spans="1:5" ht="32.1" customHeight="1">
       <c r="A39" s="93" t="s">
         <v>520</v>
       </c>
@@ -12098,7 +12147,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="32.15" customHeight="1">
+    <row r="40" spans="1:5" ht="32.1" customHeight="1">
       <c r="A40" s="93" t="s">
         <v>521</v>
       </c>
@@ -12115,7 +12164,7 @@
         <v>24697</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="32.15" customHeight="1">
+    <row r="41" spans="1:5" ht="32.1" customHeight="1">
       <c r="A41" s="93" t="s">
         <v>627</v>
       </c>
@@ -12132,7 +12181,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="32.15" customHeight="1">
+    <row r="42" spans="1:5" ht="32.1" customHeight="1">
       <c r="A42" s="93" t="s">
         <v>628</v>
       </c>
@@ -12149,7 +12198,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="32.15" customHeight="1">
+    <row r="43" spans="1:5" ht="32.1" customHeight="1">
       <c r="A43" s="93" t="s">
         <v>522</v>
       </c>
@@ -12166,7 +12215,7 @@
         <v>6245</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="32.15" customHeight="1">
+    <row r="44" spans="1:5" ht="32.1" customHeight="1">
       <c r="A44" s="93" t="s">
         <v>629</v>
       </c>
@@ -12183,7 +12232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="32.15" customHeight="1">
+    <row r="45" spans="1:5" ht="32.1" customHeight="1">
       <c r="A45" s="93" t="s">
         <v>523</v>
       </c>
@@ -12200,7 +12249,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="32.15" customHeight="1">
+    <row r="46" spans="1:5" ht="32.1" customHeight="1">
       <c r="A46" s="93" t="s">
         <v>524</v>
       </c>
@@ -12217,7 +12266,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="32.15" customHeight="1">
+    <row r="47" spans="1:5" ht="32.1" customHeight="1">
       <c r="A47" s="93" t="s">
         <v>630</v>
       </c>
@@ -12234,7 +12283,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="32.15" customHeight="1">
+    <row r="48" spans="1:5" ht="32.1" customHeight="1">
       <c r="A48" s="93" t="s">
         <v>527</v>
       </c>
@@ -12251,7 +12300,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="32.15" customHeight="1">
+    <row r="49" spans="1:5" ht="32.1" customHeight="1">
       <c r="A49" s="93" t="s">
         <v>529</v>
       </c>
@@ -12268,7 +12317,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="32.15" customHeight="1">
+    <row r="50" spans="1:5" ht="32.1" customHeight="1">
       <c r="A50" s="93" t="s">
         <v>531</v>
       </c>
@@ -12285,7 +12334,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="32.15" customHeight="1">
+    <row r="51" spans="1:5" ht="32.1" customHeight="1">
       <c r="A51" s="93" t="s">
         <v>631</v>
       </c>
@@ -12302,7 +12351,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="32.15" customHeight="1">
+    <row r="52" spans="1:5" ht="32.1" customHeight="1">
       <c r="A52" s="93" t="s">
         <v>632</v>
       </c>
@@ -12319,7 +12368,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="32.15" customHeight="1">
+    <row r="53" spans="1:5" ht="32.1" customHeight="1">
       <c r="A53" s="93" t="s">
         <v>533</v>
       </c>
@@ -12336,7 +12385,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="32.15" customHeight="1">
+    <row r="54" spans="1:5" ht="32.1" customHeight="1">
       <c r="A54" s="93" t="s">
         <v>633</v>
       </c>
@@ -12353,7 +12402,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="32.15" customHeight="1">
+    <row r="55" spans="1:5" ht="32.1" customHeight="1">
       <c r="A55" s="93" t="s">
         <v>534</v>
       </c>
@@ -12370,7 +12419,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="32.15" customHeight="1">
+    <row r="56" spans="1:5" ht="32.1" customHeight="1">
       <c r="A56" s="93" t="s">
         <v>536</v>
       </c>
@@ -12387,7 +12436,7 @@
         <v>17540</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="32.15" customHeight="1">
+    <row r="57" spans="1:5" ht="32.1" customHeight="1">
       <c r="A57" s="93" t="s">
         <v>634</v>
       </c>
@@ -12404,7 +12453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="32.15" customHeight="1">
+    <row r="58" spans="1:5" ht="32.1" customHeight="1">
       <c r="A58" s="93" t="s">
         <v>537</v>
       </c>
@@ -12421,7 +12470,7 @@
         <v>7919</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="32.15" customHeight="1">
+    <row r="59" spans="1:5" ht="32.1" customHeight="1">
       <c r="A59" s="93" t="s">
         <v>538</v>
       </c>
@@ -12438,7 +12487,7 @@
         <v>18095</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="32.15" customHeight="1">
+    <row r="60" spans="1:5" ht="32.1" customHeight="1">
       <c r="A60" s="93" t="s">
         <v>539</v>
       </c>
@@ -12455,7 +12504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="32.15" customHeight="1">
+    <row r="61" spans="1:5" ht="32.1" customHeight="1">
       <c r="A61" s="93" t="s">
         <v>540</v>
       </c>
@@ -12472,7 +12521,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="32.15" customHeight="1">
+    <row r="62" spans="1:5" ht="32.1" customHeight="1">
       <c r="A62" s="93" t="s">
         <v>635</v>
       </c>
@@ -12489,7 +12538,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="32.15" customHeight="1">
+    <row r="63" spans="1:5" ht="32.1" customHeight="1">
       <c r="A63" s="93" t="s">
         <v>636</v>
       </c>
@@ -12506,7 +12555,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="32.15" customHeight="1">
+    <row r="64" spans="1:5" ht="32.1" customHeight="1">
       <c r="A64" s="93" t="s">
         <v>637</v>
       </c>
@@ -12523,7 +12572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="32.15" customHeight="1">
+    <row r="65" spans="1:5" ht="32.1" customHeight="1">
       <c r="A65" s="93" t="s">
         <v>541</v>
       </c>
@@ -12540,7 +12589,7 @@
         <v>40919</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="32.15" customHeight="1">
+    <row r="66" spans="1:5" ht="32.1" customHeight="1">
       <c r="A66" s="93" t="s">
         <v>542</v>
       </c>
@@ -12557,7 +12606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="32.15" customHeight="1">
+    <row r="67" spans="1:5" ht="32.1" customHeight="1">
       <c r="A67" s="93" t="s">
         <v>638</v>
       </c>
@@ -12574,7 +12623,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="32.15" customHeight="1">
+    <row r="68" spans="1:5" ht="32.1" customHeight="1">
       <c r="A68" s="93" t="s">
         <v>546</v>
       </c>
@@ -12591,7 +12640,7 @@
         <v>11819</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="32.15" customHeight="1">
+    <row r="69" spans="1:5" ht="32.1" customHeight="1">
       <c r="A69" s="93" t="s">
         <v>547</v>
       </c>
@@ -12608,7 +12657,7 @@
         <v>9318</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="32.15" customHeight="1">
+    <row r="70" spans="1:5" ht="32.1" customHeight="1">
       <c r="A70" s="93" t="s">
         <v>548</v>
       </c>
@@ -12625,7 +12674,7 @@
         <v>14255</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="32.15" customHeight="1">
+    <row r="71" spans="1:5" ht="32.1" customHeight="1">
       <c r="A71" s="93" t="s">
         <v>550</v>
       </c>
@@ -12642,7 +12691,7 @@
         <v>27823</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="32.15" customHeight="1">
+    <row r="72" spans="1:5" ht="32.1" customHeight="1">
       <c r="A72" s="93" t="s">
         <v>639</v>
       </c>
@@ -12659,7 +12708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="32.15" customHeight="1">
+    <row r="73" spans="1:5" ht="32.1" customHeight="1">
       <c r="A73" s="93" t="s">
         <v>551</v>
       </c>
@@ -12676,7 +12725,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="32.15" customHeight="1">
+    <row r="74" spans="1:5" ht="32.1" customHeight="1">
       <c r="A74" s="93" t="s">
         <v>552</v>
       </c>
@@ -12693,7 +12742,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="32.15" customHeight="1">
+    <row r="75" spans="1:5" ht="32.1" customHeight="1">
       <c r="A75" s="93" t="s">
         <v>553</v>
       </c>
@@ -12710,7 +12759,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="32.15" customHeight="1">
+    <row r="76" spans="1:5" ht="32.1" customHeight="1">
       <c r="A76" s="93" t="s">
         <v>554</v>
       </c>
@@ -12727,7 +12776,7 @@
         <v>8632</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="32.15" customHeight="1">
+    <row r="77" spans="1:5" ht="32.1" customHeight="1">
       <c r="A77" s="93" t="s">
         <v>555</v>
       </c>
@@ -12744,7 +12793,7 @@
         <v>15083</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="32.15" customHeight="1">
+    <row r="78" spans="1:5" ht="32.1" customHeight="1">
       <c r="A78" s="93" t="s">
         <v>556</v>
       </c>
@@ -12761,7 +12810,7 @@
         <v>9304</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="32.15" customHeight="1">
+    <row r="79" spans="1:5" ht="32.1" customHeight="1">
       <c r="A79" s="93" t="s">
         <v>557</v>
       </c>
@@ -12778,7 +12827,7 @@
         <v>10551</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="32.15" customHeight="1">
+    <row r="80" spans="1:5" ht="32.1" customHeight="1">
       <c r="A80" s="93" t="s">
         <v>640</v>
       </c>
@@ -12795,7 +12844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="32.15" customHeight="1">
+    <row r="81" spans="1:5" ht="32.1" customHeight="1">
       <c r="A81" s="93" t="s">
         <v>558</v>
       </c>
@@ -12812,7 +12861,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="32.15" customHeight="1">
+    <row r="82" spans="1:5" ht="32.1" customHeight="1">
       <c r="A82" s="93" t="s">
         <v>559</v>
       </c>
@@ -12829,7 +12878,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="32.15" customHeight="1">
+    <row r="83" spans="1:5" ht="32.1" customHeight="1">
       <c r="A83" s="93" t="s">
         <v>641</v>
       </c>
@@ -12846,7 +12895,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="32.15" customHeight="1">
+    <row r="84" spans="1:5" ht="32.1" customHeight="1">
       <c r="A84" s="93" t="s">
         <v>561</v>
       </c>
@@ -12863,7 +12912,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="32.15" customHeight="1">
+    <row r="85" spans="1:5" ht="32.1" customHeight="1">
       <c r="A85" s="93" t="s">
         <v>642</v>
       </c>
@@ -12880,7 +12929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="32.15" customHeight="1">
+    <row r="86" spans="1:5" ht="32.1" customHeight="1">
       <c r="A86" s="93" t="s">
         <v>643</v>
       </c>
@@ -12897,7 +12946,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="32.15" customHeight="1">
+    <row r="87" spans="1:5" ht="32.1" customHeight="1">
       <c r="A87" s="93" t="s">
         <v>563</v>
       </c>
@@ -12914,7 +12963,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="32.15" customHeight="1">
+    <row r="88" spans="1:5" ht="32.1" customHeight="1">
       <c r="A88" s="93" t="s">
         <v>644</v>
       </c>
@@ -12931,7 +12980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="32.15" customHeight="1">
+    <row r="89" spans="1:5" ht="32.1" customHeight="1">
       <c r="A89" s="93" t="s">
         <v>564</v>
       </c>
@@ -12948,7 +12997,7 @@
         <v>8889</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="32.15" customHeight="1">
+    <row r="90" spans="1:5" ht="32.1" customHeight="1">
       <c r="A90" s="93" t="s">
         <v>566</v>
       </c>
@@ -12965,7 +13014,7 @@
         <v>27629</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="32.15" customHeight="1">
+    <row r="91" spans="1:5" ht="32.1" customHeight="1">
       <c r="A91" s="93" t="s">
         <v>568</v>
       </c>
@@ -12982,7 +13031,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="32.15" customHeight="1">
+    <row r="92" spans="1:5" ht="32.1" customHeight="1">
       <c r="A92" s="93" t="s">
         <v>569</v>
       </c>
@@ -12999,7 +13048,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="32.15" customHeight="1">
+    <row r="93" spans="1:5" ht="32.1" customHeight="1">
       <c r="A93" s="93" t="s">
         <v>570</v>
       </c>
@@ -13016,7 +13065,7 @@
         <v>10459</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="32.15" customHeight="1">
+    <row r="94" spans="1:5" ht="32.1" customHeight="1">
       <c r="A94" s="93" t="s">
         <v>572</v>
       </c>
@@ -13033,7 +13082,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="32.15" customHeight="1">
+    <row r="95" spans="1:5" ht="32.1" customHeight="1">
       <c r="A95" s="93" t="s">
         <v>574</v>
       </c>
@@ -13050,7 +13099,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="32.15" customHeight="1">
+    <row r="96" spans="1:5" ht="32.1" customHeight="1">
       <c r="A96" s="93" t="s">
         <v>575</v>
       </c>
@@ -13067,7 +13116,7 @@
         <v>8203</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="32.15" customHeight="1">
+    <row r="97" spans="1:5" ht="32.1" customHeight="1">
       <c r="A97" s="93" t="s">
         <v>578</v>
       </c>
@@ -13084,7 +13133,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="32.15" customHeight="1">
+    <row r="98" spans="1:5" ht="32.1" customHeight="1">
       <c r="A98" s="93" t="s">
         <v>579</v>
       </c>
@@ -13101,7 +13150,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="32.15" customHeight="1">
+    <row r="99" spans="1:5" ht="32.1" customHeight="1">
       <c r="A99" s="93" t="s">
         <v>580</v>
       </c>
@@ -13118,7 +13167,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="32.15" customHeight="1">
+    <row r="100" spans="1:5" ht="32.1" customHeight="1">
       <c r="A100" s="93" t="s">
         <v>581</v>
       </c>
@@ -13135,7 +13184,7 @@
         <v>29747</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="32.15" customHeight="1">
+    <row r="101" spans="1:5" ht="32.1" customHeight="1">
       <c r="A101" s="93" t="s">
         <v>582</v>
       </c>
@@ -13152,7 +13201,7 @@
         <v>11742</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="32.15" customHeight="1">
+    <row r="102" spans="1:5" ht="32.1" customHeight="1">
       <c r="A102" s="93" t="s">
         <v>645</v>
       </c>
@@ -13169,7 +13218,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="32.15" customHeight="1">
+    <row r="103" spans="1:5" ht="32.1" customHeight="1">
       <c r="A103" s="93" t="s">
         <v>586</v>
       </c>
@@ -13186,7 +13235,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="32.15" customHeight="1">
+    <row r="104" spans="1:5" ht="32.1" customHeight="1">
       <c r="A104" s="93" t="s">
         <v>587</v>
       </c>
@@ -13203,7 +13252,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="32.15" customHeight="1">
+    <row r="105" spans="1:5" ht="32.1" customHeight="1">
       <c r="A105" s="93" t="s">
         <v>588</v>
       </c>
@@ -13220,7 +13269,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="32.15" customHeight="1">
+    <row r="106" spans="1:5" ht="32.1" customHeight="1">
       <c r="A106" s="93" t="s">
         <v>589</v>
       </c>
@@ -13237,7 +13286,7 @@
         <v>13410</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="32.15" customHeight="1">
+    <row r="107" spans="1:5" ht="32.1" customHeight="1">
       <c r="A107" s="93" t="s">
         <v>590</v>
       </c>
@@ -13254,7 +13303,7 @@
         <v>38306</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="32.15" customHeight="1">
+    <row r="108" spans="1:5" ht="32.1" customHeight="1">
       <c r="A108" s="93" t="s">
         <v>591</v>
       </c>
@@ -13271,7 +13320,7 @@
         <v>9605</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="32.15" customHeight="1">
+    <row r="109" spans="1:5" ht="32.1" customHeight="1">
       <c r="A109" s="93" t="s">
         <v>646</v>
       </c>
@@ -13288,7 +13337,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="32.15" customHeight="1">
+    <row r="110" spans="1:5" ht="32.1" customHeight="1">
       <c r="A110" s="93" t="s">
         <v>592</v>
       </c>
@@ -13305,7 +13354,7 @@
         <v>8658</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="32.15" customHeight="1">
+    <row r="111" spans="1:5" ht="32.1" customHeight="1">
       <c r="A111" s="93" t="s">
         <v>595</v>
       </c>
@@ -13322,7 +13371,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="32.15" customHeight="1">
+    <row r="112" spans="1:5" ht="32.1" customHeight="1">
       <c r="A112" s="93" t="s">
         <v>596</v>
       </c>
@@ -13339,7 +13388,7 @@
         <v>8165</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="32.15" customHeight="1">
+    <row r="113" spans="1:5" ht="32.1" customHeight="1">
       <c r="A113" s="93" t="s">
         <v>597</v>
       </c>
@@ -13356,7 +13405,7 @@
         <v>17470</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="32.15" customHeight="1">
+    <row r="114" spans="1:5" ht="32.1" customHeight="1">
       <c r="A114" s="93" t="s">
         <v>647</v>
       </c>
@@ -13373,7 +13422,7 @@
         <v>7387</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="32.15" customHeight="1">
+    <row r="115" spans="1:5" ht="32.1" customHeight="1">
       <c r="A115" s="93" t="s">
         <v>600</v>
       </c>
@@ -13390,7 +13439,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="32.15" customHeight="1">
+    <row r="116" spans="1:5" ht="32.1" customHeight="1">
       <c r="A116" s="93" t="s">
         <v>601</v>
       </c>
@@ -13407,7 +13456,7 @@
         <v>80690</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="32.15" customHeight="1">
+    <row r="117" spans="1:5" ht="32.1" customHeight="1">
       <c r="A117" s="93" t="s">
         <v>602</v>
       </c>
@@ -13424,7 +13473,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="32.15" customHeight="1">
+    <row r="118" spans="1:5" ht="32.1" customHeight="1">
       <c r="A118" s="93" t="s">
         <v>603</v>
       </c>
@@ -13441,7 +13490,7 @@
         <v>6416</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="32.15" customHeight="1">
+    <row r="119" spans="1:5" ht="32.1" customHeight="1">
       <c r="A119" s="93" t="s">
         <v>605</v>
       </c>
@@ -13458,7 +13507,7 @@
         <v>8461</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="32.15" customHeight="1">
+    <row r="120" spans="1:5" ht="32.1" customHeight="1">
       <c r="A120" s="93" t="s">
         <v>607</v>
       </c>
@@ -13475,7 +13524,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="32.15" customHeight="1">
+    <row r="121" spans="1:5" ht="32.1" customHeight="1">
       <c r="A121" s="93" t="s">
         <v>608</v>
       </c>
@@ -13492,7 +13541,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="32.15" customHeight="1">
+    <row r="122" spans="1:5" ht="32.1" customHeight="1">
       <c r="A122" s="93" t="s">
         <v>648</v>
       </c>
@@ -13509,7 +13558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="32.15" customHeight="1">
+    <row r="123" spans="1:5" ht="32.1" customHeight="1">
       <c r="A123" s="93" t="s">
         <v>649</v>
       </c>
@@ -13526,7 +13575,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="32.15" customHeight="1">
+    <row r="124" spans="1:5" ht="32.1" customHeight="1">
       <c r="A124" s="93" t="s">
         <v>610</v>
       </c>
@@ -13560,21 +13609,21 @@
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.58203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.75" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="6"/>
@@ -14680,7 +14729,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="I53" s="197" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J53" s="197"/>
     </row>
@@ -14716,17 +14765,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EB616B-4866-4A8F-8AE3-27820F2610C8}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.58203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -14855,12 +14906,12 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="48" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -14874,35 +14925,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F81A32-6E09-4536-9605-3AE70AD9D670}">
   <dimension ref="A1:FA71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.375" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.875" style="6" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.58203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.5" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.75" style="6" customWidth="1"/>
-    <col min="21" max="22" width="15.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.125" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.125" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="11" style="6" customWidth="1"/>
-    <col min="29" max="29" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.875" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -14911,7 +14962,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="2" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>200</v>
       </c>
@@ -14928,7 +14979,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="42" t="s">
         <v>198</v>
       </c>
@@ -14945,7 +14996,7 @@
         <v>14625484</v>
       </c>
     </row>
-    <row r="4" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="4" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="44" t="s">
         <v>190</v>
       </c>
@@ -14962,7 +15013,7 @@
         <v>31600610</v>
       </c>
     </row>
-    <row r="5" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="44" t="s">
         <v>190</v>
       </c>
@@ -14979,7 +15030,7 @@
         <v>822233607</v>
       </c>
     </row>
-    <row r="6" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="44" t="s">
         <v>190</v>
       </c>
@@ -14996,7 +15047,7 @@
         <v>11882156510</v>
       </c>
     </row>
-    <row r="7" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="42" t="s">
         <v>199</v>
       </c>
@@ -15013,7 +15064,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>190</v>
       </c>
@@ -15030,7 +15081,7 @@
         <v>85925288</v>
       </c>
     </row>
-    <row r="9" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="44" t="s">
         <v>190</v>
       </c>
@@ -15047,7 +15098,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="64" t="s">
         <v>190</v>
       </c>
@@ -15069,7 +15120,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="59" t="s">
         <v>206</v>
       </c>
@@ -15542,7 +15593,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>198</v>
       </c>
@@ -16015,7 +16066,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="44" t="s">
         <v>190</v>
       </c>
@@ -16488,7 +16539,7 @@
         <v>2572976</v>
       </c>
     </row>
-    <row r="15" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="44" t="s">
         <v>190</v>
       </c>
@@ -16961,7 +17012,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="44" t="s">
         <v>190</v>
       </c>
@@ -17434,7 +17485,7 @@
         <v>11156212</v>
       </c>
     </row>
-    <row r="17" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="44" t="s">
         <v>190</v>
       </c>
@@ -17907,7 +17958,7 @@
         <v>22454</v>
       </c>
     </row>
-    <row r="18" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>199</v>
       </c>
@@ -18380,7 +18431,7 @@
         <v>115044738</v>
       </c>
     </row>
-    <row r="19" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>190</v>
       </c>
@@ -18853,7 +18904,7 @@
         <v>114685144</v>
       </c>
     </row>
-    <row r="20" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="64" t="s">
         <v>190</v>
       </c>
@@ -19326,7 +19377,7 @@
         <v>359594</v>
       </c>
     </row>
-    <row r="21" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="48" t="s">
         <v>395</v>
       </c>
@@ -19487,7 +19538,7 @@
       <c r="EZ21" s="73"/>
       <c r="FA21" s="73"/>
     </row>
-    <row r="22" spans="1:157" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:157" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="75" t="s">
         <v>206</v>
       </c>
@@ -19696,8 +19747,8 @@
       <c r="EZ22" s="73"/>
       <c r="FA22" s="73"/>
     </row>
-    <row r="23" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A23" s="199" t="s">
+    <row r="23" spans="1:157" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="205" t="s">
         <v>198</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -19917,8 +19968,8 @@
       <c r="EZ23" s="73"/>
       <c r="FA23" s="73"/>
     </row>
-    <row r="24" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A24" s="200"/>
+    <row r="24" spans="1:157" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="206"/>
       <c r="B24" s="42" t="s">
         <v>197</v>
       </c>
@@ -20136,8 +20187,8 @@
       <c r="EZ24" s="73"/>
       <c r="FA24" s="73"/>
     </row>
-    <row r="25" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A25" s="200"/>
+    <row r="25" spans="1:157" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="206"/>
       <c r="B25" s="42" t="s">
         <v>390</v>
       </c>
@@ -20355,8 +20406,8 @@
       <c r="EZ25" s="73"/>
       <c r="FA25" s="73"/>
     </row>
-    <row r="26" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A26" s="200"/>
+    <row r="26" spans="1:157" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="206"/>
       <c r="B26" s="42" t="s">
         <v>196</v>
       </c>
@@ -20574,8 +20625,8 @@
       <c r="EZ26" s="73"/>
       <c r="FA26" s="73"/>
     </row>
-    <row r="27" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A27" s="201"/>
+    <row r="27" spans="1:157" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="207"/>
       <c r="B27" s="42" t="s">
         <v>195</v>
       </c>
@@ -20793,8 +20844,8 @@
       <c r="EZ27" s="73"/>
       <c r="FA27" s="73"/>
     </row>
-    <row r="28" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A28" s="199" t="s">
+    <row r="28" spans="1:157" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="205" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="42" t="s">
@@ -21014,8 +21065,8 @@
       <c r="EZ28" s="73"/>
       <c r="FA28" s="73"/>
     </row>
-    <row r="29" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A29" s="200"/>
+    <row r="29" spans="1:157" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="206"/>
       <c r="B29" s="42" t="s">
         <v>196</v>
       </c>
@@ -21233,8 +21284,8 @@
       <c r="EZ29" s="73"/>
       <c r="FA29" s="73"/>
     </row>
-    <row r="30" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A30" s="201"/>
+    <row r="30" spans="1:157" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="207"/>
       <c r="B30" s="45" t="s">
         <v>195</v>
       </c>
@@ -21452,8 +21503,8 @@
       <c r="EZ30" s="73"/>
       <c r="FA30" s="73"/>
     </row>
-    <row r="31" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A31" s="198" t="s">
+    <row r="31" spans="1:157" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="204" t="s">
         <v>241</v>
       </c>
       <c r="B31" s="45" t="s">
@@ -21684,8 +21735,8 @@
       <c r="EZ31" s="73"/>
       <c r="FA31" s="73"/>
     </row>
-    <row r="32" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A32" s="198"/>
+    <row r="32" spans="1:157" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="204"/>
       <c r="B32" s="45" t="s">
         <v>391</v>
       </c>
@@ -21926,33 +21977,33 @@
       <c r="A34" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="203" t="s">
+      <c r="B34" s="209" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="203"/>
-      <c r="D34" s="203" t="s">
+      <c r="C34" s="209"/>
+      <c r="D34" s="209" t="s">
         <v>237</v>
       </c>
-      <c r="E34" s="203"/>
-      <c r="F34" s="203" t="s">
+      <c r="E34" s="209"/>
+      <c r="F34" s="209" t="s">
         <v>241</v>
       </c>
-      <c r="G34" s="203"/>
+      <c r="G34" s="209"/>
       <c r="I34" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="J34" s="204" t="s">
+      <c r="J34" s="210" t="s">
         <v>240</v>
       </c>
-      <c r="K34" s="204"/>
-      <c r="L34" s="202" t="s">
+      <c r="K34" s="210"/>
+      <c r="L34" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="M34" s="202"/>
-      <c r="N34" s="202" t="s">
+      <c r="M34" s="208"/>
+      <c r="N34" s="208" t="s">
         <v>241</v>
       </c>
-      <c r="O34" s="202"/>
+      <c r="O34" s="208"/>
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
       <c r="T34" s="48"/>
@@ -23627,13 +23678,13 @@
         <v>-1.1032875408231391E-2</v>
       </c>
     </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="48" t="s">
+        <v>397</v>
+      </c>
+    </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="48" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="63" t="s">
+      <c r="A69" s="63" t="s">
         <v>396</v>
       </c>
     </row>
@@ -23664,96 +23715,98 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88A3E7C-5EE7-4C18-89A0-01D83214687A}">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="99"/>
-    <col min="2" max="2" width="11.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.83203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.875" style="99" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="11.83203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="11.875" style="99" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.375" style="99" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" style="99" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="99" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="11" style="99" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="117" customFormat="1">
       <c r="A1" s="48" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="211" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205" t="s">
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211" t="s">
         <v>671</v>
       </c>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205" t="s">
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211" t="s">
         <v>672</v>
       </c>
-      <c r="R2" s="205"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="205"/>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205" t="s">
+      <c r="A3" s="211"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205" t="s">
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205" t="s">
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211" t="s">
         <v>673</v>
       </c>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205" t="s">
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211" t="s">
         <v>674</v>
       </c>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205" t="s">
+      <c r="O3" s="211"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205" t="s">
+      <c r="R3" s="211"/>
+      <c r="S3" s="211"/>
+      <c r="T3" s="211" t="s">
         <v>675</v>
       </c>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="101" t="s">
@@ -23824,10 +23877,10 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="205"/>
+      <c r="B5" s="211"/>
       <c r="C5" s="102">
         <v>4080872227.8000002</v>
       </c>
@@ -23889,11 +23942,11 @@
         <v>22903052.799999997</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.5" thickBot="1">
-      <c r="A6" s="205" t="s">
+    <row r="6" spans="1:22" ht="17.25" thickBot="1">
+      <c r="A6" s="211" t="s">
         <v>682</v>
       </c>
-      <c r="B6" s="205"/>
+      <c r="B6" s="211"/>
       <c r="C6" s="106">
         <v>1655997518</v>
       </c>
@@ -23956,7 +24009,7 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="211" t="s">
         <v>683</v>
       </c>
       <c r="B7" s="104" t="s">
@@ -24024,7 +24077,7 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="205"/>
+      <c r="A8" s="211"/>
       <c r="B8" s="104" t="s">
         <v>685</v>
       </c>
@@ -24090,7 +24143,7 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="205"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="104" t="s">
         <v>686</v>
       </c>
@@ -24156,7 +24209,7 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="205"/>
+      <c r="A10" s="211"/>
       <c r="B10" s="104" t="s">
         <v>687</v>
       </c>
@@ -24222,7 +24275,7 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="205"/>
+      <c r="A11" s="211"/>
       <c r="B11" s="104" t="s">
         <v>688</v>
       </c>
@@ -24288,7 +24341,7 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="205"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="104" t="s">
         <v>689</v>
       </c>
@@ -24353,8 +24406,8 @@
         <v>838467.9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="17.5" thickBot="1">
-      <c r="A13" s="205"/>
+    <row r="13" spans="1:22" ht="17.25" thickBot="1">
+      <c r="A13" s="211"/>
       <c r="B13" s="104" t="s">
         <v>690</v>
       </c>
@@ -24420,7 +24473,7 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="205"/>
+      <c r="A14" s="211"/>
       <c r="B14" s="101" t="s">
         <v>691</v>
       </c>
@@ -24486,7 +24539,7 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="205"/>
+      <c r="A15" s="211"/>
       <c r="B15" s="101" t="s">
         <v>692</v>
       </c>
@@ -24552,7 +24605,7 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="205"/>
+      <c r="A16" s="211"/>
       <c r="B16" s="101" t="s">
         <v>693</v>
       </c>
@@ -24618,7 +24671,7 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="205"/>
+      <c r="A17" s="211"/>
       <c r="B17" s="101" t="s">
         <v>694</v>
       </c>
@@ -24684,7 +24737,7 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="205"/>
+      <c r="A18" s="211"/>
       <c r="B18" s="101" t="s">
         <v>695</v>
       </c>
@@ -24749,11 +24802,11 @@
         <v>1017015.2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="17.5" thickBot="1">
-      <c r="A19" s="205" t="s">
+    <row r="19" spans="1:22" ht="17.25" thickBot="1">
+      <c r="A19" s="211" t="s">
         <v>696</v>
       </c>
-      <c r="B19" s="205"/>
+      <c r="B19" s="211"/>
       <c r="C19" s="106">
         <v>1510125438.8</v>
       </c>
@@ -24816,7 +24869,7 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="205" t="s">
+      <c r="A20" s="211" t="s">
         <v>697</v>
       </c>
       <c r="B20" s="104" t="s">
@@ -24884,7 +24937,7 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="205"/>
+      <c r="A21" s="211"/>
       <c r="B21" s="104" t="s">
         <v>685</v>
       </c>
@@ -24950,7 +25003,7 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="205"/>
+      <c r="A22" s="211"/>
       <c r="B22" s="104" t="s">
         <v>686</v>
       </c>
@@ -25016,7 +25069,7 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="205"/>
+      <c r="A23" s="211"/>
       <c r="B23" s="104" t="s">
         <v>687</v>
       </c>
@@ -25082,7 +25135,7 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="205"/>
+      <c r="A24" s="211"/>
       <c r="B24" s="104" t="s">
         <v>688</v>
       </c>
@@ -25148,7 +25201,7 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="205"/>
+      <c r="A25" s="211"/>
       <c r="B25" s="104" t="s">
         <v>689</v>
       </c>
@@ -25213,8 +25266,8 @@
         <v>849264.7</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="17.5" thickBot="1">
-      <c r="A26" s="205"/>
+    <row r="26" spans="1:22" ht="17.25" thickBot="1">
+      <c r="A26" s="211"/>
       <c r="B26" s="104" t="s">
         <v>690</v>
       </c>
@@ -25280,7 +25333,7 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="205"/>
+      <c r="A27" s="211"/>
       <c r="B27" s="101" t="s">
         <v>691</v>
       </c>
@@ -25346,7 +25399,7 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="205"/>
+      <c r="A28" s="211"/>
       <c r="B28" s="101" t="s">
         <v>692</v>
       </c>
@@ -25412,7 +25465,7 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="205"/>
+      <c r="A29" s="211"/>
       <c r="B29" s="101" t="s">
         <v>693</v>
       </c>
@@ -25478,7 +25531,7 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="205"/>
+      <c r="A30" s="211"/>
       <c r="B30" s="101" t="s">
         <v>694</v>
       </c>
@@ -25544,7 +25597,7 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="205"/>
+      <c r="A31" s="211"/>
       <c r="B31" s="101" t="s">
         <v>695</v>
       </c>
@@ -25609,11 +25662,11 @@
         <v>930822.3</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="17.5" thickBot="1">
-      <c r="A32" s="205" t="s">
+    <row r="32" spans="1:22" ht="17.25" thickBot="1">
+      <c r="A32" s="211" t="s">
         <v>698</v>
       </c>
-      <c r="B32" s="205"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="106">
         <v>914749271</v>
       </c>
@@ -25676,7 +25729,7 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="205" t="s">
+      <c r="A33" s="211" t="s">
         <v>699</v>
       </c>
       <c r="B33" s="104" t="s">
@@ -25744,7 +25797,7 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="205"/>
+      <c r="A34" s="211"/>
       <c r="B34" s="104" t="s">
         <v>685</v>
       </c>
@@ -25810,7 +25863,7 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="205"/>
+      <c r="A35" s="211"/>
       <c r="B35" s="104" t="s">
         <v>686</v>
       </c>
@@ -25876,7 +25929,7 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="205"/>
+      <c r="A36" s="211"/>
       <c r="B36" s="104" t="s">
         <v>687</v>
       </c>
@@ -25942,7 +25995,7 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="205"/>
+      <c r="A37" s="211"/>
       <c r="B37" s="104" t="s">
         <v>688</v>
       </c>
@@ -26008,7 +26061,7 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="205"/>
+      <c r="A38" s="211"/>
       <c r="B38" s="104" t="s">
         <v>689</v>
       </c>
@@ -26073,8 +26126,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="17.5" thickBot="1">
-      <c r="A39" s="205"/>
+    <row r="39" spans="1:22" ht="17.25" thickBot="1">
+      <c r="A39" s="211"/>
       <c r="B39" s="104" t="s">
         <v>690</v>
       </c>
@@ -26169,7 +26222,7 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="99" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C43" s="97">
         <f>(C42-B42)/B42</f>
@@ -26187,31 +26240,33 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="54" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="99" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="172" customFormat="1">
+      <c r="A47" s="54"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="99" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="172" customFormat="1">
+      <c r="A49" s="99" t="s">
+        <v>790</v>
+      </c>
+      <c r="K49" s="99"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="97">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B50" s="99" t="s">
         <v>700</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="97">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="B48" s="99" t="s">
-        <v>701</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:P2"/>
@@ -26222,9 +26277,19 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:V3"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B42:D42" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -26237,13 +26302,13 @@
       <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" style="7" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="7" customWidth="1"/>
-    <col min="3" max="4" width="1.58203125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="1.625" style="7" customWidth="1"/>
     <col min="5" max="5" width="23.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -27955,115 +28020,113 @@
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.08203125" style="5"/>
+    <col min="3" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="85">
-      <c r="A1" s="206" t="s">
+    <row r="1" spans="1:33" ht="82.5">
+      <c r="A1" s="173" t="s">
         <v>669</v>
       </c>
-      <c r="B1" s="207">
+      <c r="B1" s="174">
         <v>2019</v>
       </c>
-      <c r="C1" s="207">
+      <c r="C1" s="174">
         <v>2020</v>
       </c>
-      <c r="D1" s="207">
+      <c r="D1" s="174">
         <v>2021</v>
       </c>
-      <c r="E1" s="207">
+      <c r="E1" s="174">
         <v>2022</v>
       </c>
-      <c r="F1" s="207">
+      <c r="F1" s="174">
         <v>2023</v>
       </c>
-      <c r="G1" s="207">
+      <c r="G1" s="174">
         <v>2024</v>
       </c>
-      <c r="H1" s="207">
+      <c r="H1" s="174">
         <v>2025</v>
       </c>
-      <c r="I1" s="207">
+      <c r="I1" s="174">
         <v>2026</v>
       </c>
-      <c r="J1" s="207">
+      <c r="J1" s="174">
         <v>2027</v>
       </c>
-      <c r="K1" s="207">
+      <c r="K1" s="174">
         <v>2028</v>
       </c>
-      <c r="L1" s="207">
+      <c r="L1" s="174">
         <v>2029</v>
       </c>
-      <c r="M1" s="207">
+      <c r="M1" s="174">
         <v>2030</v>
       </c>
-      <c r="N1" s="207">
+      <c r="N1" s="174">
         <v>2031</v>
       </c>
-      <c r="O1" s="207">
+      <c r="O1" s="174">
         <v>2032</v>
       </c>
-      <c r="P1" s="207">
+      <c r="P1" s="174">
         <v>2033</v>
       </c>
-      <c r="Q1" s="207">
+      <c r="Q1" s="174">
         <v>2034</v>
       </c>
-      <c r="R1" s="207">
+      <c r="R1" s="174">
         <v>2035</v>
       </c>
-      <c r="S1" s="207">
+      <c r="S1" s="174">
         <v>2036</v>
       </c>
-      <c r="T1" s="207">
+      <c r="T1" s="174">
         <v>2037</v>
       </c>
-      <c r="U1" s="207">
+      <c r="U1" s="174">
         <v>2038</v>
       </c>
-      <c r="V1" s="207">
+      <c r="V1" s="174">
         <v>2039</v>
       </c>
-      <c r="W1" s="207">
+      <c r="W1" s="174">
         <v>2040</v>
       </c>
-      <c r="X1" s="207">
+      <c r="X1" s="174">
         <v>2041</v>
       </c>
-      <c r="Y1" s="207">
+      <c r="Y1" s="174">
         <v>2042</v>
       </c>
-      <c r="Z1" s="207">
+      <c r="Z1" s="174">
         <v>2043</v>
       </c>
-      <c r="AA1" s="207">
+      <c r="AA1" s="174">
         <v>2044</v>
       </c>
-      <c r="AB1" s="207">
+      <c r="AB1" s="174">
         <v>2045</v>
       </c>
-      <c r="AC1" s="207">
+      <c r="AC1" s="174">
         <v>2046</v>
       </c>
-      <c r="AD1" s="207">
+      <c r="AD1" s="174">
         <v>2047</v>
       </c>
-      <c r="AE1" s="207">
+      <c r="AE1" s="174">
         <v>2048</v>
       </c>
-      <c r="AF1" s="207">
+      <c r="AF1" s="174">
         <v>2049</v>
       </c>
-      <c r="AG1" s="207">
+      <c r="AG1" s="174">
         <v>2050</v>
       </c>
     </row>
@@ -28346,15 +28409,15 @@
         <f>'Air-Cal'!D7</f>
         <v>0.34910898091961506</v>
       </c>
-      <c r="E4" s="166">
+      <c r="E4" s="165">
         <f>D4+($B$4-$D$4)/COUNT($E$1:$G$1)</f>
         <v>0.56607265394641004</v>
       </c>
-      <c r="F4" s="166">
+      <c r="F4" s="165">
         <f t="shared" ref="F4:G4" si="0">E4+($B$4-$D$4)/COUNT($E$1:$G$1)</f>
         <v>0.78303632697320502</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="177">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -28731,7 +28794,7 @@
       <c r="A7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="177">
         <v>1</v>
       </c>
       <c r="C7" s="96">
@@ -28842,19 +28905,17 @@
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" style="5"/>
+    <col min="1" max="1" width="16.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="5"/>
     <col min="3" max="3" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.08203125" style="5"/>
+    <col min="4" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="85">
+    <row r="1" spans="1:33" ht="82.5">
       <c r="A1" s="3" t="s">
         <v>669</v>
       </c>
@@ -29503,115 +29564,115 @@
         <v>1.0016077832214909</v>
       </c>
       <c r="F6" s="95">
-        <f>E6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>E6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0076174299208198</v>
       </c>
       <c r="G6" s="95">
-        <f>F6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>F6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0136631345003448</v>
       </c>
       <c r="H6" s="95">
-        <f>G6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>G6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.019745113307347</v>
       </c>
       <c r="I6" s="95">
-        <f>H6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>H6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.025863583987191</v>
       </c>
       <c r="J6" s="95">
-        <f>I6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>I6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0320187654911142</v>
       </c>
       <c r="K6" s="95">
-        <f>J6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>J6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0382108780840609</v>
       </c>
       <c r="L6" s="95">
-        <f>K6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>K6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0444401433525652</v>
       </c>
       <c r="M6" s="95">
-        <f>L6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>L6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0507067842126805</v>
       </c>
       <c r="N6" s="95">
-        <f>M6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>M6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0570110249179565</v>
       </c>
       <c r="O6" s="95">
-        <f>N6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>N6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0633530910674642</v>
       </c>
       <c r="P6" s="95">
-        <f>O6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>O6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.069733209613869</v>
       </c>
       <c r="Q6" s="95">
-        <f>P6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>P6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0761516088715521</v>
       </c>
       <c r="R6" s="95">
-        <f>Q6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>Q6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0826085185247816</v>
       </c>
       <c r="S6" s="95">
-        <f>R6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>R6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0891041696359303</v>
       </c>
       <c r="T6" s="95">
-        <f>S6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>S6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.0956387946537458</v>
       </c>
       <c r="U6" s="95">
-        <f>T6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>T6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1022126274216684</v>
       </c>
       <c r="V6" s="95">
-        <f>U6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>U6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1088259031861984</v>
       </c>
       <c r="W6" s="95">
-        <f>V6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>V6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1154788586053157</v>
       </c>
       <c r="X6" s="95">
-        <f>W6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>W6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1221717317569475</v>
       </c>
       <c r="Y6" s="95">
-        <f>X6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>X6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1289047621474892</v>
       </c>
       <c r="Z6" s="95">
-        <f>Y6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>Y6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1356781907203741</v>
       </c>
       <c r="AA6" s="95">
-        <f>Z6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>Z6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1424922598646963</v>
       </c>
       <c r="AB6" s="95">
-        <f>AA6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>AA6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1493472134238845</v>
       </c>
       <c r="AC6" s="95">
-        <f>AB6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>AB6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1562432967044278</v>
       </c>
       <c r="AD6" s="95">
-        <f>AC6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>AC6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1631807564846544</v>
       </c>
       <c r="AE6" s="95">
-        <f>AD6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>AD6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1701598410235623</v>
       </c>
       <c r="AF6" s="95">
-        <f>AE6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>AE6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.1771808000697037</v>
       </c>
       <c r="AG6" s="95">
-        <f>AF6*(1+'Ships-freight CAGR'!$A$48)</f>
+        <f>AF6*(1+'Ships-freight CAGR'!$A$50)</f>
         <v>1.184243884870122</v>
       </c>
     </row>
@@ -29762,49 +29823,49 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="21"/>
     <col min="5" max="5" width="8" style="21" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="184" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-    </row>
-    <row r="2" spans="1:8" ht="32">
-      <c r="A2" s="180" t="s">
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+    </row>
+    <row r="2" spans="1:8" ht="27">
+      <c r="A2" s="178" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="178" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="183" t="s">
+      <c r="F2" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="184"/>
+      <c r="G2" s="181"/>
     </row>
     <row r="3" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A3" s="181"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="36" t="s">
         <v>11</v>
       </c>
@@ -29818,8 +29879,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickTop="1">
-      <c r="A4" s="174" t="s">
+    <row r="4" spans="1:8" ht="14.25" thickTop="1">
+      <c r="A4" s="185" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -29838,10 +29899,10 @@
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="182" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -29857,13 +29918,13 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -29876,13 +29937,13 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -29901,13 +29962,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -29923,13 +29984,13 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -29945,13 +30006,13 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -29967,13 +30028,13 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="187" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -29986,13 +30047,13 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="177" t="s">
+      <c r="C12" s="187" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -30011,13 +30072,13 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="177" t="s">
+      <c r="C13" s="187" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -30033,10 +30094,10 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="182" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -30058,10 +30119,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="182" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -30077,13 +30138,13 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="177" t="s">
+      <c r="C16" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -30096,13 +30157,13 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="175" t="s">
+      <c r="A17" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="177" t="s">
+      <c r="C17" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -30121,13 +30182,13 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="175" t="s">
+      <c r="A18" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -30143,13 +30204,13 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="175" t="s">
+      <c r="A19" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C19" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -30164,11 +30225,11 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A20" s="175" t="s">
+    <row r="20" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A20" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="183" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -30190,10 +30251,10 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="175" t="s">
+      <c r="A21" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="188" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -30209,13 +30270,13 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -30228,13 +30289,13 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="175" t="s">
+      <c r="A23" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="177" t="s">
+      <c r="C23" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -30253,13 +30314,13 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="175" t="s">
+      <c r="A24" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="177" t="s">
+      <c r="C24" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -30275,13 +30336,13 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="176" t="s">
+      <c r="B25" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="177" t="s">
+      <c r="C25" s="187" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -30297,13 +30358,13 @@
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="177" t="s">
+      <c r="C26" s="187" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -30316,13 +30377,13 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="175" t="s">
+      <c r="A27" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="176" t="s">
+      <c r="B27" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="177" t="s">
+      <c r="C27" s="187" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -30341,13 +30402,13 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="175" t="s">
+      <c r="A28" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="176" t="s">
+      <c r="B28" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="177" t="s">
+      <c r="C28" s="187" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -30363,13 +30424,13 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="187" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -30385,13 +30446,13 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="177" t="s">
+      <c r="C30" s="187" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -30404,13 +30465,13 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="177" t="s">
+      <c r="C31" s="187" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -30432,13 +30493,13 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="175" t="s">
+      <c r="A32" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="176" t="s">
+      <c r="B32" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="177" t="s">
+      <c r="C32" s="187" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -30454,10 +30515,10 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="175" t="s">
+      <c r="A33" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="182" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -30479,10 +30540,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="182" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -30498,10 +30559,10 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="175" t="s">
+      <c r="A35" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="182" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -30523,10 +30584,10 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="182" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -30547,11 +30608,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A37" s="175" t="s">
+    <row r="37" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A37" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="178" t="s">
+      <c r="B37" s="183" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -30582,6 +30643,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="A1:E1"/>
@@ -30596,9 +30660,6 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30608,50 +30669,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691AF6E-6FF3-4258-B536-2AC6D3469E02}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="99" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="99" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="99" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="99" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="99" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="99" customWidth="1"/>
-    <col min="5" max="12" width="23.5" style="99" customWidth="1"/>
-    <col min="13" max="13" width="24" style="99" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="99"/>
+    <col min="4" max="4" width="5.875" style="99" customWidth="1"/>
+    <col min="5" max="13" width="9" style="99" customWidth="1"/>
+    <col min="14" max="15" width="9.875" style="99" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.149999999999999" customHeight="1">
-      <c r="A1" s="185" t="s">
-        <v>718</v>
-      </c>
-      <c r="B1" s="185" t="s">
+    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="190" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="185" t="s">
+      <c r="D1" s="190" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="116" t="s">
+        <v>705</v>
+      </c>
+      <c r="F1" s="116" t="s">
+        <v>706</v>
+      </c>
+      <c r="G1" s="116" t="s">
         <v>707</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="H1" s="116" t="s">
         <v>708</v>
-      </c>
-      <c r="G1" s="116" t="s">
-        <v>709</v>
-      </c>
-      <c r="H1" s="116" t="s">
-        <v>710</v>
       </c>
       <c r="I1" s="116" t="s">
         <v>192</v>
@@ -30665,65 +30723,65 @@
       <c r="L1" s="116" t="s">
         <v>683</v>
       </c>
-      <c r="M1" s="172" t="s">
+      <c r="M1" s="171" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1">
-      <c r="A2" s="186" t="s">
-        <v>718</v>
-      </c>
-      <c r="B2" s="186" t="s">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="191" t="s">
+        <v>716</v>
+      </c>
+      <c r="B2" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="191" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="116" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F2" s="116" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G2" s="116" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H2" s="116" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I2" s="116" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J2" s="116" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="K2" s="116" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L2" s="116" t="s">
-        <v>719</v>
-      </c>
-      <c r="M2" s="172" t="s">
-        <v>719</v>
-      </c>
-      <c r="N2" s="187" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="20.149999999999999" customHeight="1">
-      <c r="A3" s="186" t="s">
-        <v>718</v>
-      </c>
-      <c r="B3" s="186" t="s">
+        <v>717</v>
+      </c>
+      <c r="M2" s="171" t="s">
+        <v>717</v>
+      </c>
+      <c r="N2" s="192" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="191" t="s">
+        <v>716</v>
+      </c>
+      <c r="B3" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="186" t="s">
+      <c r="D3" s="191" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="116" t="s">
@@ -30750,12 +30808,12 @@
       <c r="L3" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="172" t="s">
+      <c r="M3" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="187"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="N3" s="192"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="120" t="s">
         <v>10</v>
       </c>
@@ -30796,7 +30854,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="111" t="s">
         <v>190</v>
       </c>
@@ -30837,7 +30895,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="111" t="s">
         <v>190</v>
       </c>
@@ -30878,7 +30936,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="111" t="s">
         <v>190</v>
       </c>
@@ -30918,16 +30976,16 @@
       <c r="M7" s="127">
         <v>24.2</v>
       </c>
-      <c r="N7" s="99">
+      <c r="N7" s="57">
         <f>'BAADTbVT_DV-km'!F7</f>
         <v>1920057</v>
       </c>
-      <c r="O7" s="99">
+      <c r="O7" s="57">
         <f>SUM(N7:N9)</f>
         <v>9947603</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="111" t="s">
         <v>190</v>
       </c>
@@ -30967,12 +31025,13 @@
       <c r="M8" s="127">
         <v>20</v>
       </c>
-      <c r="N8" s="99">
+      <c r="N8" s="57">
         <f>'BAADTbVT_DV-km'!F8</f>
         <v>1003047</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="O8" s="57"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="111" t="s">
         <v>190</v>
       </c>
@@ -31012,12 +31071,13 @@
       <c r="M9" s="127">
         <v>33.799999999999997</v>
       </c>
-      <c r="N9" s="99">
+      <c r="N9" s="57">
         <f>'BAADTbVT_DV-km'!F9</f>
         <v>7024499</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="O9" s="57"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="111" t="s">
         <v>190</v>
       </c>
@@ -31057,16 +31117,16 @@
       <c r="M10" s="131">
         <v>36.200000000000003</v>
       </c>
-      <c r="N10" s="99">
+      <c r="N10" s="57">
         <f>'BAADTbVT_DV-km'!F10</f>
         <v>3550965</v>
       </c>
-      <c r="O10" s="99">
+      <c r="O10" s="57">
         <f>N10</f>
         <v>3550965</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="111" t="s">
         <v>190</v>
       </c>
@@ -31106,8 +31166,10 @@
       <c r="M11" s="121">
         <v>39.299999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="111" t="s">
         <v>190</v>
       </c>
@@ -31147,16 +31209,16 @@
       <c r="M12" s="127">
         <v>39.799999999999997</v>
       </c>
-      <c r="N12" s="99">
+      <c r="N12" s="57">
         <f>'BAADTbVT_DV-km'!F12</f>
         <v>3131035</v>
       </c>
-      <c r="O12" s="99">
+      <c r="O12" s="57">
         <f>N12</f>
         <v>3131035</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="111" t="s">
         <v>190</v>
       </c>
@@ -31196,16 +31258,16 @@
       <c r="M13" s="131">
         <v>38.1</v>
       </c>
-      <c r="N13" s="99">
+      <c r="N13" s="57">
         <f>'BAADTbVT_DV-km'!F13</f>
         <v>1426815</v>
       </c>
-      <c r="O13" s="99">
+      <c r="O13" s="57">
         <f>SUM(N13:N14)</f>
         <v>2547914</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="111" t="s">
         <v>190</v>
       </c>
@@ -31245,12 +31307,13 @@
       <c r="M14" s="131">
         <v>38.6</v>
       </c>
-      <c r="N14" s="99">
+      <c r="N14" s="57">
         <f>'BAADTbVT_DV-km'!F14</f>
         <v>1121099</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="O14" s="57"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="111" t="s">
         <v>190</v>
       </c>
@@ -31290,8 +31353,10 @@
       <c r="M15" s="121">
         <v>55.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="111" t="s">
         <v>190</v>
       </c>
@@ -31331,8 +31396,10 @@
       <c r="M16" s="121">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+    </row>
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="111" t="s">
         <v>190</v>
       </c>
@@ -31372,16 +31439,16 @@
       <c r="M17" s="127">
         <v>35</v>
       </c>
-      <c r="N17" s="99">
+      <c r="N17" s="57">
         <f>'BAADTbVT_DV-km'!F17</f>
         <v>621706</v>
       </c>
-      <c r="O17" s="99">
+      <c r="O17" s="57">
         <f>SUM(N17:N18)</f>
         <v>648435</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="111" t="s">
         <v>190</v>
       </c>
@@ -31421,12 +31488,13 @@
       <c r="M18" s="127">
         <v>40.200000000000003</v>
       </c>
-      <c r="N18" s="99">
+      <c r="N18" s="57">
         <f>'BAADTbVT_DV-km'!F18</f>
         <v>26729</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="O18" s="57"/>
+    </row>
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="111" t="s">
         <v>190</v>
       </c>
@@ -31466,16 +31534,16 @@
       <c r="M19" s="131">
         <v>173.9</v>
       </c>
-      <c r="N19" s="99">
+      <c r="N19" s="57">
         <f>'BAADTbVT_DV-km'!F19</f>
         <v>128549</v>
       </c>
-      <c r="O19" s="99">
+      <c r="O19" s="57">
         <f>SUM(N19:N20)</f>
         <v>163364</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="111" t="s">
         <v>190</v>
       </c>
@@ -31515,12 +31583,13 @@
       <c r="M20" s="131">
         <v>25.2</v>
       </c>
-      <c r="N20" s="99">
+      <c r="N20" s="57">
         <f>'BAADTbVT_DV-km'!F20</f>
         <v>34815</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="O20" s="57"/>
+    </row>
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="111" t="s">
         <v>190</v>
       </c>
@@ -31560,8 +31629,10 @@
       <c r="M21" s="121">
         <v>49.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+    </row>
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="111" t="s">
         <v>190</v>
       </c>
@@ -31601,8 +31672,10 @@
       <c r="M22" s="121">
         <v>48.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+    </row>
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="111" t="s">
         <v>190</v>
       </c>
@@ -31642,16 +31715,16 @@
       <c r="M23" s="129">
         <v>39.200000000000003</v>
       </c>
-      <c r="N23" s="99">
+      <c r="N23" s="57">
         <f>'BAADTbVT_DV-km'!F23</f>
         <v>1779618</v>
       </c>
-      <c r="O23" s="113">
+      <c r="O23" s="57">
         <f>SUM(N23:N24)</f>
         <v>2085433</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="111" t="s">
         <v>190</v>
       </c>
@@ -31691,12 +31764,13 @@
       <c r="M24" s="129">
         <v>50.6</v>
       </c>
-      <c r="N24" s="99">
+      <c r="N24" s="57">
         <f>'BAADTbVT_DV-km'!F24</f>
         <v>305815</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="O24" s="57"/>
+    </row>
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="111" t="s">
         <v>190</v>
       </c>
@@ -31736,16 +31810,16 @@
       <c r="M25" s="130">
         <v>133.1</v>
       </c>
-      <c r="N25" s="99">
+      <c r="N25" s="57">
         <f>'BAADTbVT_DV-km'!F25</f>
         <v>152987</v>
       </c>
-      <c r="O25" s="99">
+      <c r="O25" s="57">
         <f>N25</f>
         <v>152987</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="111" t="s">
         <v>190</v>
       </c>
@@ -31785,8 +31859,10 @@
       <c r="M26" s="121">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+    </row>
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="111" t="s">
         <v>190</v>
       </c>
@@ -31826,16 +31902,16 @@
       <c r="M27" s="129">
         <v>21.4</v>
       </c>
-      <c r="N27" s="99">
+      <c r="N27" s="57">
         <f>'BAADTbVT_DV-km'!F27</f>
         <v>32396</v>
       </c>
-      <c r="O27" s="99">
+      <c r="O27" s="57">
         <f>SUM(N27:N28)</f>
         <v>47720</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="111" t="s">
         <v>190</v>
       </c>
@@ -31875,12 +31951,13 @@
       <c r="M28" s="129">
         <v>14.4</v>
       </c>
-      <c r="N28" s="99">
+      <c r="N28" s="57">
         <f>'BAADTbVT_DV-km'!F28</f>
         <v>15324</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="O28" s="57"/>
+    </row>
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="111" t="s">
         <v>190</v>
       </c>
@@ -31920,16 +31997,16 @@
       <c r="M29" s="130">
         <v>19.7</v>
       </c>
-      <c r="N29" s="99">
+      <c r="N29" s="57">
         <f>'BAADTbVT_DV-km'!F29</f>
         <v>7348</v>
       </c>
-      <c r="O29" s="99">
+      <c r="O29" s="57">
         <f>N29</f>
         <v>7348</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="111" t="s">
         <v>190</v>
       </c>
@@ -31969,8 +32046,10 @@
       <c r="M30" s="121">
         <v>40.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+    </row>
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="111" t="s">
         <v>190</v>
       </c>
@@ -32010,16 +32089,16 @@
       <c r="M31" s="129">
         <v>41.7</v>
       </c>
-      <c r="N31" s="99">
+      <c r="N31" s="57">
         <f>'BAADTbVT_DV-km'!F31</f>
         <v>416907</v>
       </c>
-      <c r="O31" s="99">
+      <c r="O31" s="57">
         <f>SUM(N31:N32)</f>
         <v>421081</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="111" t="s">
         <v>190</v>
       </c>
@@ -32059,12 +32138,13 @@
       <c r="M32" s="129">
         <v>26.1</v>
       </c>
-      <c r="N32" s="99">
+      <c r="N32" s="57">
         <f>'BAADTbVT_DV-km'!F32</f>
         <v>4174</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="O32" s="57"/>
+    </row>
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="111" t="s">
         <v>190</v>
       </c>
@@ -32104,16 +32184,16 @@
       <c r="M33" s="130">
         <v>64.599999999999994</v>
       </c>
-      <c r="N33" s="99">
+      <c r="N33" s="57">
         <f>'BAADTbVT_DV-km'!F33</f>
         <v>568839</v>
       </c>
-      <c r="O33" s="99">
+      <c r="O33" s="57">
         <f>N33</f>
         <v>568839</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="111" t="s">
         <v>190</v>
       </c>
@@ -32153,8 +32233,10 @@
       <c r="M34" s="121">
         <v>108.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="111" t="s">
         <v>190</v>
       </c>
@@ -32194,16 +32276,16 @@
       <c r="M35" s="130">
         <v>220.7</v>
       </c>
-      <c r="N35" s="99">
+      <c r="N35" s="57">
         <f>'BAADTbVT_DV-km'!F35</f>
         <v>39348</v>
       </c>
-      <c r="O35" s="99">
+      <c r="O35" s="57">
         <f>SUM(N35,N37)</f>
         <v>83323</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="111" t="s">
         <v>190</v>
       </c>
@@ -32243,16 +32325,16 @@
       <c r="M36" s="129">
         <v>61.6</v>
       </c>
-      <c r="N36" s="99">
+      <c r="N36" s="57">
         <f>'BAADTbVT_DV-km'!F36</f>
         <v>12141</v>
       </c>
-      <c r="O36" s="99">
+      <c r="O36" s="57">
         <f>N36</f>
         <v>12141</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="112" t="s">
         <v>190</v>
       </c>
@@ -32292,16 +32374,52 @@
       <c r="M37" s="130">
         <v>28.7</v>
       </c>
-      <c r="N37" s="99">
+      <c r="N37" s="57">
         <f>'BAADTbVT_DV-km'!F37</f>
         <v>43975</v>
       </c>
+      <c r="O37" s="57"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
+      <c r="D39" s="99" t="s">
+        <v>785</v>
+      </c>
+      <c r="E39" s="99">
+        <v>2012</v>
+      </c>
+      <c r="F39" s="100">
+        <v>2013</v>
+      </c>
+      <c r="G39" s="172">
+        <v>2014</v>
+      </c>
+      <c r="H39" s="172">
+        <v>2015</v>
+      </c>
+      <c r="I39" s="172">
+        <v>2016</v>
+      </c>
+      <c r="J39" s="172">
+        <v>2017</v>
+      </c>
+      <c r="K39" s="172">
+        <v>2018</v>
+      </c>
+      <c r="L39" s="172">
+        <v>2019</v>
+      </c>
+      <c r="M39" s="172">
+        <v>2020</v>
+      </c>
+      <c r="N39" s="99" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="40" spans="1:15" s="100" customFormat="1">
+      <c r="C40" s="197" t="s">
+        <v>781</v>
+      </c>
+      <c r="D40" s="197"/>
       <c r="E40" s="113">
         <f>E23</f>
         <v>43.7</v>
@@ -32338,12 +32456,14 @@
         <f t="shared" ref="M40" si="1">M23</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="N40" s="100">
+      <c r="N40" s="40">
         <f>N23</f>
         <v>1779618</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="100" customFormat="1">
+      <c r="C41" s="197"/>
+      <c r="D41" s="197"/>
       <c r="E41" s="113">
         <f>E24</f>
         <v>53.3</v>
@@ -32380,12 +32500,14 @@
         <f t="shared" ref="M41" si="3">M24</f>
         <v>50.6</v>
       </c>
-      <c r="N41" s="100">
+      <c r="N41" s="40">
         <f>N24</f>
         <v>305815</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="100" customFormat="1">
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
       <c r="E42" s="113">
         <f>E27</f>
         <v>19.899999999999999</v>
@@ -32422,12 +32544,14 @@
         <f t="shared" ref="M42" si="5">M27</f>
         <v>21.4</v>
       </c>
-      <c r="N42" s="100">
+      <c r="N42" s="40">
         <f>N27</f>
         <v>32396</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="100" customFormat="1">
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
       <c r="E43" s="113">
         <f>E28</f>
         <v>20.399999999999999</v>
@@ -32464,12 +32588,14 @@
         <f t="shared" ref="M43" si="7">M28</f>
         <v>14.4</v>
       </c>
-      <c r="N43" s="100">
+      <c r="N43" s="40">
         <f>N28</f>
         <v>15324</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="100" customFormat="1">
+      <c r="C44" s="197"/>
+      <c r="D44" s="197"/>
       <c r="E44" s="113">
         <f>E31</f>
         <v>39.299999999999997</v>
@@ -32506,12 +32632,14 @@
         <f t="shared" ref="M44" si="9">M31</f>
         <v>41.7</v>
       </c>
-      <c r="N44" s="100">
+      <c r="N44" s="40">
         <f>N31</f>
         <v>416907</v>
       </c>
     </row>
     <row r="45" spans="1:15">
+      <c r="C45" s="197"/>
+      <c r="D45" s="197"/>
       <c r="E45" s="113">
         <f>E32</f>
         <v>41.1</v>
@@ -32548,12 +32676,14 @@
         <f t="shared" ref="M45" si="11">M32</f>
         <v>26.1</v>
       </c>
-      <c r="N45" s="99">
+      <c r="N45" s="40">
         <f>N32</f>
         <v>4174</v>
       </c>
     </row>
     <row r="46" spans="1:15">
+      <c r="C46" s="197"/>
+      <c r="D46" s="197"/>
       <c r="E46" s="113">
         <f>E36</f>
         <v>60</v>
@@ -32590,235 +32720,252 @@
         <f t="shared" ref="M46" si="13">M36</f>
         <v>61.6</v>
       </c>
-      <c r="N46" s="99">
+      <c r="N46" s="40">
         <f>N36</f>
         <v>12141</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="M47" s="170"/>
+      <c r="M47" s="169"/>
+      <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="M48" s="170"/>
-    </row>
-    <row r="49" spans="2:14" s="100" customFormat="1">
-      <c r="E49" s="113">
-        <f>E25</f>
+      <c r="C48" s="197" t="s">
+        <v>782</v>
+      </c>
+      <c r="D48" s="197"/>
+      <c r="E48" s="113">
+        <f t="shared" ref="E48:N48" si="14">E25</f>
         <v>130.9</v>
       </c>
-      <c r="F49" s="113">
-        <f t="shared" ref="F49:L49" si="14">F25</f>
+      <c r="F48" s="113">
+        <f t="shared" si="14"/>
         <v>131</v>
       </c>
-      <c r="G49" s="113">
+      <c r="G48" s="113">
         <f t="shared" si="14"/>
         <v>133</v>
       </c>
-      <c r="H49" s="113">
+      <c r="H48" s="113">
         <f t="shared" si="14"/>
         <v>134.4</v>
       </c>
-      <c r="I49" s="113">
+      <c r="I48" s="113">
         <f t="shared" si="14"/>
         <v>134.5</v>
       </c>
-      <c r="J49" s="113">
+      <c r="J48" s="113">
         <f t="shared" si="14"/>
         <v>137.9</v>
       </c>
-      <c r="K49" s="113">
+      <c r="K48" s="113">
         <f t="shared" si="14"/>
         <v>135.69999999999999</v>
       </c>
-      <c r="L49" s="113">
+      <c r="L48" s="113">
         <f t="shared" si="14"/>
         <v>134.80000000000001</v>
       </c>
+      <c r="M48" s="113">
+        <f t="shared" si="14"/>
+        <v>133.1</v>
+      </c>
+      <c r="N48" s="40">
+        <f t="shared" si="14"/>
+        <v>152987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="100" customFormat="1">
+      <c r="C49" s="197"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="113">
+        <f t="shared" ref="E49:N49" si="15">E29</f>
+        <v>21.5</v>
+      </c>
+      <c r="F49" s="113">
+        <f t="shared" si="15"/>
+        <v>19.8</v>
+      </c>
+      <c r="G49" s="113">
+        <f t="shared" si="15"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H49" s="113">
+        <f t="shared" si="15"/>
+        <v>19.3</v>
+      </c>
+      <c r="I49" s="113">
+        <f t="shared" si="15"/>
+        <v>20.2</v>
+      </c>
+      <c r="J49" s="113">
+        <f t="shared" si="15"/>
+        <v>20.9</v>
+      </c>
+      <c r="K49" s="113">
+        <f t="shared" si="15"/>
+        <v>19.7</v>
+      </c>
+      <c r="L49" s="113">
+        <f t="shared" si="15"/>
+        <v>19.3</v>
+      </c>
       <c r="M49" s="113">
-        <f t="shared" ref="M49" si="15">M25</f>
-        <v>133.1</v>
-      </c>
-      <c r="N49" s="100">
-        <f>N25</f>
-        <v>152987</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" s="100" customFormat="1">
+        <f t="shared" si="15"/>
+        <v>19.7</v>
+      </c>
+      <c r="N49" s="40">
+        <f t="shared" si="15"/>
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="100" customFormat="1">
+      <c r="C50" s="197"/>
+      <c r="D50" s="197"/>
       <c r="E50" s="113">
-        <f>E29</f>
-        <v>21.5</v>
+        <f t="shared" ref="E50:N50" si="16">E33</f>
+        <v>56.7</v>
       </c>
       <c r="F50" s="113">
-        <f t="shared" ref="F50:L50" si="16">F29</f>
-        <v>19.8</v>
+        <f t="shared" si="16"/>
+        <v>57.4</v>
       </c>
       <c r="G50" s="113">
         <f t="shared" si="16"/>
-        <v>19.100000000000001</v>
+        <v>56.4</v>
       </c>
       <c r="H50" s="113">
         <f t="shared" si="16"/>
-        <v>19.3</v>
+        <v>56.1</v>
       </c>
       <c r="I50" s="113">
         <f t="shared" si="16"/>
-        <v>20.2</v>
+        <v>57.4</v>
       </c>
       <c r="J50" s="113">
         <f t="shared" si="16"/>
-        <v>20.9</v>
+        <v>58.4</v>
       </c>
       <c r="K50" s="113">
         <f t="shared" si="16"/>
-        <v>19.7</v>
+        <v>55.2</v>
       </c>
       <c r="L50" s="113">
         <f t="shared" si="16"/>
-        <v>19.3</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="M50" s="113">
-        <f t="shared" ref="M50" si="17">M29</f>
-        <v>19.7</v>
-      </c>
-      <c r="N50" s="100">
-        <f>N29</f>
-        <v>7348</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" s="100" customFormat="1">
+        <f t="shared" si="16"/>
+        <v>64.599999999999994</v>
+      </c>
+      <c r="N50" s="40">
+        <f t="shared" si="16"/>
+        <v>568839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="100" customFormat="1">
+      <c r="C51" s="197"/>
+      <c r="D51" s="197"/>
       <c r="E51" s="113">
-        <f>E33</f>
-        <v>56.7</v>
+        <f t="shared" ref="E51:N51" si="17">E35</f>
+        <v>215.1</v>
       </c>
       <c r="F51" s="113">
-        <f t="shared" ref="F51:L51" si="18">F33</f>
-        <v>57.4</v>
+        <f t="shared" si="17"/>
+        <v>210.9</v>
       </c>
       <c r="G51" s="113">
+        <f t="shared" si="17"/>
+        <v>212.3</v>
+      </c>
+      <c r="H51" s="113">
+        <f t="shared" si="17"/>
+        <v>216.7</v>
+      </c>
+      <c r="I51" s="113">
+        <f t="shared" si="17"/>
+        <v>221.7</v>
+      </c>
+      <c r="J51" s="113">
+        <f t="shared" si="17"/>
+        <v>228.4</v>
+      </c>
+      <c r="K51" s="113">
+        <f t="shared" si="17"/>
+        <v>224.2</v>
+      </c>
+      <c r="L51" s="113">
+        <f t="shared" si="17"/>
+        <v>225.3</v>
+      </c>
+      <c r="M51" s="113">
+        <f t="shared" si="17"/>
+        <v>220.7</v>
+      </c>
+      <c r="N51" s="40">
+        <f t="shared" si="17"/>
+        <v>39348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="100" customFormat="1">
+      <c r="C52" s="197"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="113">
+        <f t="shared" ref="E52:N52" si="18">E37</f>
+        <v>28.7</v>
+      </c>
+      <c r="F52" s="113">
         <f t="shared" si="18"/>
-        <v>56.4</v>
-      </c>
-      <c r="H51" s="113">
+        <v>29</v>
+      </c>
+      <c r="G52" s="113">
         <f t="shared" si="18"/>
-        <v>56.1</v>
-      </c>
-      <c r="I51" s="113">
+        <v>30.2</v>
+      </c>
+      <c r="H52" s="113">
         <f t="shared" si="18"/>
-        <v>57.4</v>
-      </c>
-      <c r="J51" s="113">
+        <v>30.4</v>
+      </c>
+      <c r="I52" s="113">
         <f t="shared" si="18"/>
-        <v>58.4</v>
-      </c>
-      <c r="K51" s="113">
+        <v>32</v>
+      </c>
+      <c r="J52" s="113">
         <f t="shared" si="18"/>
-        <v>55.2</v>
-      </c>
-      <c r="L51" s="113">
+        <v>31.6</v>
+      </c>
+      <c r="K52" s="113">
         <f t="shared" si="18"/>
-        <v>65.099999999999994</v>
-      </c>
-      <c r="M51" s="113">
-        <f t="shared" ref="M51" si="19">M33</f>
-        <v>64.599999999999994</v>
-      </c>
-      <c r="N51" s="100">
-        <f>N33</f>
-        <v>568839</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" s="100" customFormat="1">
-      <c r="E52" s="113">
-        <f>E35</f>
-        <v>215.1</v>
-      </c>
-      <c r="F52" s="113">
-        <f t="shared" ref="F52:L52" si="20">F35</f>
-        <v>210.9</v>
-      </c>
-      <c r="G52" s="113">
-        <f t="shared" si="20"/>
-        <v>212.3</v>
-      </c>
-      <c r="H52" s="113">
-        <f t="shared" si="20"/>
-        <v>216.7</v>
-      </c>
-      <c r="I52" s="113">
-        <f t="shared" si="20"/>
-        <v>221.7</v>
-      </c>
-      <c r="J52" s="113">
-        <f t="shared" si="20"/>
-        <v>228.4</v>
-      </c>
-      <c r="K52" s="113">
-        <f t="shared" si="20"/>
-        <v>224.2</v>
+        <v>31.1</v>
       </c>
       <c r="L52" s="113">
-        <f t="shared" si="20"/>
-        <v>225.3</v>
+        <f t="shared" si="18"/>
+        <v>30.3</v>
       </c>
       <c r="M52" s="113">
-        <f t="shared" ref="M52" si="21">M35</f>
-        <v>220.7</v>
-      </c>
-      <c r="N52" s="100">
-        <f>N35</f>
-        <v>39348</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" s="100" customFormat="1">
-      <c r="E53" s="113">
-        <f>E37</f>
+        <f t="shared" si="18"/>
         <v>28.7</v>
       </c>
-      <c r="F53" s="113">
-        <f t="shared" ref="F53:L53" si="22">F37</f>
-        <v>29</v>
-      </c>
-      <c r="G53" s="113">
-        <f t="shared" si="22"/>
-        <v>30.2</v>
-      </c>
-      <c r="H53" s="113">
-        <f t="shared" si="22"/>
-        <v>30.4</v>
-      </c>
-      <c r="I53" s="113">
-        <f t="shared" si="22"/>
-        <v>32</v>
-      </c>
-      <c r="J53" s="113">
-        <f t="shared" si="22"/>
-        <v>31.6</v>
-      </c>
-      <c r="K53" s="113">
-        <f t="shared" si="22"/>
-        <v>31.1</v>
-      </c>
-      <c r="L53" s="113">
-        <f t="shared" si="22"/>
-        <v>30.3</v>
-      </c>
-      <c r="M53" s="113">
-        <f t="shared" ref="M53" si="23">M37</f>
-        <v>28.7</v>
-      </c>
-      <c r="N53" s="100">
-        <f>N37</f>
+      <c r="N52" s="40">
+        <f t="shared" si="18"/>
         <v>43975</v>
       </c>
     </row>
-    <row r="54" spans="2:14" s="100" customFormat="1"/>
-    <row r="55" spans="2:14" s="100" customFormat="1"/>
-    <row r="56" spans="2:14" s="100" customFormat="1"/>
-    <row r="57" spans="2:14" s="100" customFormat="1"/>
-    <row r="58" spans="2:14" s="100" customFormat="1">
+    <row r="53" spans="1:14" s="100" customFormat="1">
+      <c r="C53" s="172"/>
+      <c r="D53" s="172"/>
+    </row>
+    <row r="54" spans="1:14" s="100" customFormat="1"/>
+    <row r="55" spans="1:14" s="100" customFormat="1"/>
+    <row r="56" spans="1:14" s="100" customFormat="1"/>
+    <row r="57" spans="1:14" s="100" customFormat="1"/>
+    <row r="58" spans="1:14" s="100" customFormat="1">
       <c r="E58" s="113"/>
     </row>
-    <row r="59" spans="2:14" ht="17.5" thickBot="1">
+    <row r="59" spans="1:14" ht="17.25" thickBot="1">
+      <c r="D59" s="99" t="s">
+        <v>785</v>
+      </c>
       <c r="E59" s="100">
         <v>2012</v>
       </c>
@@ -32847,51 +32994,54 @@
         <v>2020</v>
       </c>
       <c r="N59" s="99" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="196" t="s">
+        <v>783</v>
+      </c>
       <c r="B60" s="132" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C60" s="133" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D60" s="133"/>
       <c r="E60" s="133">
-        <f t="shared" ref="E60:M60" si="24">SUMPRODUCT(E7:E9,$N$7:$N$9)/SUM($N$7:$N$9)</f>
+        <f t="shared" ref="E60:M60" si="19">SUMPRODUCT(E7:E9,$N$7:$N$9)/SUM($N$7:$N$9)</f>
         <v>34.445342591577088</v>
       </c>
       <c r="F60" s="133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>32.923446180954343</v>
       </c>
       <c r="G60" s="133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>33.480877513909633</v>
       </c>
       <c r="H60" s="133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>33.214259646268552</v>
       </c>
       <c r="I60" s="133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>32.702856587662374</v>
       </c>
       <c r="J60" s="133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>32.278724723936008</v>
       </c>
       <c r="K60" s="133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>32.103279573983805</v>
       </c>
       <c r="L60" s="133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>31.688448775046613</v>
       </c>
       <c r="M60" s="133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>30.555540425165738</v>
       </c>
       <c r="N60" s="134">
@@ -32899,48 +33049,49 @@
         <v>9947603</v>
       </c>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="1:14">
+      <c r="A61" s="196"/>
       <c r="B61" s="135" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C61" s="70" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D61" s="70"/>
       <c r="E61" s="136">
-        <f t="shared" ref="E61:M61" si="25">E12</f>
+        <f t="shared" ref="E61:M61" si="20">E12</f>
         <v>42.4</v>
       </c>
       <c r="F61" s="136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>40.4</v>
       </c>
       <c r="G61" s="136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>40.700000000000003</v>
       </c>
       <c r="H61" s="136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>39.6</v>
       </c>
       <c r="I61" s="136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>40.6</v>
       </c>
       <c r="J61" s="136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>40.200000000000003</v>
       </c>
       <c r="K61" s="136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>40.299999999999997</v>
       </c>
       <c r="L61" s="136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>39.200000000000003</v>
       </c>
       <c r="M61" s="136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>39.799999999999997</v>
       </c>
       <c r="N61" s="137">
@@ -32948,48 +33099,49 @@
         <v>3131035</v>
       </c>
     </row>
-    <row r="62" spans="2:14" ht="17.5" thickBot="1">
+    <row r="62" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A62" s="196"/>
       <c r="B62" s="138" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C62" s="139" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D62" s="139"/>
       <c r="E62" s="139">
-        <f t="shared" ref="E62:M62" si="26">SUMPRODUCT(E17:E18,$N$17:$N$18)/SUM($N$17:$N$18)</f>
+        <f t="shared" ref="E62:M62" si="21">SUMPRODUCT(E17:E18,$N$17:$N$18)/SUM($N$17:$N$18)</f>
         <v>40.544272749003369</v>
       </c>
       <c r="F62" s="139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>35.563813026749017</v>
       </c>
       <c r="G62" s="139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>39.580301340920826</v>
       </c>
       <c r="H62" s="139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>36.329766283436271</v>
       </c>
       <c r="I62" s="139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>38.576179262377877</v>
       </c>
       <c r="J62" s="139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>36.062742911779907</v>
       </c>
       <c r="K62" s="139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>36.709155890721505</v>
       </c>
       <c r="L62" s="139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>34.387475383037625</v>
       </c>
       <c r="M62" s="139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>35.214348084233578</v>
       </c>
       <c r="N62" s="140">
@@ -32997,48 +33149,51 @@
         <v>648435</v>
       </c>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="1:14">
+      <c r="A63" s="196" t="s">
+        <v>784</v>
+      </c>
       <c r="B63" s="132" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C63" s="133" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D63" s="133"/>
       <c r="E63" s="141">
-        <f t="shared" ref="E63:L63" si="27">E10</f>
+        <f t="shared" ref="E63:L63" si="22">E10</f>
         <v>42.7</v>
       </c>
       <c r="F63" s="141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>40.299999999999997</v>
       </c>
       <c r="G63" s="141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>40.6</v>
       </c>
       <c r="H63" s="141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>39.5</v>
       </c>
       <c r="I63" s="141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>39.700000000000003</v>
       </c>
       <c r="J63" s="141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>38.9</v>
       </c>
       <c r="K63" s="141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>38.700000000000003</v>
       </c>
       <c r="L63" s="141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>36.6</v>
       </c>
       <c r="M63" s="141">
-        <f t="shared" ref="M63" si="28">M10</f>
+        <f t="shared" ref="M63" si="23">M10</f>
         <v>36.200000000000003</v>
       </c>
       <c r="N63" s="134">
@@ -33046,48 +33201,49 @@
         <v>3550965</v>
       </c>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="1:14">
+      <c r="A64" s="196"/>
       <c r="B64" s="135" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C64" s="70" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D64" s="70"/>
       <c r="E64" s="136">
-        <f t="shared" ref="E64:L64" si="29">E13</f>
+        <f t="shared" ref="E64:L64" si="24">E13</f>
         <v>42.7</v>
       </c>
       <c r="F64" s="136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>41.6</v>
       </c>
       <c r="G64" s="136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>40.799999999999997</v>
       </c>
       <c r="H64" s="136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>40.4</v>
       </c>
       <c r="I64" s="136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>39.9</v>
       </c>
       <c r="J64" s="136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>39.700000000000003</v>
       </c>
       <c r="K64" s="136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>39</v>
       </c>
       <c r="L64" s="136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>38.9</v>
       </c>
       <c r="M64" s="136">
-        <f t="shared" ref="M64" si="30">M13</f>
+        <f t="shared" ref="M64" si="25">M13</f>
         <v>38.1</v>
       </c>
       <c r="N64" s="137">
@@ -33095,48 +33251,49 @@
         <v>1426815</v>
       </c>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="1:14">
+      <c r="A65" s="196"/>
       <c r="B65" s="135" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C65" s="70" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D65" s="70"/>
       <c r="E65" s="136">
-        <f t="shared" ref="E65:L65" si="31">E14</f>
+        <f t="shared" ref="E65:L65" si="26">E14</f>
         <v>39.799999999999997</v>
       </c>
       <c r="F65" s="136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>38.1</v>
       </c>
       <c r="G65" s="136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>36.9</v>
       </c>
       <c r="H65" s="136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>36.299999999999997</v>
       </c>
       <c r="I65" s="136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>36.6</v>
       </c>
       <c r="J65" s="136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>36.6</v>
       </c>
       <c r="K65" s="136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>37.200000000000003</v>
       </c>
       <c r="L65" s="136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>37.700000000000003</v>
       </c>
       <c r="M65" s="136">
-        <f t="shared" ref="M65" si="32">M14</f>
+        <f t="shared" ref="M65" si="27">M14</f>
         <v>38.6</v>
       </c>
       <c r="N65" s="137">
@@ -33144,12 +33301,13 @@
         <v>1121099</v>
       </c>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="1:14">
+      <c r="A66" s="196"/>
       <c r="B66" s="135" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D66" s="70"/>
       <c r="E66" s="136">
@@ -33157,35 +33315,35 @@
         <v>201</v>
       </c>
       <c r="F66" s="136">
-        <f t="shared" ref="F66:L66" si="33">F19</f>
+        <f t="shared" ref="F66:L66" si="28">F19</f>
         <v>194.8</v>
       </c>
       <c r="G66" s="136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>193.1</v>
       </c>
       <c r="H66" s="136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>191.1</v>
       </c>
       <c r="I66" s="136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>193.1</v>
       </c>
       <c r="J66" s="136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>195</v>
       </c>
       <c r="K66" s="136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>193.3</v>
       </c>
       <c r="L66" s="136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>191.4</v>
       </c>
       <c r="M66" s="136">
-        <f t="shared" ref="M66" si="34">M19</f>
+        <f t="shared" ref="M66" si="29">M19</f>
         <v>173.9</v>
       </c>
       <c r="N66" s="137">
@@ -33193,12 +33351,13 @@
         <v>128549</v>
       </c>
     </row>
-    <row r="67" spans="2:14" ht="17.5" thickBot="1">
+    <row r="67" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A67" s="196"/>
       <c r="B67" s="138" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C67" s="139" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D67" s="139"/>
       <c r="E67" s="142">
@@ -33206,35 +33365,35 @@
         <v>42.4</v>
       </c>
       <c r="F67" s="142">
-        <f t="shared" ref="F67:L67" si="35">F20</f>
+        <f t="shared" ref="F67:L67" si="30">F20</f>
         <v>42.3</v>
       </c>
       <c r="G67" s="142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>43.1</v>
       </c>
       <c r="H67" s="142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>43.3</v>
       </c>
       <c r="I67" s="142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>42.7</v>
       </c>
       <c r="J67" s="142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>39.1</v>
       </c>
       <c r="K67" s="142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>33.1</v>
       </c>
       <c r="L67" s="142">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>28.2</v>
       </c>
       <c r="M67" s="142">
-        <f t="shared" ref="M67" si="36">M20</f>
+        <f t="shared" ref="M67" si="31">M20</f>
         <v>25.2</v>
       </c>
       <c r="N67" s="140">
@@ -33242,13 +33401,13 @@
         <v>34815</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="17.5" thickBot="1"/>
-    <row r="72" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B72" s="188" t="s">
-        <v>782</v>
+    <row r="71" spans="1:14" ht="17.25" thickBot="1"/>
+    <row r="72" spans="1:14" ht="17.25" thickBot="1">
+      <c r="B72" s="193" t="s">
+        <v>778</v>
       </c>
       <c r="C72" s="133" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D72" s="133"/>
       <c r="E72" s="133">
@@ -33256,46 +33415,46 @@
         <v>36.547835274133092</v>
       </c>
       <c r="F72" s="133">
-        <f t="shared" ref="F72:L72" si="37">SUMPRODUCT(F60:F62,$N$60:$N$62)/SUM($N$60:$N$62)</f>
+        <f t="shared" ref="F72:L72" si="32">SUMPRODUCT(F60:F62,$N$60:$N$62)/SUM($N$60:$N$62)</f>
         <v>34.753512791838432</v>
       </c>
       <c r="G72" s="133">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>35.41562391341548</v>
       </c>
       <c r="H72" s="133">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>34.817964973304939</v>
       </c>
       <c r="I72" s="133">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>34.781573617332697</v>
       </c>
       <c r="J72" s="133">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>34.264252153390608</v>
       </c>
       <c r="K72" s="133">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>34.190456494257738</v>
       </c>
       <c r="L72" s="133">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>33.529268963602078</v>
       </c>
       <c r="M72" s="133">
-        <f t="shared" ref="M72" si="38">SUMPRODUCT(M60:M62,$N$60:$N$62)/SUM($N$60:$N$62)</f>
+        <f t="shared" ref="M72" si="33">SUMPRODUCT(M60:M62,$N$60:$N$62)/SUM($N$60:$N$62)</f>
         <v>32.884198576054779</v>
       </c>
-      <c r="N72" s="147">
+      <c r="N72" s="175">
         <f>(M72/E72)^(1/8)-1</f>
         <v>-1.3116926130831486E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:14" s="100" customFormat="1" ht="17.5" thickBot="1">
-      <c r="B73" s="189"/>
+    <row r="73" spans="1:14" s="100" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B73" s="194"/>
       <c r="C73" s="139" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D73" s="139"/>
       <c r="E73" s="139">
@@ -33303,151 +33462,144 @@
         <v>45.42868285373148</v>
       </c>
       <c r="F73" s="139">
-        <f t="shared" ref="F73:L73" si="39">SUMPRODUCT(F63:F67,$N$63:$N$67)/SUM($N$63:$N$67)</f>
+        <f t="shared" ref="F73:L73" si="34">SUMPRODUCT(F63:F67,$N$63:$N$67)/SUM($N$63:$N$67)</f>
         <v>43.384979647068953</v>
       </c>
       <c r="G73" s="139">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>43.127537928502612</v>
       </c>
       <c r="H73" s="139">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>42.26529385716907</v>
       </c>
       <c r="I73" s="139">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>42.356207639978201</v>
       </c>
       <c r="J73" s="139">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>41.875992180437585</v>
       </c>
       <c r="K73" s="139">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>41.642253662146295</v>
       </c>
       <c r="L73" s="139">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>40.451946115792694</v>
       </c>
       <c r="M73" s="139">
-        <f t="shared" ref="M73" si="40">SUMPRODUCT(M63:M67,$N$63:$N$67)/SUM($N$63:$N$67)</f>
+        <f t="shared" ref="M73" si="35">SUMPRODUCT(M63:M67,$N$63:$N$67)/SUM($N$63:$N$67)</f>
         <v>39.828064001987784</v>
       </c>
-      <c r="N73" s="147">
-        <f t="shared" ref="N73:N75" si="41">(M73/E73)^(1/8)-1</f>
+      <c r="N73" s="175">
+        <f t="shared" ref="N73:N75" si="36">(M73/E73)^(1/8)-1</f>
         <v>-1.6311982042929385E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:14" s="100" customFormat="1" ht="17.5" thickBot="1">
-      <c r="B74" s="190" t="s">
-        <v>783</v>
+    <row r="74" spans="1:14" s="100" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B74" s="195" t="s">
+        <v>779</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D74" s="70"/>
       <c r="E74" s="70">
-        <f t="shared" ref="E74:M74" si="42">SUMPRODUCT(E40:E46,$N$40:$N$46)/SUM($N$40:$N$46)</f>
+        <f t="shared" ref="E74:M74" si="37">SUMPRODUCT(E40:E46,$N$40:$N$46)/SUM($N$40:$N$46)</f>
         <v>43.762502596074235</v>
       </c>
       <c r="F74" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>43.445275729384832</v>
       </c>
       <c r="G74" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>43.228596327504754</v>
       </c>
       <c r="H74" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>43.728835263747506</v>
       </c>
       <c r="I74" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>43.348046524767419</v>
       </c>
       <c r="J74" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>43.633113165457111</v>
       </c>
       <c r="K74" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>42.770058935268615</v>
       </c>
       <c r="L74" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>40.519274151283433</v>
       </c>
       <c r="M74" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>40.676461351127571</v>
       </c>
-      <c r="N74" s="147">
-        <f t="shared" si="41"/>
+      <c r="N74" s="175">
+        <f t="shared" si="36"/>
         <v>-9.0993190412814728E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:14" s="100" customFormat="1" ht="17.5" thickBot="1">
-      <c r="B75" s="189"/>
+    <row r="75" spans="1:14" s="100" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B75" s="194"/>
       <c r="C75" s="139" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D75" s="139"/>
       <c r="E75" s="139">
-        <f t="shared" ref="E75:M75" si="43">SUMPRODUCT(E49:E53,$N$49:$N$53)/SUM($N$49:$N$53)</f>
+        <f t="shared" ref="E75:M75" si="38">SUMPRODUCT(E48:E52,$N$48:$N$52)/SUM($N$48:$N$52)</f>
         <v>76.508576523974853</v>
       </c>
       <c r="F75" s="139">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>76.814947255189864</v>
       </c>
       <c r="G75" s="139">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>76.617837112013945</v>
       </c>
       <c r="H75" s="139">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>76.8971315586396</v>
       </c>
       <c r="I75" s="139">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>78.162985586408325</v>
       </c>
       <c r="J75" s="139">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>79.81244398440856</v>
       </c>
       <c r="K75" s="139">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>76.916528184104067</v>
       </c>
       <c r="L75" s="139">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>83.684530281342575</v>
       </c>
       <c r="M75" s="139">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>82.708626370312771</v>
       </c>
-      <c r="N75" s="147">
-        <f t="shared" si="41"/>
+      <c r="N75" s="176">
+        <f t="shared" si="36"/>
         <v>9.7877219504034496E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:14" s="100" customFormat="1"/>
-    <row r="77" spans="2:14">
-      <c r="B77" s="48" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14">
-      <c r="B78" s="99" t="s">
-        <v>721</v>
-      </c>
+    <row r="76" spans="1:14" s="100" customFormat="1"/>
+    <row r="77" spans="1:14">
+      <c r="B77" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B72:B73"/>
@@ -33455,6 +33607,10 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="C40:D46"/>
+    <mergeCell ref="C48:D52"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33469,35 +33625,35 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="198" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="85" t="s">
@@ -34410,28 +34566,28 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="193" t="s">
+      <c r="A18" s="200" t="s">
         <v>419</v>
       </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="192"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
+      <c r="O18" s="199"/>
+      <c r="P18" s="199"/>
+      <c r="Q18" s="199"/>
+      <c r="R18" s="199"/>
+      <c r="S18" s="199"/>
+      <c r="T18" s="199"/>
       <c r="U18" s="87">
         <v>44452.597080150474</v>
       </c>
@@ -34454,35 +34610,35 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="198" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="85" t="s">
@@ -35395,28 +35551,28 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="193" t="s">
+      <c r="A18" s="200" t="s">
         <v>419</v>
       </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="192"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
+      <c r="O18" s="199"/>
+      <c r="P18" s="199"/>
+      <c r="Q18" s="199"/>
+      <c r="R18" s="199"/>
+      <c r="S18" s="199"/>
+      <c r="T18" s="199"/>
       <c r="U18" s="87">
         <v>44452.596946840291</v>
       </c>
@@ -35439,35 +35595,35 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="198" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="85" t="s">
@@ -36055,28 +36211,28 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="200" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="192"/>
-      <c r="O13" s="192"/>
-      <c r="P13" s="192"/>
-      <c r="Q13" s="192"/>
-      <c r="R13" s="192"/>
-      <c r="S13" s="192"/>
-      <c r="T13" s="192"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
+      <c r="O13" s="199"/>
+      <c r="P13" s="199"/>
+      <c r="Q13" s="199"/>
+      <c r="R13" s="199"/>
+      <c r="S13" s="199"/>
+      <c r="T13" s="199"/>
       <c r="U13" s="87">
         <v>44452.596521967585</v>
       </c>
@@ -36099,25 +36255,25 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="198" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="85" t="s">
@@ -36645,18 +36801,18 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="193" t="s">
+      <c r="A19" s="200" t="s">
         <v>419</v>
       </c>
-      <c r="B19" s="192"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="199"/>
       <c r="K19" s="87">
         <v>44452.580671828706</v>
       </c>
@@ -36684,25 +36840,25 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="198" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="85" t="s">
@@ -37230,18 +37386,18 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="193" t="s">
+      <c r="A19" s="200" t="s">
         <v>419</v>
       </c>
-      <c r="B19" s="192"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="199"/>
       <c r="K19" s="87">
         <v>44452.580602870381</v>
       </c>

--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GyeHyunPark\Dropbox\Energy Innovation\InputData_Working\개인폴더-계현\trans\이륜차수정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2580F1AA-2F90-40B6-8982-6234BC78C043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14573860-7D66-47A5-A492-02656B674ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="1065" windowWidth="19800" windowHeight="17010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,19 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1287,7 +1299,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1299,7 +1311,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1311,7 +1323,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1323,7 +1335,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1335,7 +1347,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1353,7 +1365,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1365,7 +1377,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1388,7 +1400,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1400,7 +1412,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1412,7 +1424,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1430,7 +1442,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1442,7 +1454,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1465,7 +1477,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1477,7 +1489,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1489,7 +1501,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2786,23 +2798,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="###0.00_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0_)"/>
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.000_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="#,##0.0"/>
+  <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ "/>
+    <numFmt numFmtId="168" formatCode="#,##0.000_ "/>
+    <numFmt numFmtId="169" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2810,7 +2821,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2818,7 +2829,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2836,7 +2847,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3051,7 +3062,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3059,7 +3070,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3075,7 +3086,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3088,7 +3099,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3096,7 +3107,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3104,7 +3115,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3113,7 +3124,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3121,7 +3132,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF31393F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3130,14 +3141,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3146,7 +3157,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3154,7 +3165,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3163,7 +3174,7 @@
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3172,28 +3183,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4295,33 +4306,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="6">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4462,7 +4473,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0">
@@ -4510,7 +4521,7 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="41" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4546,28 +4557,28 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="48" fillId="0" borderId="19" xfId="154" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="19" xfId="154" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="48" fillId="0" borderId="19" xfId="154" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="19" xfId="154" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="48" fillId="0" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="48" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="48" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="48" fillId="30" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="48" fillId="30" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="48" fillId="0" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="48" fillId="32" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="48" fillId="32" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="48" fillId="29" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="48" fillId="29" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4585,7 +4596,7 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="49" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="49" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4603,13 +4614,13 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="49" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="49" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="49" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="49" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4625,7 +4636,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4658,7 +4669,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4670,13 +4681,13 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4685,13 +4696,13 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4718,7 +4729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4727,7 +4738,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="34" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4739,10 +4750,10 @@
     <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
@@ -4786,8 +4797,8 @@
     <xf numFmtId="3" fontId="65" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4832,7 +4843,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4850,7 +4861,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4866,19 +4877,19 @@
     <xf numFmtId="0" fontId="51" fillId="29" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="31" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="31" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="30" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="32" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="32" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="29" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="29" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="30" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="30" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4893,7 +4904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4908,10 +4919,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4921,7 +4932,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
@@ -4943,19 +4954,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4968,14 +4979,14 @@
     <xf numFmtId="0" fontId="60" fillId="37" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5000,13 +5011,7 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5034,7 +5039,13 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5169,10 +5180,12 @@
     <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
@@ -5254,8 +5267,6 @@
     <cellStyle name="Wrap Title" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
     <cellStyle name="Wrap_NTS99-~11" xfId="153" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
     <cellStyle name="쉼표 [0] 3" xfId="154" xr:uid="{C0F8F9B3-6376-4075-90B5-595C1BD80115}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5587,7 +5598,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5911,7 +5922,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="151"/>
     <col min="2" max="2" width="9" style="151" customWidth="1"/>
@@ -6312,7 +6323,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
@@ -6617,18 +6628,18 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="166" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="166" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="166" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="166" customWidth="1"/>
-    <col min="5" max="7" width="15.5" style="166" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.75" style="166" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="166" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="166" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="166" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="166" customWidth="1"/>
+    <col min="5" max="7" width="15.42578125" style="166" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.7109375" style="166" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="166"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="48" t="s">
         <v>702</v>
       </c>
@@ -6826,10 +6837,10 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7149,11 +7160,10 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="6" customWidth="1"/>
-    <col min="2" max="3" width="28.375" style="6" customWidth="1"/>
-    <col min="4" max="5" width="28.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" style="6" customWidth="1"/>
+    <col min="2" max="5" width="28.42578125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -9138,11 +9148,10 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="6" customWidth="1"/>
-    <col min="2" max="3" width="28.375" style="6" customWidth="1"/>
-    <col min="4" max="5" width="28.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" style="6" customWidth="1"/>
+    <col min="2" max="5" width="28.42578125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -11484,11 +11493,10 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="6" customWidth="1"/>
-    <col min="2" max="3" width="28.375" style="6" customWidth="1"/>
-    <col min="4" max="5" width="28.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" style="6" customWidth="1"/>
+    <col min="2" max="5" width="28.42578125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -13609,23 +13617,23 @@
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -14769,15 +14777,15 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -14929,31 +14937,31 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.75" style="6" customWidth="1"/>
-    <col min="21" max="22" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" style="6" customWidth="1"/>
+    <col min="21" max="22" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="11" style="6" customWidth="1"/>
-    <col min="29" max="29" width="15.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -23721,16 +23729,16 @@
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="99"/>
-    <col min="2" max="2" width="11.375" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.85546875" style="99" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="11.875" style="99" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.375" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="11.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.42578125" style="99" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" style="99" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.375" style="99" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="99" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="11" style="99" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="99"/>
   </cols>
@@ -23942,7 +23950,7 @@
         <v>22903052.799999997</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.25" thickBot="1">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1">
       <c r="A6" s="211" t="s">
         <v>682</v>
       </c>
@@ -24406,7 +24414,7 @@
         <v>838467.9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="17.25" thickBot="1">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" s="211"/>
       <c r="B13" s="104" t="s">
         <v>690</v>
@@ -24802,7 +24810,7 @@
         <v>1017015.2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="17.25" thickBot="1">
+    <row r="19" spans="1:22" ht="15.75" thickBot="1">
       <c r="A19" s="211" t="s">
         <v>696</v>
       </c>
@@ -25266,7 +25274,7 @@
         <v>849264.7</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="17.25" thickBot="1">
+    <row r="26" spans="1:22" ht="15.75" thickBot="1">
       <c r="A26" s="211"/>
       <c r="B26" s="104" t="s">
         <v>690</v>
@@ -25662,7 +25670,7 @@
         <v>930822.3</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="17.25" thickBot="1">
+    <row r="32" spans="1:22" ht="15.75" thickBot="1">
       <c r="A32" s="211" t="s">
         <v>698</v>
       </c>
@@ -26126,7 +26134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="17.25" thickBot="1">
+    <row r="39" spans="1:22" ht="15.75" thickBot="1">
       <c r="A39" s="211"/>
       <c r="B39" s="104" t="s">
         <v>690</v>
@@ -26267,6 +26275,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:P2"/>
@@ -26277,13 +26292,6 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:V3"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26298,17 +26306,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C72AEF-DF7D-478A-9467-A51A8EC9446B}">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" style="7" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="7" customWidth="1"/>
-    <col min="3" max="4" width="1.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="1.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -28022,14 +28030,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="5"/>
+    <col min="1" max="1" width="16.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="82.5">
+    <row r="1" spans="1:33" ht="75">
       <c r="A1" s="173" t="s">
         <v>669</v>
       </c>
@@ -28905,17 +28913,17 @@
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="5"/>
-    <col min="3" max="3" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="5"/>
+    <col min="1" max="1" width="16.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="82.5">
+    <row r="1" spans="1:33" ht="75">
       <c r="A1" s="3" t="s">
         <v>669</v>
       </c>
@@ -29025,127 +29033,127 @@
       </c>
       <c r="C2" s="96">
         <f>B2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.99090068095871853</v>
+        <v>0.99043546689566553</v>
       </c>
       <c r="D2" s="96">
         <f>C2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.98188415952445207</v>
+        <v>0.98096241408483498</v>
       </c>
       <c r="E2" s="96">
         <f>D2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.97294968229535861</v>
+        <v>0.97157996660121271</v>
       </c>
       <c r="F2" s="96">
         <f>E2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.96409650272503966</v>
+        <v>0.96228725784714719</v>
       </c>
       <c r="G2" s="96">
         <f>F2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.95532388106016086</v>
+        <v>0.95308342951358893</v>
       </c>
       <c r="H2" s="96">
         <f>G2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.94663108427863918</v>
+        <v>0.94396763150081353</v>
       </c>
       <c r="I2" s="96">
         <f>H2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.93801738602839368</v>
+        <v>0.93493902183990385</v>
       </c>
       <c r="J2" s="96">
         <f>I2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.92948206656665244</v>
+        <v>0.92599676661498198</v>
       </c>
       <c r="K2" s="96">
         <f>J2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.92102441269981283</v>
+        <v>0.91714003988618631</v>
       </c>
       <c r="L2" s="96">
         <f>K2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.91264371772384834</v>
+        <v>0.9083680236133842</v>
       </c>
       <c r="M2" s="96">
         <f>L2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.90433928136525776</v>
+        <v>0.89967990758061511</v>
       </c>
       <c r="N2" s="96">
         <f>M2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.89611040972255207</v>
+        <v>0.89107488932125578</v>
       </c>
       <c r="O2" s="96">
         <f>N2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.88795641520827306</v>
+        <v>0.88255217404390141</v>
       </c>
       <c r="P2" s="96">
         <f>O2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.87987661649154036</v>
+        <v>0.87411097455895614</v>
       </c>
       <c r="Q2" s="96">
         <f>P2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.87187033844112061</v>
+        <v>0.86575051120592494</v>
       </c>
       <c r="R2" s="96">
         <f>Q2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.8639369120690148</v>
+        <v>0.85747001178140136</v>
       </c>
       <c r="S2" s="96">
         <f>R2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.85607567447455934</v>
+        <v>0.84926871146774408</v>
       </c>
       <c r="T2" s="96">
         <f>S2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.84828596878903506</v>
+        <v>0.84114585276243536</v>
       </c>
       <c r="U2" s="96">
         <f>T2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.84056714412078104</v>
+        <v>0.83310068540811544</v>
       </c>
       <c r="V2" s="96">
         <f>U2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.83291855550080718</v>
+        <v>0.82513246632328574</v>
       </c>
       <c r="W2" s="96">
         <f>V2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.82533956382890206</v>
+        <v>0.81724045953367552</v>
       </c>
       <c r="X2" s="96">
         <f>W2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.81782953582023077</v>
+        <v>0.80942393610426422</v>
       </c>
       <c r="Y2" s="96">
         <f>X2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.81038784395241936</v>
+        <v>0.8016821740719543</v>
       </c>
       <c r="Z2" s="96">
         <f>Y2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.80301386641312011</v>
+        <v>0.79401445837888829</v>
       </c>
       <c r="AA2" s="96">
         <f>Z2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.7957069870480542</v>
+        <v>0.78642008080640324</v>
       </c>
       <c r="AB2" s="96">
         <f>AA2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.78846659530952712</v>
+        <v>0.77889833990961699</v>
       </c>
       <c r="AC2" s="96">
         <f>AB2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.78129208620541279</v>
+        <v>0.77144854095264026</v>
       </c>
       <c r="AD2" s="96">
         <f>AC2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.77418286024860139</v>
+        <v>0.76406999584440816</v>
       </c>
       <c r="AE2" s="96">
         <f>AD2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.76713832340690757</v>
+        <v>0.75676202307512563</v>
       </c>
       <c r="AF2" s="96">
         <f>AE2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.76015788705343434</v>
+        <v>0.74952394765332042</v>
       </c>
       <c r="AG2" s="96">
         <f>AF2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.7532409679173887</v>
+        <v>0.74235510104349878</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="95" customFormat="1">
@@ -29820,52 +29828,52 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="4" width="9" style="21"/>
     <col min="5" max="5" width="8" style="21" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="182" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-    </row>
-    <row r="2" spans="1:8" ht="27">
-      <c r="A2" s="178" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5">
+      <c r="A2" s="187" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="187" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="180" t="s">
+      <c r="F2" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="181"/>
+      <c r="G2" s="179"/>
     </row>
     <row r="3" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
       <c r="E3" s="36" t="s">
         <v>11</v>
       </c>
@@ -29879,8 +29887,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickTop="1">
-      <c r="A4" s="185" t="s">
+    <row r="4" spans="1:8" ht="13.5" thickTop="1">
+      <c r="A4" s="183" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -29899,10 +29907,10 @@
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="180" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -29918,13 +29926,13 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="187" t="s">
+      <c r="C6" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -29937,13 +29945,13 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="187" t="s">
+      <c r="C7" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -29962,13 +29970,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -29984,13 +29992,13 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -30006,13 +30014,13 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="187" t="s">
+      <c r="C10" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -30028,13 +30036,13 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="185" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -30047,13 +30055,13 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="187" t="s">
+      <c r="C12" s="185" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -30072,13 +30080,13 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="186" t="s">
+      <c r="A13" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="187" t="s">
+      <c r="C13" s="185" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -30094,10 +30102,10 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="180" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -30119,10 +30127,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="180" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -30138,13 +30146,13 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="187" t="s">
+      <c r="C16" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -30157,13 +30165,13 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="186" t="s">
+      <c r="A17" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -30182,13 +30190,13 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="186" t="s">
+      <c r="A18" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -30204,13 +30212,13 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="186" t="s">
+      <c r="A19" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="182" t="s">
+      <c r="B19" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -30225,11 +30233,11 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A20" s="186" t="s">
+    <row r="20" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A20" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="183" t="s">
+      <c r="B20" s="181" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -30251,10 +30259,10 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="186" t="s">
+      <c r="A21" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="186" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -30270,13 +30278,13 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="186" t="s">
+      <c r="A22" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="182" t="s">
+      <c r="B22" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -30289,13 +30297,13 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="186" t="s">
+      <c r="A23" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -30305,22 +30313,22 @@
         <v>39.700000000000003</v>
       </c>
       <c r="F23" s="26">
-        <f>SUM('SYVbT_DV-Regis'!F87)</f>
-        <v>1779618</v>
+        <f>SUM('SYVbT_DV-Regis'!F85,'SYVbT_DV-Regis'!F87)</f>
+        <v>2088796</v>
       </c>
       <c r="G23" s="30">
         <f>SUMPRODUCT(E23:E25,F23:F25)/SUM(F23:F25)</f>
-        <v>47.128724591452908</v>
+        <v>46.227170181480759</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="186" t="s">
+      <c r="A24" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -30336,13 +30344,13 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="186" t="s">
+      <c r="A25" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="182" t="s">
+      <c r="B25" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="187" t="s">
+      <c r="C25" s="185" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -30358,13 +30366,13 @@
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="187" t="s">
+      <c r="C26" s="185" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -30377,13 +30385,13 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="186" t="s">
+      <c r="A27" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="182" t="s">
+      <c r="B27" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="187" t="s">
+      <c r="C27" s="185" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -30402,13 +30410,13 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="186" t="s">
+      <c r="A28" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="185" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -30424,13 +30432,13 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="186" t="s">
+      <c r="A29" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="185" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -30446,13 +30454,13 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="182" t="s">
+      <c r="B30" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="185" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -30465,13 +30473,13 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="186" t="s">
+      <c r="A31" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="182" t="s">
+      <c r="B31" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="187" t="s">
+      <c r="C31" s="185" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -30493,13 +30501,13 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="182" t="s">
+      <c r="B32" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="187" t="s">
+      <c r="C32" s="185" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -30515,10 +30523,10 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="186" t="s">
+      <c r="A33" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="180" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -30540,10 +30548,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="186" t="s">
+      <c r="A34" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="180" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -30559,10 +30567,10 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="186" t="s">
+      <c r="A35" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="182" t="s">
+      <c r="B35" s="180" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -30584,10 +30592,10 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="182" t="s">
+      <c r="B36" s="180" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -30608,11 +30616,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A37" s="186" t="s">
+    <row r="37" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A37" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="183" t="s">
+      <c r="B37" s="181" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -30643,8 +30651,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B34:B37"/>
@@ -30660,6 +30666,8 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30671,18 +30679,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691AF6E-6FF3-4258-B536-2AC6D3469E02}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="99" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="99" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="99" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="99" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="99" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="99" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="99" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="99" customWidth="1"/>
     <col min="5" max="13" width="9" style="99" customWidth="1"/>
-    <col min="14" max="15" width="9.875" style="99" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.85546875" style="99" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="99"/>
   </cols>
   <sheetData>
@@ -31717,11 +31725,11 @@
       </c>
       <c r="N23" s="57">
         <f>'BAADTbVT_DV-km'!F23</f>
-        <v>1779618</v>
+        <v>2088796</v>
       </c>
       <c r="O23" s="57">
         <f>SUM(N23:N24)</f>
-        <v>2085433</v>
+        <v>2394611</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -32458,7 +32466,7 @@
       </c>
       <c r="N40" s="40">
         <f>N23</f>
-        <v>1779618</v>
+        <v>2088796</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="100" customFormat="1">
@@ -32962,7 +32970,7 @@
     <row r="58" spans="1:14" s="100" customFormat="1">
       <c r="E58" s="113"/>
     </row>
-    <row r="59" spans="1:14" ht="17.25" thickBot="1">
+    <row r="59" spans="1:14" ht="15.75" thickBot="1">
       <c r="D59" s="99" t="s">
         <v>785</v>
       </c>
@@ -33099,7 +33107,7 @@
         <v>3131035</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="17.25" thickBot="1">
+    <row r="62" spans="1:14" ht="15.75" thickBot="1">
       <c r="A62" s="196"/>
       <c r="B62" s="138" t="s">
         <v>726</v>
@@ -33351,7 +33359,7 @@
         <v>128549</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="17.25" thickBot="1">
+    <row r="67" spans="1:14" ht="15.75" thickBot="1">
       <c r="A67" s="196"/>
       <c r="B67" s="138" t="s">
         <v>726</v>
@@ -33401,8 +33409,8 @@
         <v>34815</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="17.25" thickBot="1"/>
-    <row r="72" spans="1:14" ht="17.25" thickBot="1">
+    <row r="71" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="72" spans="1:14" ht="15.75" thickBot="1">
       <c r="B72" s="193" t="s">
         <v>778</v>
       </c>
@@ -33451,7 +33459,7 @@
         <v>-1.3116926130831486E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="100" customFormat="1" ht="17.25" thickBot="1">
+    <row r="73" spans="1:14" s="100" customFormat="1" ht="15.75" thickBot="1">
       <c r="B73" s="194"/>
       <c r="C73" s="139" t="s">
         <v>729</v>
@@ -33498,7 +33506,7 @@
         <v>-1.6311982042929385E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="100" customFormat="1" ht="17.25" thickBot="1">
+    <row r="74" spans="1:14" s="100" customFormat="1" ht="15.75" thickBot="1">
       <c r="B74" s="195" t="s">
         <v>779</v>
       </c>
@@ -33508,46 +33516,46 @@
       <c r="D74" s="70"/>
       <c r="E74" s="70">
         <f t="shared" ref="E74:M74" si="37">SUMPRODUCT(E40:E46,$N$40:$N$46)/SUM($N$40:$N$46)</f>
-        <v>43.762502596074235</v>
+        <v>43.755782348647372</v>
       </c>
       <c r="F74" s="70">
         <f t="shared" si="37"/>
-        <v>43.445275729384832</v>
+        <v>43.461911604480953</v>
       </c>
       <c r="G74" s="70">
         <f t="shared" si="37"/>
-        <v>43.228596327504754</v>
+        <v>43.22552166487629</v>
       </c>
       <c r="H74" s="70">
         <f t="shared" si="37"/>
-        <v>43.728835263747506</v>
+        <v>43.747238809369883</v>
       </c>
       <c r="I74" s="70">
         <f t="shared" si="37"/>
-        <v>43.348046524767419</v>
+        <v>43.310624738963249</v>
       </c>
       <c r="J74" s="70">
         <f t="shared" si="37"/>
-        <v>43.633113165457111</v>
+        <v>43.640304803980307</v>
       </c>
       <c r="K74" s="70">
         <f t="shared" si="37"/>
-        <v>42.770058935268615</v>
+        <v>42.751774284807134</v>
       </c>
       <c r="L74" s="70">
         <f t="shared" si="37"/>
-        <v>40.519274151283433</v>
+        <v>40.431186210095937</v>
       </c>
       <c r="M74" s="70">
         <f t="shared" si="37"/>
-        <v>40.676461351127571</v>
+        <v>40.517712975556357</v>
       </c>
       <c r="N74" s="175">
-        <f t="shared" si="36"/>
-        <v>-9.0993190412814728E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="100" customFormat="1" ht="17.25" thickBot="1">
+        <f>(M74/E74)^(1/8)-1</f>
+        <v>-9.5645331043344717E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="100" customFormat="1" ht="15.75" thickBot="1">
       <c r="B75" s="194"/>
       <c r="C75" s="139" t="s">
         <v>729</v>
@@ -33625,7 +33633,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
@@ -34610,7 +34618,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
@@ -35595,7 +35603,7 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
@@ -36255,7 +36263,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
@@ -36840,7 +36848,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>

--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14573860-7D66-47A5-A492-02656B674ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{104BA830-36E9-4245-8929-7BFB63D69566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="791">
   <si>
     <t>Source:</t>
   </si>
@@ -2809,7 +2809,7 @@
     <numFmt numFmtId="169" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="69">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3256,8 +3256,15 @@
       <name val="Inherit"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF444444"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3464,8 +3471,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -4264,6 +4277,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF252525"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4525,7 +4553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5012,6 +5040,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="68" fillId="40" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="40" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5039,14 +5079,17 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5054,15 +5097,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5920,7 +5954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -6329,19 +6363,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="200" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="85" t="s">
@@ -6589,18 +6623,18 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="202" t="s">
         <v>419</v>
       </c>
-      <c r="B11" s="199"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="199"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
       <c r="K11" s="87">
         <v>44452.580524965277</v>
       </c>
@@ -6844,12 +6878,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="203" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="147"/>
@@ -7014,12 +7048,12 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="203" t="s">
         <v>420</v>
       </c>
-      <c r="B13" s="201"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="147"/>
@@ -7156,25 +7190,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6A2DD4-95F0-42B6-B835-D13B165F4574}">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="6" customWidth="1"/>
-    <col min="2" max="5" width="28.42578125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="28.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="28.42578125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
     </row>
     <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A2" s="92" t="s">
@@ -9151,18 +9186,19 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="6" customWidth="1"/>
-    <col min="2" max="5" width="28.42578125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="28.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="28.42578125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>650</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
     </row>
     <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A2" s="92" t="s">
@@ -11496,18 +11532,19 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="6" customWidth="1"/>
-    <col min="2" max="5" width="28.42578125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="28.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="28.42578125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
     </row>
     <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A2" s="92" t="s">
@@ -13613,7 +13650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564480E8-B5AD-440C-A1F7-B35A04FC90E9}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
@@ -14410,10 +14447,10 @@
       <c r="A37" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="F37" s="197" t="s">
+      <c r="F37" s="199" t="s">
         <v>670</v>
       </c>
-      <c r="G37" s="197"/>
+      <c r="G37" s="199"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="84" t="s">
@@ -14736,10 +14773,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="I53" s="197" t="s">
+      <c r="I53" s="199" t="s">
         <v>731</v>
       </c>
-      <c r="J53" s="197"/>
+      <c r="J53" s="199"/>
     </row>
     <row r="54" spans="1:10">
       <c r="I54" s="48" t="s">
@@ -14933,7 +14970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F81A32-6E09-4536-9605-3AE70AD9D670}">
   <dimension ref="A1:FA71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -14947,9 +14984,9 @@
     <col min="6" max="6" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" style="6" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -19756,7 +19793,7 @@
       <c r="FA22" s="73"/>
     </row>
     <row r="23" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="205" t="s">
+      <c r="A23" s="207" t="s">
         <v>198</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -19977,7 +20014,7 @@
       <c r="FA23" s="73"/>
     </row>
     <row r="24" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="206"/>
+      <c r="A24" s="208"/>
       <c r="B24" s="42" t="s">
         <v>197</v>
       </c>
@@ -20196,7 +20233,7 @@
       <c r="FA24" s="73"/>
     </row>
     <row r="25" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="206"/>
+      <c r="A25" s="208"/>
       <c r="B25" s="42" t="s">
         <v>390</v>
       </c>
@@ -20415,7 +20452,7 @@
       <c r="FA25" s="73"/>
     </row>
     <row r="26" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="206"/>
+      <c r="A26" s="208"/>
       <c r="B26" s="42" t="s">
         <v>196</v>
       </c>
@@ -20634,7 +20671,7 @@
       <c r="FA26" s="73"/>
     </row>
     <row r="27" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="207"/>
+      <c r="A27" s="209"/>
       <c r="B27" s="42" t="s">
         <v>195</v>
       </c>
@@ -20853,7 +20890,7 @@
       <c r="FA27" s="73"/>
     </row>
     <row r="28" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="205" t="s">
+      <c r="A28" s="207" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="42" t="s">
@@ -21074,7 +21111,7 @@
       <c r="FA28" s="73"/>
     </row>
     <row r="29" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="206"/>
+      <c r="A29" s="208"/>
       <c r="B29" s="42" t="s">
         <v>196</v>
       </c>
@@ -21293,7 +21330,7 @@
       <c r="FA29" s="73"/>
     </row>
     <row r="30" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="207"/>
+      <c r="A30" s="209"/>
       <c r="B30" s="45" t="s">
         <v>195</v>
       </c>
@@ -21512,7 +21549,7 @@
       <c r="FA30" s="73"/>
     </row>
     <row r="31" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="204" t="s">
+      <c r="A31" s="206" t="s">
         <v>241</v>
       </c>
       <c r="B31" s="45" t="s">
@@ -21744,7 +21781,7 @@
       <c r="FA31" s="73"/>
     </row>
     <row r="32" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="204"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="45" t="s">
         <v>391</v>
       </c>
@@ -21985,33 +22022,33 @@
       <c r="A34" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="209" t="s">
+      <c r="B34" s="211" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209" t="s">
+      <c r="C34" s="211"/>
+      <c r="D34" s="211" t="s">
         <v>237</v>
       </c>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209" t="s">
+      <c r="E34" s="211"/>
+      <c r="F34" s="211" t="s">
         <v>241</v>
       </c>
-      <c r="G34" s="209"/>
+      <c r="G34" s="211"/>
       <c r="I34" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="J34" s="210" t="s">
+      <c r="J34" s="212" t="s">
         <v>240</v>
       </c>
-      <c r="K34" s="210"/>
-      <c r="L34" s="208" t="s">
+      <c r="K34" s="212"/>
+      <c r="L34" s="210" t="s">
         <v>237</v>
       </c>
-      <c r="M34" s="208"/>
-      <c r="N34" s="208" t="s">
+      <c r="M34" s="210"/>
+      <c r="N34" s="210" t="s">
         <v>241</v>
       </c>
-      <c r="O34" s="208"/>
+      <c r="O34" s="210"/>
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
       <c r="T34" s="48"/>
@@ -23725,20 +23762,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88A3E7C-5EE7-4C18-89A0-01D83214687A}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="99"/>
-    <col min="2" max="2" width="11.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.85546875" style="99" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="99" bestFit="1" customWidth="1"/>
     <col min="8" max="13" width="11.85546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" style="99" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="11" style="99" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="99"/>
   </cols>
@@ -23749,72 +23786,72 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="213" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211" t="s">
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213" t="s">
         <v>671</v>
       </c>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211" t="s">
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213" t="s">
         <v>672</v>
       </c>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="211"/>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211" t="s">
+      <c r="A3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211" t="s">
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211" t="s">
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213" t="s">
         <v>673</v>
       </c>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211" t="s">
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213" t="s">
         <v>674</v>
       </c>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211" t="s">
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="211"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="211" t="s">
+      <c r="R3" s="213"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="213" t="s">
         <v>675</v>
       </c>
-      <c r="U3" s="211"/>
-      <c r="V3" s="211"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="101" t="s">
@@ -23885,10 +23922,10 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="211"/>
+      <c r="B5" s="213"/>
       <c r="C5" s="102">
         <v>4080872227.8000002</v>
       </c>
@@ -23951,10 +23988,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="213" t="s">
         <v>682</v>
       </c>
-      <c r="B6" s="211"/>
+      <c r="B6" s="213"/>
       <c r="C6" s="106">
         <v>1655997518</v>
       </c>
@@ -24017,7 +24054,7 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="213" t="s">
         <v>683</v>
       </c>
       <c r="B7" s="104" t="s">
@@ -24085,7 +24122,7 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="211"/>
+      <c r="A8" s="213"/>
       <c r="B8" s="104" t="s">
         <v>685</v>
       </c>
@@ -24151,7 +24188,7 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="211"/>
+      <c r="A9" s="213"/>
       <c r="B9" s="104" t="s">
         <v>686</v>
       </c>
@@ -24217,7 +24254,7 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="211"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="104" t="s">
         <v>687</v>
       </c>
@@ -24283,7 +24320,7 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="211"/>
+      <c r="A11" s="213"/>
       <c r="B11" s="104" t="s">
         <v>688</v>
       </c>
@@ -24349,7 +24386,7 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="211"/>
+      <c r="A12" s="213"/>
       <c r="B12" s="104" t="s">
         <v>689</v>
       </c>
@@ -24415,7 +24452,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A13" s="211"/>
+      <c r="A13" s="213"/>
       <c r="B13" s="104" t="s">
         <v>690</v>
       </c>
@@ -24481,7 +24518,7 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="211"/>
+      <c r="A14" s="213"/>
       <c r="B14" s="101" t="s">
         <v>691</v>
       </c>
@@ -24547,7 +24584,7 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="211"/>
+      <c r="A15" s="213"/>
       <c r="B15" s="101" t="s">
         <v>692</v>
       </c>
@@ -24613,7 +24650,7 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="211"/>
+      <c r="A16" s="213"/>
       <c r="B16" s="101" t="s">
         <v>693</v>
       </c>
@@ -24679,7 +24716,7 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="211"/>
+      <c r="A17" s="213"/>
       <c r="B17" s="101" t="s">
         <v>694</v>
       </c>
@@ -24745,7 +24782,7 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="211"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="101" t="s">
         <v>695</v>
       </c>
@@ -24811,10 +24848,10 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A19" s="211" t="s">
+      <c r="A19" s="213" t="s">
         <v>696</v>
       </c>
-      <c r="B19" s="211"/>
+      <c r="B19" s="213"/>
       <c r="C19" s="106">
         <v>1510125438.8</v>
       </c>
@@ -24877,7 +24914,7 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="211" t="s">
+      <c r="A20" s="213" t="s">
         <v>697</v>
       </c>
       <c r="B20" s="104" t="s">
@@ -24945,7 +24982,7 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="211"/>
+      <c r="A21" s="213"/>
       <c r="B21" s="104" t="s">
         <v>685</v>
       </c>
@@ -25011,7 +25048,7 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="211"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="104" t="s">
         <v>686</v>
       </c>
@@ -25077,7 +25114,7 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="211"/>
+      <c r="A23" s="213"/>
       <c r="B23" s="104" t="s">
         <v>687</v>
       </c>
@@ -25143,7 +25180,7 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="211"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="104" t="s">
         <v>688</v>
       </c>
@@ -25209,7 +25246,7 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="211"/>
+      <c r="A25" s="213"/>
       <c r="B25" s="104" t="s">
         <v>689</v>
       </c>
@@ -25275,7 +25312,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A26" s="211"/>
+      <c r="A26" s="213"/>
       <c r="B26" s="104" t="s">
         <v>690</v>
       </c>
@@ -25341,7 +25378,7 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="211"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="101" t="s">
         <v>691</v>
       </c>
@@ -25407,7 +25444,7 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="211"/>
+      <c r="A28" s="213"/>
       <c r="B28" s="101" t="s">
         <v>692</v>
       </c>
@@ -25473,7 +25510,7 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="211"/>
+      <c r="A29" s="213"/>
       <c r="B29" s="101" t="s">
         <v>693</v>
       </c>
@@ -25539,7 +25576,7 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="211"/>
+      <c r="A30" s="213"/>
       <c r="B30" s="101" t="s">
         <v>694</v>
       </c>
@@ -25605,7 +25642,7 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="211"/>
+      <c r="A31" s="213"/>
       <c r="B31" s="101" t="s">
         <v>695</v>
       </c>
@@ -25671,10 +25708,10 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A32" s="211" t="s">
+      <c r="A32" s="213" t="s">
         <v>698</v>
       </c>
-      <c r="B32" s="211"/>
+      <c r="B32" s="213"/>
       <c r="C32" s="106">
         <v>914749271</v>
       </c>
@@ -25737,7 +25774,7 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="211" t="s">
+      <c r="A33" s="213" t="s">
         <v>699</v>
       </c>
       <c r="B33" s="104" t="s">
@@ -25805,7 +25842,7 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="211"/>
+      <c r="A34" s="213"/>
       <c r="B34" s="104" t="s">
         <v>685</v>
       </c>
@@ -25871,7 +25908,7 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="211"/>
+      <c r="A35" s="213"/>
       <c r="B35" s="104" t="s">
         <v>686</v>
       </c>
@@ -25937,7 +25974,7 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="211"/>
+      <c r="A36" s="213"/>
       <c r="B36" s="104" t="s">
         <v>687</v>
       </c>
@@ -26003,7 +26040,7 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="211"/>
+      <c r="A37" s="213"/>
       <c r="B37" s="104" t="s">
         <v>688</v>
       </c>
@@ -26069,7 +26106,7 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="211"/>
+      <c r="A38" s="213"/>
       <c r="B38" s="104" t="s">
         <v>689</v>
       </c>
@@ -26135,7 +26172,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A39" s="211"/>
+      <c r="A39" s="213"/>
       <c r="B39" s="104" t="s">
         <v>690</v>
       </c>
@@ -26307,7 +26344,7 @@
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -28028,7 +28065,9 @@
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -28146,128 +28185,128 @@
         <v>1</v>
       </c>
       <c r="C2" s="96">
-        <f>B2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.98688307386916851</v>
+        <f>B2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.0257544634651936</v>
       </c>
       <c r="D2" s="96">
-        <f>C2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.97393820148945875</v>
+        <f>C2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.0521722193187673</v>
       </c>
       <c r="E2" s="96">
-        <f>D2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.96116312604452669</v>
+        <f>D2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.079270350300304</v>
       </c>
       <c r="F2" s="96">
-        <f>E2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.94855562032052154</v>
+        <f>E2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.1070663791061799</v>
       </c>
       <c r="G2" s="96">
-        <f>F2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.93611348631779223</v>
+        <f>F2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.1355782797204141</v>
       </c>
       <c r="H2" s="96">
-        <f>G2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.92383455486768662</v>
+        <f>G2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.1648244890373409</v>
       </c>
       <c r="I2" s="96">
-        <f>H2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.91171668525437755</v>
+        <f>H2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.194823918783616</v>
       </c>
       <c r="J2" s="96">
-        <f>I2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.89975776484164938</v>
+        <f>I2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.2255959677472681</v>
       </c>
       <c r="K2" s="96">
-        <f>J2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.88795570870457941</v>
+        <f>J2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.2571605343217036</v>
       </c>
       <c r="L2" s="96">
-        <f>K2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.87630845926605128</v>
+        <f>K2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.2895380293727752</v>
       </c>
       <c r="M2" s="96">
-        <f>L2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.86481398593803571</v>
+        <f>L2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.322749389437234</v>
       </c>
       <c r="N2" s="96">
-        <f>M2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.85347028476757658</v>
+        <f>M2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.3568160902611024</v>
       </c>
       <c r="O2" s="96">
-        <f>N2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.84227537808742059</v>
+        <f>N2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.3917601606867187</v>
       </c>
       <c r="P2" s="96">
-        <f>O2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.83122731417122975</v>
+        <f>O2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.4276041968974369</v>
       </c>
       <c r="Q2" s="96">
-        <f>P2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.82032416689331622</v>
+        <f>P2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.4643713770291891</v>
       </c>
       <c r="R2" s="96">
-        <f>Q2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.80956403539284072</v>
+        <f>Q2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.5020854761583626</v>
       </c>
       <c r="S2" s="96">
-        <f>R2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.79894504374241493</v>
+        <f>R2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.5407708816756811</v>
       </c>
       <c r="T2" s="96">
-        <f>S2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.78846534062105178</v>
+        <f>S2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.5804526090560316</v>
       </c>
       <c r="U2" s="96">
-        <f>T2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.77812309899140453</v>
+        <f>T2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.6211563180344351</v>
       </c>
       <c r="V2" s="96">
-        <f>U2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.76791651578124065</v>
+        <f>U2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.6629083291986206</v>
       </c>
       <c r="W2" s="96">
-        <f>V2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.75784381156909264</v>
+        <f>V2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.7057356410089326</v>
       </c>
       <c r="X2" s="96">
-        <f>W2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.74790323027403305</v>
+        <f>W2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.7496659472565759</v>
       </c>
       <c r="Y2" s="96">
-        <f>X2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.73809303884951827</v>
+        <f>X2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.7947276549714888</v>
       </c>
       <c r="Z2" s="96">
-        <f>Y2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.72841152698124823</v>
+        <f>Y2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.8409499027914247</v>
       </c>
       <c r="AA2" s="96">
-        <f>Z2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.71885700678898901</v>
+        <f>Z2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.8883625798041181</v>
       </c>
       <c r="AB2" s="96">
-        <f>AA2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.70942781253230724</v>
+        <f>AA2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.9369963448747221</v>
       </c>
       <c r="AC2" s="96">
-        <f>AB2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.70012230032016365</v>
+        <f>AB2*(1+'DV-CAGR'!$N$82)</f>
+        <v>1.9868826464710116</v>
       </c>
       <c r="AD2" s="96">
-        <f>AC2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.69093884782431625</v>
+        <f>AC2*(1+'DV-CAGR'!$N$82)</f>
+        <v>2.0380537429991765</v>
       </c>
       <c r="AE2" s="96">
-        <f>AD2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.68187585399648287</v>
+        <f>AD2*(1+'DV-CAGR'!$N$82)</f>
+        <v>2.0905427236633498</v>
       </c>
       <c r="AF2" s="96">
-        <f>AE2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.67293173878921342</v>
+        <f>AE2*(1+'DV-CAGR'!$N$82)</f>
+        <v>2.1443835298623637</v>
       </c>
       <c r="AG2" s="96">
-        <f>AF2*(1+'DV-CAGR'!$N$72)</f>
-        <v>0.66410494288042332</v>
+        <f>AF2*(1+'DV-CAGR'!$N$82)</f>
+        <v>2.1996109771375667</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="95" customFormat="1">
@@ -28278,128 +28317,128 @@
         <v>1</v>
       </c>
       <c r="C3" s="96">
-        <f>B3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.98368801795707062</v>
+        <f>B3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.95480526999756732</v>
       </c>
       <c r="D3" s="96">
-        <f>C3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.96764211667231004</v>
+        <f>C3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.91165310361512741</v>
       </c>
       <c r="E3" s="96">
-        <f>D3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.95185795584116917</v>
+        <f>D3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.87045118774136199</v>
       </c>
       <c r="F3" s="96">
-        <f>E3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.93633126595806859</v>
+        <f>E3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.8311113813310943</v>
       </c>
       <c r="G3" s="96">
-        <f>F3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.92105784716152728</v>
+        <f>F3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.79354952684988667</v>
       </c>
       <c r="H3" s="96">
-        <f>G3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.90603356809812929</v>
+        <f>G3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.75768527024034782</v>
       </c>
       <c r="I3" s="96">
-        <f>H3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.8912543648050214</v>
+        <f>H3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.72344188902501505</v>
       </c>
       <c r="J3" s="96">
-        <f>I3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.87671623961063949</v>
+        <f>I3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.69074612817807968</v>
       </c>
       <c r="K3" s="96">
-        <f>J3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.86241526005336622</v>
+        <f>J3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.65952804341484561</v>
       </c>
       <c r="L3" s="96">
-        <f>K3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.84834755781782745</v>
+        <f>K3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.62972085156367896</v>
       </c>
       <c r="M3" s="96">
-        <f>L3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.83450932768854003</v>
+        <f>L3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.60126078770035651</v>
       </c>
       <c r="N3" s="96">
-        <f>M3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.82089682652062745</v>
+        <f>M3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.57408696873918885</v>
       </c>
       <c r="O3" s="96">
-        <f>N3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.80750637222732524</v>
+        <f>N3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.54814126318910616</v>
       </c>
       <c r="P3" s="96">
-        <f>O3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.79433434278400206</v>
+        <f>O3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.52336816679608211</v>
       </c>
       <c r="Q3" s="96">
-        <f>P3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.78137717524842731</v>
+        <f>P3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.49971468380586503</v>
       </c>
       <c r="R3" s="96">
-        <f>Q3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.7686313647970201</v>
+        <f>Q3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.47713021359300795</v>
       </c>
       <c r="S3" s="96">
-        <f>R3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.75609346377681885</v>
+        <f>R3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.45556644241366889</v>
       </c>
       <c r="T3" s="96">
-        <f>S3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.74376008077291511</v>
+        <f>S3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.43497724005061433</v>
       </c>
       <c r="U3" s="96">
-        <f>T3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.73162787969109966</v>
+        <f>T3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.41531856112932347</v>
       </c>
       <c r="V3" s="96">
-        <f>U3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.71969357885547192</v>
+        <f>U3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.39654835089408486</v>
       </c>
       <c r="W3" s="96">
-        <f>V3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.70795395012076989</v>
+        <f>V3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.37862645524251676</v>
       </c>
       <c r="X3" s="96">
-        <f>W3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.696405817999179</v>
+        <f>W3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.36151453482605306</v>
       </c>
       <c r="Y3" s="96">
-        <f>X3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.68504605880138481</v>
+        <f>X3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.34517598303263453</v>
       </c>
       <c r="Z3" s="96">
-        <f>Y3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.67387159979163702</v>
+        <f>Y3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.32957584767615034</v>
       </c>
       <c r="AA3" s="96">
-        <f>Z3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.6628794183565957</v>
+        <f>Z3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.31468075622510383</v>
       </c>
       <c r="AB3" s="96">
-        <f>AA3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.65206654118773544</v>
+        <f>AA3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.30045884441054893</v>
       </c>
       <c r="AC3" s="96">
-        <f>AB3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.64143004347708599</v>
+        <f>AB3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.28687968806057124</v>
       </c>
       <c r="AD3" s="96">
-        <f>AC3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.63096704812609239</v>
+        <f>AC3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.27391423801549158</v>
       </c>
       <c r="AE3" s="96">
-        <f>AD3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.62067472496737941</v>
+        <f>AD3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.26153475798455939</v>
       </c>
       <c r="AF3" s="96">
-        <f>AE3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.61055028999921135</v>
+        <f>AE3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.24971476521119565</v>
       </c>
       <c r="AG3" s="96">
-        <f>AF3*(1+'DV-CAGR'!$N$73)</f>
-        <v>0.60059100463243886</v>
+        <f>AF3*(1+'DV-CAGR'!$N$83)</f>
+        <v>0.23842897381985478</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="95" customFormat="1">
@@ -28913,7 +28952,9 @@
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -29032,128 +29073,128 @@
         <v>1</v>
       </c>
       <c r="C2" s="96">
-        <f>B2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.99043546689566553</v>
+        <f>B2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0042610726525127</v>
       </c>
       <c r="D2" s="96">
-        <f>C2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.98096241408483498</v>
+        <f>C2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0085403020451755</v>
       </c>
       <c r="E2" s="96">
-        <f>D2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.97157996660121271</v>
+        <f>D2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0128377655451772</v>
       </c>
       <c r="F2" s="96">
-        <f>E2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.96228725784714719</v>
+        <f>E2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0171535408493739</v>
       </c>
       <c r="G2" s="96">
-        <f>F2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.95308342951358893</v>
+        <f>F2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0214877059856937</v>
       </c>
       <c r="H2" s="96">
-        <f>G2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.94396763150081353</v>
+        <f>G2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0258403393145474</v>
       </c>
       <c r="I2" s="96">
-        <f>H2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.93493902183990385</v>
+        <f>H2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.030211519530245</v>
       </c>
       <c r="J2" s="96">
-        <f>I2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.92599676661498198</v>
+        <f>I2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0346013256624189</v>
       </c>
       <c r="K2" s="96">
-        <f>J2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.91714003988618631</v>
+        <f>J2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0390098370774525</v>
       </c>
       <c r="L2" s="96">
-        <f>K2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.9083680236133842</v>
+        <f>K2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0434371334799151</v>
       </c>
       <c r="M2" s="96">
-        <f>L2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.89967990758061511</v>
+        <f>L2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0478832949140027</v>
       </c>
       <c r="N2" s="96">
-        <f>M2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.89107488932125578</v>
+        <f>M2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0523484017649856</v>
       </c>
       <c r="O2" s="96">
-        <f>N2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.88255217404390141</v>
+        <f>N2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0568325347606617</v>
       </c>
       <c r="P2" s="96">
-        <f>O2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.87411097455895614</v>
+        <f>O2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0613357749728161</v>
       </c>
       <c r="Q2" s="96">
-        <f>P2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.86575051120592494</v>
+        <f>P2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0658582038186861</v>
       </c>
       <c r="R2" s="96">
-        <f>Q2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.85747001178140136</v>
+        <f>Q2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0703999030624343</v>
       </c>
       <c r="S2" s="96">
-        <f>R2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.84926871146774408</v>
+        <f>R2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0749609548166259</v>
       </c>
       <c r="T2" s="96">
-        <f>S2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.84114585276243536</v>
+        <f>S2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0795414415437141</v>
       </c>
       <c r="U2" s="96">
-        <f>T2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.83310068540811544</v>
+        <f>T2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0841414460575303</v>
       </c>
       <c r="V2" s="96">
-        <f>U2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.82513246632328574</v>
+        <f>U2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0887610515247816</v>
       </c>
       <c r="W2" s="96">
-        <f>V2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.81724045953367552</v>
+        <f>V2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.093400341466555</v>
       </c>
       <c r="X2" s="96">
-        <f>W2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.80942393610426422</v>
+        <f>W2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.0980593997598262</v>
       </c>
       <c r="Y2" s="96">
-        <f>X2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.8016821740719543</v>
+        <f>X2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.1027383106389774</v>
       </c>
       <c r="Z2" s="96">
-        <f>Y2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.79401445837888829</v>
+        <f>Y2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.1074371586973193</v>
       </c>
       <c r="AA2" s="96">
-        <f>Z2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.78642008080640324</v>
+        <f>Z2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.1121560288886208</v>
       </c>
       <c r="AB2" s="96">
-        <f>AA2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.77889833990961699</v>
+        <f>AA2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.1168950065286452</v>
       </c>
       <c r="AC2" s="96">
-        <f>AB2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.77144854095264026</v>
+        <f>AB2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.1216541772966924</v>
       </c>
       <c r="AD2" s="96">
-        <f>AC2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.76406999584440816</v>
+        <f>AC2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.126433627237148</v>
       </c>
       <c r="AE2" s="96">
-        <f>AD2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.75676202307512563</v>
+        <f>AD2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.1312334427610389</v>
       </c>
       <c r="AF2" s="96">
-        <f>AE2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.74952394765332042</v>
+        <f>AE2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.1360537106475959</v>
       </c>
       <c r="AG2" s="96">
-        <f>AF2*(1+'DV-CAGR'!$N$74)</f>
-        <v>0.74235510104349878</v>
+        <f>AF2*(1+'DV-CAGR'!$N$84)</f>
+        <v>1.1408945180458219</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="95" customFormat="1">
@@ -29164,128 +29205,128 @@
         <v>1</v>
       </c>
       <c r="C3" s="96">
-        <f>B3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.0097877219504034</v>
+        <f>B3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.0238834681230935</v>
       </c>
       <c r="D3" s="96">
-        <f>C3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.0196712434017854</v>
+        <f>C3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.0483373562957738</v>
       </c>
       <c r="E3" s="96">
-        <f>D3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.0296515020130241</v>
+        <f>D3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.0733752881271121</v>
       </c>
       <c r="F3" s="96">
-        <f>E3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.039729444620543</v>
+        <f>E3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.0990112126052123</v>
       </c>
       <c r="G3" s="96">
-        <f>F3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.0499060273281362</v>
+        <f>F3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.1252594118683912</v>
       </c>
       <c r="H3" s="96">
-        <f>G3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.0601822155976768</v>
+        <f>G3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.1521345091619608</v>
       </c>
       <c r="I3" s="96">
-        <f>H3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.0705589843407095</v>
+        <f>H3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.1796514769850466</v>
       </c>
       <c r="J3" s="96">
-        <f>I3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.0810373180109427</v>
+        <f>I3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.2078256454319791</v>
       </c>
       <c r="K3" s="96">
-        <f>J3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.0916182106976438</v>
+        <f>J3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.2366727107329085</v>
       </c>
       <c r="L3" s="96">
-        <f>K3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.1023026662199493</v>
+        <f>K3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.2662087439983976</v>
       </c>
       <c r="M3" s="96">
-        <f>L3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.1130916982220986</v>
+        <f>L3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.2964502001728655</v>
       </c>
       <c r="N3" s="96">
-        <f>M3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.1239863302695989</v>
+        <f>M3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.3274139272018723</v>
       </c>
       <c r="O3" s="96">
-        <f>N3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.134987595946332</v>
+        <f>N3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.3591171754183486</v>
       </c>
       <c r="P3" s="96">
-        <f>O3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.1460965389526117</v>
+        <f>O3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.3915776071530017</v>
       </c>
       <c r="Q3" s="96">
-        <f>P3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.1573142132041996</v>
+        <f>P3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.4248133065742512</v>
       </c>
       <c r="R3" s="96">
-        <f>Q3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.1686416829322923</v>
+        <f>Q3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.4588427897631768</v>
       </c>
       <c r="S3" s="96">
-        <f>R3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.1800800227844852</v>
+        <f>R3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.4936850150290903</v>
       </c>
       <c r="T3" s="96">
-        <f>S3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.1916303179267256</v>
+        <f>S3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.52935939347148</v>
       </c>
       <c r="U3" s="96">
-        <f>T3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.2032936641462633</v>
+        <f>T3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.5658857997942097</v>
       </c>
       <c r="V3" s="96">
-        <f>U3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.215071167955609</v>
+        <f>U3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.6032845833779994</v>
       </c>
       <c r="W3" s="96">
-        <f>V3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.2269639466975104</v>
+        <f>V3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.6415765796173551</v>
       </c>
       <c r="X3" s="96">
-        <f>W3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.2389731286509553</v>
+        <f>W3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.6807831215282631</v>
       </c>
       <c r="Y3" s="96">
-        <f>X3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.2510998531382123</v>
+        <f>X3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.7209260516331171</v>
       </c>
       <c r="Z3" s="96">
-        <f>Y3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.2633452706329196</v>
+        <f>Y3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.7620277341294979</v>
       </c>
       <c r="AA3" s="96">
-        <f>Z3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.2757105428692317</v>
+        <f>Z3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.8041110673495864</v>
       </c>
       <c r="AB3" s="96">
-        <f>AA3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.2881968429520341</v>
+        <f>AA3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.8471994965171503</v>
       </c>
       <c r="AC3" s="96">
-        <f>AB3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.3008053554682362</v>
+        <f>AB3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.8913170268092121</v>
       </c>
       <c r="AD3" s="96">
-        <f>AC3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.3135372765991551</v>
+        <f>AC3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.9364882367296739</v>
       </c>
       <c r="AE3" s="96">
-        <f>AD3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.3263938142339977</v>
+        <f>AD3*(1+'DV-CAGR'!$N$85)</f>
+        <v>1.9827382918023526</v>
       </c>
       <c r="AF3" s="96">
-        <f>AE3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.3393761880844552</v>
+        <f>AE3*(1+'DV-CAGR'!$N$85)</f>
+        <v>2.0300929585910508</v>
       </c>
       <c r="AG3" s="96">
-        <f>AF3*(1+'DV-CAGR'!$N$75)</f>
-        <v>1.3524856298004171</v>
+        <f>AF3*(1+'DV-CAGR'!$N$85)</f>
+        <v>2.0785786190544768</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="95" customFormat="1">
@@ -29840,40 +29881,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="187" t="s">
+      <c r="D2" s="180" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="179"/>
+      <c r="G2" s="183"/>
     </row>
     <row r="3" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A3" s="188"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
       <c r="E3" s="36" t="s">
         <v>11</v>
       </c>
@@ -29888,7 +29929,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickTop="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="187" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -29907,10 +29948,10 @@
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="184" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -29926,13 +29967,13 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="185" t="s">
+      <c r="C6" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -29945,13 +29986,13 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="185" t="s">
+      <c r="C7" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -29970,13 +30011,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -29992,13 +30033,13 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="185" t="s">
+      <c r="C9" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -30014,13 +30055,13 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="184" t="s">
+      <c r="A10" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="185" t="s">
+      <c r="C10" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -30036,13 +30077,13 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="184" t="s">
+      <c r="A11" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="189" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -30055,13 +30096,13 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="184" t="s">
+      <c r="A12" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="185" t="s">
+      <c r="C12" s="189" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -30080,13 +30121,13 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="185" t="s">
+      <c r="C13" s="189" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -30102,10 +30143,10 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="184" t="s">
+      <c r="A14" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="184" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -30127,10 +30168,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="184" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -30146,13 +30187,13 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="184" t="s">
+      <c r="A16" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="180" t="s">
+      <c r="B16" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -30165,13 +30206,13 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="184" t="s">
+      <c r="A17" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -30190,13 +30231,13 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="184" t="s">
+      <c r="A18" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="185" t="s">
+      <c r="C18" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -30212,13 +30253,13 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="184" t="s">
+      <c r="A19" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="185" t="s">
+      <c r="C19" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -30234,10 +30275,10 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A20" s="184" t="s">
+      <c r="A20" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="185" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -30259,10 +30300,10 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="184" t="s">
+      <c r="A21" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="190" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -30278,13 +30319,13 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="184" t="s">
+      <c r="A22" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="180" t="s">
+      <c r="B22" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="185" t="s">
+      <c r="C22" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -30297,13 +30338,13 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="184" t="s">
+      <c r="A23" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="185" t="s">
+      <c r="C23" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -30322,13 +30363,13 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="184" t="s">
+      <c r="A24" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="185" t="s">
+      <c r="C24" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -30344,13 +30385,13 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="180" t="s">
+      <c r="B25" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="189" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -30366,13 +30407,13 @@
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="180" t="s">
+      <c r="B26" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="185" t="s">
+      <c r="C26" s="189" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -30385,13 +30426,13 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="180" t="s">
+      <c r="B27" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="185" t="s">
+      <c r="C27" s="189" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -30410,13 +30451,13 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="184" t="s">
+      <c r="A28" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="180" t="s">
+      <c r="B28" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="185" t="s">
+      <c r="C28" s="189" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -30432,13 +30473,13 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="184" t="s">
+      <c r="A29" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="189" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -30454,13 +30495,13 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="184" t="s">
+      <c r="A30" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="180" t="s">
+      <c r="B30" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="185" t="s">
+      <c r="C30" s="189" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -30473,13 +30514,13 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="184" t="s">
+      <c r="A31" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="180" t="s">
+      <c r="B31" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="185" t="s">
+      <c r="C31" s="189" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -30501,13 +30542,13 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="180" t="s">
+      <c r="B32" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="185" t="s">
+      <c r="C32" s="189" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -30523,10 +30564,10 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="184" t="s">
+      <c r="A33" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="184" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -30548,10 +30589,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="184" t="s">
+      <c r="A34" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -30567,10 +30608,10 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="184" t="s">
+      <c r="A35" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -30592,10 +30633,10 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="184" t="s">
+      <c r="A36" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="180" t="s">
+      <c r="B36" s="184" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -30617,10 +30658,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A37" s="184" t="s">
+      <c r="A37" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="185" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -30651,6 +30692,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B34:B37"/>
@@ -30666,8 +30709,6 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30677,10 +30718,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691AF6E-6FF3-4258-B536-2AC6D3469E02}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -30689,22 +30730,24 @@
     <col min="2" max="2" width="5.85546875" style="99" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="99" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="99" customWidth="1"/>
-    <col min="5" max="13" width="9" style="99" customWidth="1"/>
+    <col min="5" max="5" width="9" style="99" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="99" customWidth="1"/>
+    <col min="7" max="13" width="9" style="99" customWidth="1"/>
     <col min="14" max="15" width="9.85546875" style="99" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="195" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="195" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="116" t="s">
@@ -30736,16 +30779,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="196" t="s">
         <v>716</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="196" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="116" t="s">
@@ -30775,21 +30818,21 @@
       <c r="M2" s="171" t="s">
         <v>717</v>
       </c>
-      <c r="N2" s="192" t="s">
+      <c r="N2" s="197" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="196" t="s">
         <v>716</v>
       </c>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="191" t="s">
+      <c r="C3" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="191" t="s">
+      <c r="D3" s="196" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="116" t="s">
@@ -30819,7 +30862,7 @@
       <c r="M3" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="192"/>
+      <c r="N3" s="197"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="120" t="s">
@@ -32424,10 +32467,10 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="100" customFormat="1">
-      <c r="C40" s="197" t="s">
+      <c r="C40" s="199" t="s">
         <v>781</v>
       </c>
-      <c r="D40" s="197"/>
+      <c r="D40" s="199"/>
       <c r="E40" s="113">
         <f>E23</f>
         <v>43.7</v>
@@ -32470,8 +32513,8 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="100" customFormat="1">
-      <c r="C41" s="197"/>
-      <c r="D41" s="197"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="199"/>
       <c r="E41" s="113">
         <f>E24</f>
         <v>53.3</v>
@@ -32514,8 +32557,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="100" customFormat="1">
-      <c r="C42" s="197"/>
-      <c r="D42" s="197"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
       <c r="E42" s="113">
         <f>E27</f>
         <v>19.899999999999999</v>
@@ -32558,8 +32601,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" s="100" customFormat="1">
-      <c r="C43" s="197"/>
-      <c r="D43" s="197"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
       <c r="E43" s="113">
         <f>E28</f>
         <v>20.399999999999999</v>
@@ -32602,8 +32645,8 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="100" customFormat="1">
-      <c r="C44" s="197"/>
-      <c r="D44" s="197"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="199"/>
       <c r="E44" s="113">
         <f>E31</f>
         <v>39.299999999999997</v>
@@ -32646,8 +32689,8 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="C45" s="197"/>
-      <c r="D45" s="197"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="199"/>
       <c r="E45" s="113">
         <f>E32</f>
         <v>41.1</v>
@@ -32690,8 +32733,8 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="C46" s="197"/>
-      <c r="D46" s="197"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="199"/>
       <c r="E46" s="113">
         <f>E36</f>
         <v>60</v>
@@ -32738,10 +32781,10 @@
       <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="C48" s="197" t="s">
+      <c r="C48" s="199" t="s">
         <v>782</v>
       </c>
-      <c r="D48" s="197"/>
+      <c r="D48" s="199"/>
       <c r="E48" s="113">
         <f t="shared" ref="E48:N48" si="14">E25</f>
         <v>130.9</v>
@@ -32784,8 +32827,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="100" customFormat="1">
-      <c r="C49" s="197"/>
-      <c r="D49" s="197"/>
+      <c r="C49" s="199"/>
+      <c r="D49" s="199"/>
       <c r="E49" s="113">
         <f t="shared" ref="E49:N49" si="15">E29</f>
         <v>21.5</v>
@@ -32828,8 +32871,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="100" customFormat="1">
-      <c r="C50" s="197"/>
-      <c r="D50" s="197"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="199"/>
       <c r="E50" s="113">
         <f t="shared" ref="E50:N50" si="16">E33</f>
         <v>56.7</v>
@@ -32872,8 +32915,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="100" customFormat="1">
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="199"/>
       <c r="E51" s="113">
         <f t="shared" ref="E51:N51" si="17">E35</f>
         <v>215.1</v>
@@ -32916,8 +32959,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="100" customFormat="1">
-      <c r="C52" s="197"/>
-      <c r="D52" s="197"/>
+      <c r="C52" s="199"/>
+      <c r="D52" s="199"/>
       <c r="E52" s="113">
         <f t="shared" ref="E52:N52" si="18">E37</f>
         <v>28.7</v>
@@ -33006,7 +33049,7 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="196" t="s">
+      <c r="A60" s="198" t="s">
         <v>783</v>
       </c>
       <c r="B60" s="132" t="s">
@@ -33058,7 +33101,7 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="196"/>
+      <c r="A61" s="198"/>
       <c r="B61" s="135" t="s">
         <v>725</v>
       </c>
@@ -33108,7 +33151,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A62" s="196"/>
+      <c r="A62" s="198"/>
       <c r="B62" s="138" t="s">
         <v>726</v>
       </c>
@@ -33158,7 +33201,7 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="196" t="s">
+      <c r="A63" s="198" t="s">
         <v>784</v>
       </c>
       <c r="B63" s="132" t="s">
@@ -33210,7 +33253,7 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="196"/>
+      <c r="A64" s="198"/>
       <c r="B64" s="135" t="s">
         <v>725</v>
       </c>
@@ -33259,8 +33302,8 @@
         <v>1426815</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="196"/>
+    <row r="65" spans="1:15">
+      <c r="A65" s="198"/>
       <c r="B65" s="135" t="s">
         <v>725</v>
       </c>
@@ -33309,8 +33352,8 @@
         <v>1121099</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="196"/>
+    <row r="66" spans="1:15">
+      <c r="A66" s="198"/>
       <c r="B66" s="135" t="s">
         <v>726</v>
       </c>
@@ -33359,8 +33402,8 @@
         <v>128549</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A67" s="196"/>
+    <row r="67" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A67" s="198"/>
       <c r="B67" s="138" t="s">
         <v>726</v>
       </c>
@@ -33409,9 +33452,9 @@
         <v>34815</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="72" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B72" s="193" t="s">
+    <row r="71" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="72" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B72" s="194" t="s">
         <v>778</v>
       </c>
       <c r="C72" s="133" t="s">
@@ -33459,8 +33502,8 @@
         <v>-1.3116926130831486E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B73" s="194"/>
+    <row r="73" spans="1:15" s="100" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B73" s="193"/>
       <c r="C73" s="139" t="s">
         <v>729</v>
       </c>
@@ -33506,8 +33549,8 @@
         <v>-1.6311982042929385E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B74" s="195" t="s">
+    <row r="74" spans="1:15" s="100" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B74" s="192" t="s">
         <v>779</v>
       </c>
       <c r="C74" s="70" t="s">
@@ -33555,8 +33598,8 @@
         <v>-9.5645331043344717E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B75" s="194"/>
+    <row r="75" spans="1:15" s="100" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B75" s="193"/>
       <c r="C75" s="139" t="s">
         <v>729</v>
       </c>
@@ -33602,13 +33645,379 @@
         <v>9.7877219504034496E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="100" customFormat="1"/>
-    <row r="77" spans="1:14">
-      <c r="B77" s="48"/>
+    <row r="76" spans="1:15" s="100" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="77" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B77" s="194" t="s">
+        <v>778</v>
+      </c>
+      <c r="C77" s="133" t="s">
+        <v>728</v>
+      </c>
+      <c r="D77" s="133"/>
+      <c r="E77" s="178">
+        <v>1458</v>
+      </c>
+      <c r="F77" s="178">
+        <v>1508</v>
+      </c>
+      <c r="G77" s="178">
+        <v>1575</v>
+      </c>
+      <c r="H77" s="178">
+        <v>1656</v>
+      </c>
+      <c r="I77" s="178">
+        <v>1734</v>
+      </c>
+      <c r="J77" s="178">
+        <v>1804</v>
+      </c>
+      <c r="K77" s="178">
+        <v>1868</v>
+      </c>
+      <c r="L77" s="178">
+        <v>1918</v>
+      </c>
+      <c r="M77" s="178">
+        <v>1986</v>
+      </c>
+      <c r="N77" s="175">
+        <f>(M77/E77)^(1/8)-1</f>
+        <v>3.938803960192172E-2</v>
+      </c>
+      <c r="O77" s="48"/>
+    </row>
+    <row r="78" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B78" s="193"/>
+      <c r="C78" s="139" t="s">
+        <v>729</v>
+      </c>
+      <c r="D78" s="133"/>
+      <c r="E78" s="179">
+        <v>99</v>
+      </c>
+      <c r="F78" s="179">
+        <v>97</v>
+      </c>
+      <c r="G78" s="179">
+        <v>95</v>
+      </c>
+      <c r="H78" s="179">
+        <v>92</v>
+      </c>
+      <c r="I78" s="179">
+        <v>89</v>
+      </c>
+      <c r="J78" s="179">
+        <v>87</v>
+      </c>
+      <c r="K78" s="179">
+        <v>84</v>
+      </c>
+      <c r="L78" s="179">
+        <v>81</v>
+      </c>
+      <c r="M78" s="179">
+        <v>78</v>
+      </c>
+      <c r="N78" s="175">
+        <f t="shared" ref="N78" si="39">(M78/E78)^(1/8)-1</f>
+        <v>-2.9361695407744359E-2</v>
+      </c>
+      <c r="O78" s="48"/>
+    </row>
+    <row r="79" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B79" s="192" t="s">
+        <v>779</v>
+      </c>
+      <c r="C79" s="70" t="s">
+        <v>728</v>
+      </c>
+      <c r="D79" s="133"/>
+      <c r="E79" s="179">
+        <v>324</v>
+      </c>
+      <c r="F79" s="179">
+        <v>329</v>
+      </c>
+      <c r="G79" s="179">
+        <v>335</v>
+      </c>
+      <c r="H79" s="179">
+        <v>343</v>
+      </c>
+      <c r="I79" s="179">
+        <v>349</v>
+      </c>
+      <c r="J79" s="179">
+        <v>354</v>
+      </c>
+      <c r="K79" s="179">
+        <v>359</v>
+      </c>
+      <c r="L79" s="179">
+        <v>359</v>
+      </c>
+      <c r="M79" s="179">
+        <v>362</v>
+      </c>
+      <c r="N79" s="175">
+        <f>(M79/E79)^(1/8)-1</f>
+        <v>1.3959118205026488E-2</v>
+      </c>
+      <c r="O79" s="48"/>
+    </row>
+    <row r="80" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B80" s="193"/>
+      <c r="C80" s="139" t="s">
+        <v>729</v>
+      </c>
+      <c r="D80" s="133"/>
+      <c r="E80" s="179">
+        <v>324</v>
+      </c>
+      <c r="F80" s="179">
+        <v>329</v>
+      </c>
+      <c r="G80" s="179">
+        <v>335</v>
+      </c>
+      <c r="H80" s="179">
+        <v>343</v>
+      </c>
+      <c r="I80" s="179">
+        <v>349</v>
+      </c>
+      <c r="J80" s="179">
+        <v>354</v>
+      </c>
+      <c r="K80" s="179">
+        <v>359</v>
+      </c>
+      <c r="L80" s="179">
+        <v>359</v>
+      </c>
+      <c r="M80" s="179">
+        <v>362</v>
+      </c>
+      <c r="N80" s="176">
+        <f t="shared" ref="N80" si="40">(M80/E80)^(1/8)-1</f>
+        <v>1.3959118205026488E-2</v>
+      </c>
+      <c r="O80" s="48"/>
+    </row>
+    <row r="81" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="48"/>
+    </row>
+    <row r="82" spans="2:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B82" s="194" t="s">
+        <v>778</v>
+      </c>
+      <c r="C82" s="133" t="s">
+        <v>728</v>
+      </c>
+      <c r="D82" s="133"/>
+      <c r="E82" s="178">
+        <f>E72*E77</f>
+        <v>53286.743829686049</v>
+      </c>
+      <c r="F82" s="178">
+        <f t="shared" ref="F82:M82" si="41">F72*F77</f>
+        <v>52408.297290092356</v>
+      </c>
+      <c r="G82" s="178">
+        <f t="shared" si="41"/>
+        <v>55779.60766362938</v>
+      </c>
+      <c r="H82" s="178">
+        <f t="shared" si="41"/>
+        <v>57658.549995792979</v>
+      </c>
+      <c r="I82" s="178">
+        <f t="shared" si="41"/>
+        <v>60311.248652454895</v>
+      </c>
+      <c r="J82" s="178">
+        <f t="shared" si="41"/>
+        <v>61812.710884716653</v>
+      </c>
+      <c r="K82" s="178">
+        <f t="shared" si="41"/>
+        <v>63867.772731273457</v>
+      </c>
+      <c r="L82" s="178">
+        <f t="shared" si="41"/>
+        <v>64309.137872188789</v>
+      </c>
+      <c r="M82" s="178">
+        <f t="shared" si="41"/>
+        <v>65308.018372044789</v>
+      </c>
+      <c r="N82" s="175">
+        <f>(M82/E82)^(1/8)-1</f>
+        <v>2.5754463465193611E-2</v>
+      </c>
+      <c r="O82" s="48"/>
+    </row>
+    <row r="83" spans="2:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B83" s="193"/>
+      <c r="C83" s="139" t="s">
+        <v>729</v>
+      </c>
+      <c r="D83" s="133"/>
+      <c r="E83" s="178">
+        <f t="shared" ref="E83:M83" si="42">E73*E78</f>
+        <v>4497.4396025194164</v>
+      </c>
+      <c r="F83" s="178">
+        <f t="shared" si="42"/>
+        <v>4208.3430257656883</v>
+      </c>
+      <c r="G83" s="178">
+        <f t="shared" si="42"/>
+        <v>4097.116103207748</v>
+      </c>
+      <c r="H83" s="178">
+        <f t="shared" si="42"/>
+        <v>3888.4070348595542</v>
+      </c>
+      <c r="I83" s="178">
+        <f t="shared" si="42"/>
+        <v>3769.7024799580599</v>
+      </c>
+      <c r="J83" s="178">
+        <f t="shared" si="42"/>
+        <v>3643.2113196980699</v>
+      </c>
+      <c r="K83" s="178">
+        <f t="shared" si="42"/>
+        <v>3497.9493076202889</v>
+      </c>
+      <c r="L83" s="178">
+        <f t="shared" si="42"/>
+        <v>3276.6076353792082</v>
+      </c>
+      <c r="M83" s="178">
+        <f t="shared" si="42"/>
+        <v>3106.588992155047</v>
+      </c>
+      <c r="N83" s="175">
+        <f t="shared" ref="N83" si="43">(M83/E83)^(1/8)-1</f>
+        <v>-4.5194730002432681E-2</v>
+      </c>
+      <c r="O83" s="48"/>
+    </row>
+    <row r="84" spans="2:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B84" s="192" t="s">
+        <v>779</v>
+      </c>
+      <c r="C84" s="70" t="s">
+        <v>728</v>
+      </c>
+      <c r="D84" s="133"/>
+      <c r="E84" s="178">
+        <f t="shared" ref="E84:M84" si="44">E74*E79</f>
+        <v>14176.873480961749</v>
+      </c>
+      <c r="F84" s="178">
+        <f t="shared" si="44"/>
+        <v>14298.968917874234</v>
+      </c>
+      <c r="G84" s="178">
+        <f t="shared" si="44"/>
+        <v>14480.549757733557</v>
+      </c>
+      <c r="H84" s="178">
+        <f t="shared" si="44"/>
+        <v>15005.30291161387</v>
+      </c>
+      <c r="I84" s="178">
+        <f t="shared" si="44"/>
+        <v>15115.408033898173</v>
+      </c>
+      <c r="J84" s="178">
+        <f t="shared" si="44"/>
+        <v>15448.667900609029</v>
+      </c>
+      <c r="K84" s="178">
+        <f t="shared" si="44"/>
+        <v>15347.886968245761</v>
+      </c>
+      <c r="L84" s="178">
+        <f t="shared" si="44"/>
+        <v>14514.795849424441</v>
+      </c>
+      <c r="M84" s="178">
+        <f t="shared" si="44"/>
+        <v>14667.412097151402</v>
+      </c>
+      <c r="N84" s="175">
+        <f>(M84/E84)^(1/8)-1</f>
+        <v>4.2610726525127429E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B85" s="193"/>
+      <c r="C85" s="139" t="s">
+        <v>729</v>
+      </c>
+      <c r="D85" s="133"/>
+      <c r="E85" s="178">
+        <f t="shared" ref="E85:M85" si="45">E75*E80</f>
+        <v>24788.778793767851</v>
+      </c>
+      <c r="F85" s="178">
+        <f t="shared" si="45"/>
+        <v>25272.117646957464</v>
+      </c>
+      <c r="G85" s="178">
+        <f t="shared" si="45"/>
+        <v>25666.975432524672</v>
+      </c>
+      <c r="H85" s="178">
+        <f t="shared" si="45"/>
+        <v>26375.716124613384</v>
+      </c>
+      <c r="I85" s="178">
+        <f t="shared" si="45"/>
+        <v>27278.881969656504</v>
+      </c>
+      <c r="J85" s="178">
+        <f t="shared" si="45"/>
+        <v>28253.60517048063</v>
+      </c>
+      <c r="K85" s="178">
+        <f t="shared" si="45"/>
+        <v>27613.033618093359</v>
+      </c>
+      <c r="L85" s="178">
+        <f t="shared" si="45"/>
+        <v>30042.746371001984</v>
+      </c>
+      <c r="M85" s="178">
+        <f t="shared" si="45"/>
+        <v>29940.522746053222</v>
+      </c>
+      <c r="N85" s="176">
+        <f t="shared" ref="N85" si="46">(M85/E85)^(1/8)-1</f>
+        <v>2.3883468123093499E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D1:D3"/>
+  <mergeCells count="15">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="B74:B75"/>
@@ -33619,6 +34028,11 @@
     <mergeCell ref="A63:A67"/>
     <mergeCell ref="C40:D46"/>
     <mergeCell ref="C48:D52"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33639,29 +34053,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="85" t="s">
@@ -34574,28 +34988,28 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="200" t="s">
+      <c r="A18" s="202" t="s">
         <v>419</v>
       </c>
-      <c r="B18" s="199"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
-      <c r="O18" s="199"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="199"/>
-      <c r="S18" s="199"/>
-      <c r="T18" s="199"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="201"/>
+      <c r="T18" s="201"/>
       <c r="U18" s="87">
         <v>44452.597080150474</v>
       </c>
@@ -34624,29 +35038,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="85" t="s">
@@ -35559,28 +35973,28 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="200" t="s">
+      <c r="A18" s="202" t="s">
         <v>419</v>
       </c>
-      <c r="B18" s="199"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
-      <c r="O18" s="199"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="199"/>
-      <c r="S18" s="199"/>
-      <c r="T18" s="199"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="201"/>
+      <c r="T18" s="201"/>
       <c r="U18" s="87">
         <v>44452.596946840291</v>
       </c>
@@ -35609,29 +36023,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="85" t="s">
@@ -36219,28 +36633,28 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="202" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="199"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="199"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="199"/>
-      <c r="N13" s="199"/>
-      <c r="O13" s="199"/>
-      <c r="P13" s="199"/>
-      <c r="Q13" s="199"/>
-      <c r="R13" s="199"/>
-      <c r="S13" s="199"/>
-      <c r="T13" s="199"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201"/>
+      <c r="P13" s="201"/>
+      <c r="Q13" s="201"/>
+      <c r="R13" s="201"/>
+      <c r="S13" s="201"/>
+      <c r="T13" s="201"/>
       <c r="U13" s="87">
         <v>44452.596521967585</v>
       </c>
@@ -36269,19 +36683,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="200" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="85" t="s">
@@ -36809,18 +37223,18 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="202" t="s">
         <v>419</v>
       </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="199"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
       <c r="K19" s="87">
         <v>44452.580671828706</v>
       </c>
@@ -36854,19 +37268,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="200" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="85" t="s">
@@ -37394,18 +37808,18 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="202" t="s">
         <v>419</v>
       </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="199"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
       <c r="K19" s="87">
         <v>44452.580602870381</v>
       </c>

--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104BA830-36E9-4245-8929-7BFB63D69566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB811A48-BEBB-4BF4-87BF-9DE5808B3A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="797">
   <si>
     <t>Source:</t>
   </si>
@@ -2792,6 +2792,24 @@
   <si>
     <t>증가율은 2020-&gt;2021 물량증가율인 약4.6%를 사용했으며, 2019년의 물량에 도달한 이후 기존 CAGR인 0.6%를 이용하여 2050년까지 데이터를 추정했다.</t>
     <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAGR</t>
+  </si>
+  <si>
+    <t>Average Annual Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on some basic curve fitting, we determined that extrapolating </t>
+  </si>
+  <si>
+    <t>passenger LDV, freight LDV, and freight HDV growth with a linear trend</t>
+  </si>
+  <si>
+    <t>was most fitting. However, for passenger HDVs we determined that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an exponential trend was most fitting. </t>
   </si>
 </sst>
 </file>
@@ -4553,7 +4571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5046,6 +5064,9 @@
     <xf numFmtId="0" fontId="68" fillId="40" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5082,22 +5103,22 @@
     <xf numFmtId="0" fontId="50" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5143,6 +5164,9 @@
     </xf>
     <xf numFmtId="0" fontId="66" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="155">
@@ -5952,9 +5976,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -6323,10 +6349,24 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="161"/>
+      <c r="A82" s="161" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="161"/>
+      <c r="A83" s="161" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="151" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="151" t="s">
+        <v>796</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="42" type="noConversion"/>
@@ -6363,19 +6403,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="201" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="85" t="s">
@@ -6623,18 +6663,18 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
       <c r="K11" s="87">
         <v>44452.580524965277</v>
       </c>
@@ -6878,12 +6918,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="204" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="147"/>
@@ -7048,12 +7088,12 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="203" t="s">
+      <c r="A13" s="204" t="s">
         <v>420</v>
       </c>
-      <c r="B13" s="203"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="147"/>
@@ -7203,13 +7243,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="205" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
     </row>
     <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A2" s="92" t="s">
@@ -9192,13 +9232,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="205" t="s">
         <v>650</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
     </row>
     <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A2" s="92" t="s">
@@ -11538,13 +11578,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="205" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
     </row>
     <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A2" s="92" t="s">
@@ -14447,10 +14487,10 @@
       <c r="A37" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="F37" s="199" t="s">
+      <c r="F37" s="200" t="s">
         <v>670</v>
       </c>
-      <c r="G37" s="199"/>
+      <c r="G37" s="200"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="84" t="s">
@@ -14773,10 +14813,10 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="I53" s="199" t="s">
+      <c r="I53" s="200" t="s">
         <v>731</v>
       </c>
-      <c r="J53" s="199"/>
+      <c r="J53" s="200"/>
     </row>
     <row r="54" spans="1:10">
       <c r="I54" s="48" t="s">
@@ -19793,7 +19833,7 @@
       <c r="FA22" s="73"/>
     </row>
     <row r="23" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="207" t="s">
+      <c r="A23" s="208" t="s">
         <v>198</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -20014,7 +20054,7 @@
       <c r="FA23" s="73"/>
     </row>
     <row r="24" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="208"/>
+      <c r="A24" s="209"/>
       <c r="B24" s="42" t="s">
         <v>197</v>
       </c>
@@ -20233,7 +20273,7 @@
       <c r="FA24" s="73"/>
     </row>
     <row r="25" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="208"/>
+      <c r="A25" s="209"/>
       <c r="B25" s="42" t="s">
         <v>390</v>
       </c>
@@ -20452,7 +20492,7 @@
       <c r="FA25" s="73"/>
     </row>
     <row r="26" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="208"/>
+      <c r="A26" s="209"/>
       <c r="B26" s="42" t="s">
         <v>196</v>
       </c>
@@ -20671,7 +20711,7 @@
       <c r="FA26" s="73"/>
     </row>
     <row r="27" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="209"/>
+      <c r="A27" s="210"/>
       <c r="B27" s="42" t="s">
         <v>195</v>
       </c>
@@ -20890,7 +20930,7 @@
       <c r="FA27" s="73"/>
     </row>
     <row r="28" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="207" t="s">
+      <c r="A28" s="208" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="42" t="s">
@@ -21111,7 +21151,7 @@
       <c r="FA28" s="73"/>
     </row>
     <row r="29" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="208"/>
+      <c r="A29" s="209"/>
       <c r="B29" s="42" t="s">
         <v>196</v>
       </c>
@@ -21330,7 +21370,7 @@
       <c r="FA29" s="73"/>
     </row>
     <row r="30" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="209"/>
+      <c r="A30" s="210"/>
       <c r="B30" s="45" t="s">
         <v>195</v>
       </c>
@@ -21549,7 +21589,7 @@
       <c r="FA30" s="73"/>
     </row>
     <row r="31" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="207" t="s">
         <v>241</v>
       </c>
       <c r="B31" s="45" t="s">
@@ -21781,7 +21821,7 @@
       <c r="FA31" s="73"/>
     </row>
     <row r="32" spans="1:157" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="206"/>
+      <c r="A32" s="207"/>
       <c r="B32" s="45" t="s">
         <v>391</v>
       </c>
@@ -22022,33 +22062,33 @@
       <c r="A34" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="211" t="s">
+      <c r="B34" s="212" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="211"/>
-      <c r="D34" s="211" t="s">
+      <c r="C34" s="212"/>
+      <c r="D34" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211" t="s">
+      <c r="E34" s="212"/>
+      <c r="F34" s="212" t="s">
         <v>241</v>
       </c>
-      <c r="G34" s="211"/>
+      <c r="G34" s="212"/>
       <c r="I34" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="J34" s="212" t="s">
+      <c r="J34" s="213" t="s">
         <v>240</v>
       </c>
-      <c r="K34" s="212"/>
-      <c r="L34" s="210" t="s">
+      <c r="K34" s="213"/>
+      <c r="L34" s="211" t="s">
         <v>237</v>
       </c>
-      <c r="M34" s="210"/>
-      <c r="N34" s="210" t="s">
+      <c r="M34" s="211"/>
+      <c r="N34" s="211" t="s">
         <v>241</v>
       </c>
-      <c r="O34" s="210"/>
+      <c r="O34" s="211"/>
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
       <c r="T34" s="48"/>
@@ -23786,72 +23826,72 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="214" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213" t="s">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213" t="s">
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214" t="s">
         <v>671</v>
       </c>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213" t="s">
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214" t="s">
         <v>672</v>
       </c>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="213"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213" t="s">
+      <c r="A3" s="214"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213" t="s">
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213" t="s">
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214" t="s">
         <v>673</v>
       </c>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213" t="s">
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214" t="s">
         <v>674</v>
       </c>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213" t="s">
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="213"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="213" t="s">
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214" t="s">
         <v>675</v>
       </c>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="101" t="s">
@@ -23922,10 +23962,10 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="213"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="102">
         <v>4080872227.8000002</v>
       </c>
@@ -23988,10 +24028,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="214" t="s">
         <v>682</v>
       </c>
-      <c r="B6" s="213"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="106">
         <v>1655997518</v>
       </c>
@@ -24054,7 +24094,7 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="214" t="s">
         <v>683</v>
       </c>
       <c r="B7" s="104" t="s">
@@ -24122,7 +24162,7 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="213"/>
+      <c r="A8" s="214"/>
       <c r="B8" s="104" t="s">
         <v>685</v>
       </c>
@@ -24188,7 +24228,7 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="213"/>
+      <c r="A9" s="214"/>
       <c r="B9" s="104" t="s">
         <v>686</v>
       </c>
@@ -24254,7 +24294,7 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="213"/>
+      <c r="A10" s="214"/>
       <c r="B10" s="104" t="s">
         <v>687</v>
       </c>
@@ -24320,7 +24360,7 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="213"/>
+      <c r="A11" s="214"/>
       <c r="B11" s="104" t="s">
         <v>688</v>
       </c>
@@ -24386,7 +24426,7 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="213"/>
+      <c r="A12" s="214"/>
       <c r="B12" s="104" t="s">
         <v>689</v>
       </c>
@@ -24452,7 +24492,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A13" s="213"/>
+      <c r="A13" s="214"/>
       <c r="B13" s="104" t="s">
         <v>690</v>
       </c>
@@ -24518,7 +24558,7 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="213"/>
+      <c r="A14" s="214"/>
       <c r="B14" s="101" t="s">
         <v>691</v>
       </c>
@@ -24584,7 +24624,7 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="213"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="101" t="s">
         <v>692</v>
       </c>
@@ -24650,7 +24690,7 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="213"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="101" t="s">
         <v>693</v>
       </c>
@@ -24716,7 +24756,7 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="213"/>
+      <c r="A17" s="214"/>
       <c r="B17" s="101" t="s">
         <v>694</v>
       </c>
@@ -24782,7 +24822,7 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="213"/>
+      <c r="A18" s="214"/>
       <c r="B18" s="101" t="s">
         <v>695</v>
       </c>
@@ -24848,10 +24888,10 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A19" s="213" t="s">
+      <c r="A19" s="214" t="s">
         <v>696</v>
       </c>
-      <c r="B19" s="213"/>
+      <c r="B19" s="214"/>
       <c r="C19" s="106">
         <v>1510125438.8</v>
       </c>
@@ -24914,7 +24954,7 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="213" t="s">
+      <c r="A20" s="214" t="s">
         <v>697</v>
       </c>
       <c r="B20" s="104" t="s">
@@ -24982,7 +25022,7 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="213"/>
+      <c r="A21" s="214"/>
       <c r="B21" s="104" t="s">
         <v>685</v>
       </c>
@@ -25048,7 +25088,7 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="213"/>
+      <c r="A22" s="214"/>
       <c r="B22" s="104" t="s">
         <v>686</v>
       </c>
@@ -25114,7 +25154,7 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="213"/>
+      <c r="A23" s="214"/>
       <c r="B23" s="104" t="s">
         <v>687</v>
       </c>
@@ -25180,7 +25220,7 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="213"/>
+      <c r="A24" s="214"/>
       <c r="B24" s="104" t="s">
         <v>688</v>
       </c>
@@ -25246,7 +25286,7 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="213"/>
+      <c r="A25" s="214"/>
       <c r="B25" s="104" t="s">
         <v>689</v>
       </c>
@@ -25312,7 +25352,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A26" s="213"/>
+      <c r="A26" s="214"/>
       <c r="B26" s="104" t="s">
         <v>690</v>
       </c>
@@ -25378,7 +25418,7 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="213"/>
+      <c r="A27" s="214"/>
       <c r="B27" s="101" t="s">
         <v>691</v>
       </c>
@@ -25444,7 +25484,7 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="213"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="101" t="s">
         <v>692</v>
       </c>
@@ -25510,7 +25550,7 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="213"/>
+      <c r="A29" s="214"/>
       <c r="B29" s="101" t="s">
         <v>693</v>
       </c>
@@ -25576,7 +25616,7 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="213"/>
+      <c r="A30" s="214"/>
       <c r="B30" s="101" t="s">
         <v>694</v>
       </c>
@@ -25642,7 +25682,7 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="213"/>
+      <c r="A31" s="214"/>
       <c r="B31" s="101" t="s">
         <v>695</v>
       </c>
@@ -25708,10 +25748,10 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="214" t="s">
         <v>698</v>
       </c>
-      <c r="B32" s="213"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="106">
         <v>914749271</v>
       </c>
@@ -25774,7 +25814,7 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="213" t="s">
+      <c r="A33" s="214" t="s">
         <v>699</v>
       </c>
       <c r="B33" s="104" t="s">
@@ -25842,7 +25882,7 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="213"/>
+      <c r="A34" s="214"/>
       <c r="B34" s="104" t="s">
         <v>685</v>
       </c>
@@ -25908,7 +25948,7 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="213"/>
+      <c r="A35" s="214"/>
       <c r="B35" s="104" t="s">
         <v>686</v>
       </c>
@@ -25974,7 +26014,7 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="213"/>
+      <c r="A36" s="214"/>
       <c r="B36" s="104" t="s">
         <v>687</v>
       </c>
@@ -26040,7 +26080,7 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="213"/>
+      <c r="A37" s="214"/>
       <c r="B37" s="104" t="s">
         <v>688</v>
       </c>
@@ -26106,7 +26146,7 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="213"/>
+      <c r="A38" s="214"/>
       <c r="B38" s="104" t="s">
         <v>689</v>
       </c>
@@ -26172,7 +26212,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A39" s="213"/>
+      <c r="A39" s="214"/>
       <c r="B39" s="104" t="s">
         <v>690</v>
       </c>
@@ -26312,13 +26352,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:P2"/>
@@ -26329,6 +26362,13 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:V3"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28066,7 +28106,7 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -28185,128 +28225,128 @@
         <v>1</v>
       </c>
       <c r="C2" s="96">
-        <f>B2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.0257544634651936</v>
+        <f>$B$2*'DV-CAGR'!F89/'DV-CAGR'!$E$89</f>
+        <v>1.0233661866340256</v>
       </c>
       <c r="D2" s="96">
-        <f>C2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.0521722193187673</v>
+        <f>$B$2*'DV-CAGR'!G89/'DV-CAGR'!$E$89</f>
+        <v>1.0467323732680509</v>
       </c>
       <c r="E2" s="96">
-        <f>D2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.079270350300304</v>
+        <f>$B$2*'DV-CAGR'!H89/'DV-CAGR'!$E$89</f>
+        <v>1.0700985599020765</v>
       </c>
       <c r="F2" s="96">
-        <f>E2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.1070663791061799</v>
+        <f>$B$2*'DV-CAGR'!I89/'DV-CAGR'!$E$89</f>
+        <v>1.0934647465361018</v>
       </c>
       <c r="G2" s="96">
-        <f>F2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.1355782797204141</v>
+        <f>$B$2*'DV-CAGR'!J89/'DV-CAGR'!$E$89</f>
+        <v>1.1168309331701274</v>
       </c>
       <c r="H2" s="96">
-        <f>G2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.1648244890373409</v>
+        <f>$B$2*'DV-CAGR'!K89/'DV-CAGR'!$E$89</f>
+        <v>1.1401971198041527</v>
       </c>
       <c r="I2" s="96">
-        <f>H2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.194823918783616</v>
+        <f>$B$2*'DV-CAGR'!L89/'DV-CAGR'!$E$89</f>
+        <v>1.1635633064381783</v>
       </c>
       <c r="J2" s="96">
-        <f>I2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.2255959677472681</v>
+        <f>$B$2*'DV-CAGR'!M89/'DV-CAGR'!$E$89</f>
+        <v>1.1869294930722036</v>
       </c>
       <c r="K2" s="96">
-        <f>J2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.2571605343217036</v>
+        <f>$B$2*'DV-CAGR'!N89/'DV-CAGR'!$E$89</f>
+        <v>1.2102956797062292</v>
       </c>
       <c r="L2" s="96">
-        <f>K2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.2895380293727752</v>
+        <f>$B$2*'DV-CAGR'!O89/'DV-CAGR'!$E$89</f>
+        <v>1.2336618663402545</v>
       </c>
       <c r="M2" s="96">
-        <f>L2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.322749389437234</v>
+        <f>$B$2*'DV-CAGR'!P89/'DV-CAGR'!$E$89</f>
+        <v>1.2570280529742801</v>
       </c>
       <c r="N2" s="96">
-        <f>M2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.3568160902611024</v>
+        <f>$B$2*'DV-CAGR'!Q89/'DV-CAGR'!$E$89</f>
+        <v>1.2803942396083055</v>
       </c>
       <c r="O2" s="96">
-        <f>N2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.3917601606867187</v>
+        <f>$B$2*'DV-CAGR'!R89/'DV-CAGR'!$E$89</f>
+        <v>1.303760426242331</v>
       </c>
       <c r="P2" s="96">
-        <f>O2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.4276041968974369</v>
+        <f>$B$2*'DV-CAGR'!S89/'DV-CAGR'!$E$89</f>
+        <v>1.3271266128763564</v>
       </c>
       <c r="Q2" s="96">
-        <f>P2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.4643713770291891</v>
+        <f>$B$2*'DV-CAGR'!T89/'DV-CAGR'!$E$89</f>
+        <v>1.3504927995103819</v>
       </c>
       <c r="R2" s="96">
-        <f>Q2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.5020854761583626</v>
+        <f>$B$2*'DV-CAGR'!U89/'DV-CAGR'!$E$89</f>
+        <v>1.3738589861444073</v>
       </c>
       <c r="S2" s="96">
-        <f>R2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.5407708816756811</v>
+        <f>$B$2*'DV-CAGR'!V89/'DV-CAGR'!$E$89</f>
+        <v>1.3972251727784328</v>
       </c>
       <c r="T2" s="96">
-        <f>S2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.5804526090560316</v>
+        <f>$B$2*'DV-CAGR'!W89/'DV-CAGR'!$E$89</f>
+        <v>1.4205913594124582</v>
       </c>
       <c r="U2" s="96">
-        <f>T2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.6211563180344351</v>
+        <f>$B$2*'DV-CAGR'!X89/'DV-CAGR'!$E$89</f>
+        <v>1.4439575460464837</v>
       </c>
       <c r="V2" s="96">
-        <f>U2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.6629083291986206</v>
+        <f>$B$2*'DV-CAGR'!Y89/'DV-CAGR'!$E$89</f>
+        <v>1.4673237326805091</v>
       </c>
       <c r="W2" s="96">
-        <f>V2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.7057356410089326</v>
+        <f>$B$2*'DV-CAGR'!Z89/'DV-CAGR'!$E$89</f>
+        <v>1.4906899193145347</v>
       </c>
       <c r="X2" s="96">
-        <f>W2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.7496659472565759</v>
+        <f>$B$2*'DV-CAGR'!AA89/'DV-CAGR'!$E$89</f>
+        <v>1.51405610594856</v>
       </c>
       <c r="Y2" s="96">
-        <f>X2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.7947276549714888</v>
+        <f>$B$2*'DV-CAGR'!AB89/'DV-CAGR'!$E$89</f>
+        <v>1.5374222925825856</v>
       </c>
       <c r="Z2" s="96">
-        <f>Y2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.8409499027914247</v>
+        <f>$B$2*'DV-CAGR'!AC89/'DV-CAGR'!$E$89</f>
+        <v>1.5607884792166109</v>
       </c>
       <c r="AA2" s="96">
-        <f>Z2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.8883625798041181</v>
+        <f>$B$2*'DV-CAGR'!AD89/'DV-CAGR'!$E$89</f>
+        <v>1.5841546658506365</v>
       </c>
       <c r="AB2" s="96">
-        <f>AA2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.9369963448747221</v>
+        <f>$B$2*'DV-CAGR'!AE89/'DV-CAGR'!$E$89</f>
+        <v>1.6075208524846618</v>
       </c>
       <c r="AC2" s="96">
-        <f>AB2*(1+'DV-CAGR'!$N$82)</f>
-        <v>1.9868826464710116</v>
+        <f>$B$2*'DV-CAGR'!AF89/'DV-CAGR'!$E$89</f>
+        <v>1.6308870391186874</v>
       </c>
       <c r="AD2" s="96">
-        <f>AC2*(1+'DV-CAGR'!$N$82)</f>
-        <v>2.0380537429991765</v>
+        <f>$B$2*'DV-CAGR'!AG89/'DV-CAGR'!$E$89</f>
+        <v>1.6542532257527127</v>
       </c>
       <c r="AE2" s="96">
-        <f>AD2*(1+'DV-CAGR'!$N$82)</f>
-        <v>2.0905427236633498</v>
+        <f>$B$2*'DV-CAGR'!AH89/'DV-CAGR'!$E$89</f>
+        <v>1.6776194123867383</v>
       </c>
       <c r="AF2" s="96">
-        <f>AE2*(1+'DV-CAGR'!$N$82)</f>
-        <v>2.1443835298623637</v>
+        <f>$B$2*'DV-CAGR'!AI89/'DV-CAGR'!$E$89</f>
+        <v>1.7009855990207636</v>
       </c>
       <c r="AG2" s="96">
-        <f>AF2*(1+'DV-CAGR'!$N$82)</f>
-        <v>2.1996109771375667</v>
+        <f>$B$2*'DV-CAGR'!AJ89/'DV-CAGR'!$E$89</f>
+        <v>1.7243517856547892</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="95" customFormat="1">
@@ -28953,7 +28993,7 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C3" sqref="C3:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -29073,128 +29113,128 @@
         <v>1</v>
       </c>
       <c r="C2" s="96">
-        <f>B2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0042610726525127</v>
+        <f>$B$2*'DV-CAGR'!F91/'DV-CAGR'!$E$91</f>
+        <v>1.0042244705099408</v>
       </c>
       <c r="D2" s="96">
-        <f>C2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0085403020451755</v>
+        <f>$B$2*'DV-CAGR'!G91/'DV-CAGR'!$E$91</f>
+        <v>1.0084489410198818</v>
       </c>
       <c r="E2" s="96">
-        <f>D2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0128377655451772</v>
+        <f>$B$2*'DV-CAGR'!H91/'DV-CAGR'!$E$91</f>
+        <v>1.0126734115298226</v>
       </c>
       <c r="F2" s="96">
-        <f>E2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0171535408493739</v>
+        <f>$B$2*'DV-CAGR'!I91/'DV-CAGR'!$E$91</f>
+        <v>1.0168978820397634</v>
       </c>
       <c r="G2" s="96">
-        <f>F2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0214877059856937</v>
+        <f>$B$2*'DV-CAGR'!J91/'DV-CAGR'!$E$91</f>
+        <v>1.0211223525497044</v>
       </c>
       <c r="H2" s="96">
-        <f>G2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0258403393145474</v>
+        <f>$B$2*'DV-CAGR'!K91/'DV-CAGR'!$E$91</f>
+        <v>1.0253468230596452</v>
       </c>
       <c r="I2" s="96">
-        <f>H2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.030211519530245</v>
+        <f>$B$2*'DV-CAGR'!L91/'DV-CAGR'!$E$91</f>
+        <v>1.0295712935695862</v>
       </c>
       <c r="J2" s="96">
-        <f>I2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0346013256624189</v>
+        <f>$B$2*'DV-CAGR'!M91/'DV-CAGR'!$E$91</f>
+        <v>1.033795764079527</v>
       </c>
       <c r="K2" s="96">
-        <f>J2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0390098370774525</v>
+        <f>$B$2*'DV-CAGR'!N91/'DV-CAGR'!$E$91</f>
+        <v>1.0380202345894678</v>
       </c>
       <c r="L2" s="96">
-        <f>K2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0434371334799151</v>
+        <f>$B$2*'DV-CAGR'!O91/'DV-CAGR'!$E$91</f>
+        <v>1.0422447050994088</v>
       </c>
       <c r="M2" s="96">
-        <f>L2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0478832949140027</v>
+        <f>$B$2*'DV-CAGR'!P91/'DV-CAGR'!$E$91</f>
+        <v>1.0464691756093496</v>
       </c>
       <c r="N2" s="96">
-        <f>M2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0523484017649856</v>
+        <f>$B$2*'DV-CAGR'!Q91/'DV-CAGR'!$E$91</f>
+        <v>1.0506936461192904</v>
       </c>
       <c r="O2" s="96">
-        <f>N2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0568325347606617</v>
+        <f>$B$2*'DV-CAGR'!R91/'DV-CAGR'!$E$91</f>
+        <v>1.0549181166292314</v>
       </c>
       <c r="P2" s="96">
-        <f>O2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0613357749728161</v>
+        <f>$B$2*'DV-CAGR'!S91/'DV-CAGR'!$E$91</f>
+        <v>1.0591425871391722</v>
       </c>
       <c r="Q2" s="96">
-        <f>P2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0658582038186861</v>
+        <f>$B$2*'DV-CAGR'!T91/'DV-CAGR'!$E$91</f>
+        <v>1.063367057649113</v>
       </c>
       <c r="R2" s="96">
-        <f>Q2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0703999030624343</v>
+        <f>$B$2*'DV-CAGR'!U91/'DV-CAGR'!$E$91</f>
+        <v>1.067591528159054</v>
       </c>
       <c r="S2" s="96">
-        <f>R2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0749609548166259</v>
+        <f>$B$2*'DV-CAGR'!V91/'DV-CAGR'!$E$91</f>
+        <v>1.0718159986689948</v>
       </c>
       <c r="T2" s="96">
-        <f>S2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0795414415437141</v>
+        <f>$B$2*'DV-CAGR'!W91/'DV-CAGR'!$E$91</f>
+        <v>1.0760404691789358</v>
       </c>
       <c r="U2" s="96">
-        <f>T2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0841414460575303</v>
+        <f>$B$2*'DV-CAGR'!X91/'DV-CAGR'!$E$91</f>
+        <v>1.0802649396888766</v>
       </c>
       <c r="V2" s="96">
-        <f>U2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0887610515247816</v>
+        <f>$B$2*'DV-CAGR'!Y91/'DV-CAGR'!$E$91</f>
+        <v>1.0844894101988174</v>
       </c>
       <c r="W2" s="96">
-        <f>V2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.093400341466555</v>
+        <f>$B$2*'DV-CAGR'!Z91/'DV-CAGR'!$E$91</f>
+        <v>1.0887138807087584</v>
       </c>
       <c r="X2" s="96">
-        <f>W2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.0980593997598262</v>
+        <f>$B$2*'DV-CAGR'!AA91/'DV-CAGR'!$E$91</f>
+        <v>1.0929383512186992</v>
       </c>
       <c r="Y2" s="96">
-        <f>X2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.1027383106389774</v>
+        <f>$B$2*'DV-CAGR'!AB91/'DV-CAGR'!$E$91</f>
+        <v>1.09716282172864</v>
       </c>
       <c r="Z2" s="96">
-        <f>Y2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.1074371586973193</v>
+        <f>$B$2*'DV-CAGR'!AC91/'DV-CAGR'!$E$91</f>
+        <v>1.101387292238581</v>
       </c>
       <c r="AA2" s="96">
-        <f>Z2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.1121560288886208</v>
+        <f>$B$2*'DV-CAGR'!AD91/'DV-CAGR'!$E$91</f>
+        <v>1.1056117627485218</v>
       </c>
       <c r="AB2" s="96">
-        <f>AA2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.1168950065286452</v>
+        <f>$B$2*'DV-CAGR'!AE91/'DV-CAGR'!$E$91</f>
+        <v>1.1098362332584626</v>
       </c>
       <c r="AC2" s="96">
-        <f>AB2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.1216541772966924</v>
+        <f>$B$2*'DV-CAGR'!AF91/'DV-CAGR'!$E$91</f>
+        <v>1.1140607037684036</v>
       </c>
       <c r="AD2" s="96">
-        <f>AC2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.126433627237148</v>
+        <f>$B$2*'DV-CAGR'!AG91/'DV-CAGR'!$E$91</f>
+        <v>1.1182851742783444</v>
       </c>
       <c r="AE2" s="96">
-        <f>AD2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.1312334427610389</v>
+        <f>$B$2*'DV-CAGR'!AH91/'DV-CAGR'!$E$91</f>
+        <v>1.1225096447882854</v>
       </c>
       <c r="AF2" s="96">
-        <f>AE2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.1360537106475959</v>
+        <f>$B$2*'DV-CAGR'!AI91/'DV-CAGR'!$E$91</f>
+        <v>1.1267341152982262</v>
       </c>
       <c r="AG2" s="96">
-        <f>AF2*(1+'DV-CAGR'!$N$84)</f>
-        <v>1.1408945180458219</v>
+        <f>$B$2*'DV-CAGR'!AJ91/'DV-CAGR'!$E$91</f>
+        <v>1.130958585808167</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="95" customFormat="1">
@@ -29205,128 +29245,128 @@
         <v>1</v>
       </c>
       <c r="C3" s="96">
-        <f>B3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.0238834681230935</v>
+        <f>$B$3*'DV-CAGR'!F92/'DV-CAGR'!$E$92</f>
+        <v>1.021435057437267</v>
       </c>
       <c r="D3" s="96">
-        <f>C3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.0483373562957738</v>
+        <f>$B$3*'DV-CAGR'!G92/'DV-CAGR'!$E$92</f>
+        <v>1.0428701148745341</v>
       </c>
       <c r="E3" s="96">
-        <f>D3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.0733752881271121</v>
+        <f>$B$3*'DV-CAGR'!H92/'DV-CAGR'!$E$92</f>
+        <v>1.0643051723118011</v>
       </c>
       <c r="F3" s="96">
-        <f>E3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.0990112126052123</v>
+        <f>$B$3*'DV-CAGR'!I92/'DV-CAGR'!$E$92</f>
+        <v>1.0857402297490681</v>
       </c>
       <c r="G3" s="96">
-        <f>F3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.1252594118683912</v>
+        <f>$B$3*'DV-CAGR'!J92/'DV-CAGR'!$E$92</f>
+        <v>1.107175287186335</v>
       </c>
       <c r="H3" s="96">
-        <f>G3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.1521345091619608</v>
+        <f>$B$3*'DV-CAGR'!K92/'DV-CAGR'!$E$92</f>
+        <v>1.128610344623602</v>
       </c>
       <c r="I3" s="96">
-        <f>H3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.1796514769850466</v>
+        <f>$B$3*'DV-CAGR'!L92/'DV-CAGR'!$E$92</f>
+        <v>1.150045402060869</v>
       </c>
       <c r="J3" s="96">
-        <f>I3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.2078256454319791</v>
+        <f>$B$3*'DV-CAGR'!M92/'DV-CAGR'!$E$92</f>
+        <v>1.1714804594981361</v>
       </c>
       <c r="K3" s="96">
-        <f>J3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.2366727107329085</v>
+        <f>$B$3*'DV-CAGR'!N92/'DV-CAGR'!$E$92</f>
+        <v>1.1929155169354031</v>
       </c>
       <c r="L3" s="96">
-        <f>K3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.2662087439983976</v>
+        <f>$B$3*'DV-CAGR'!O92/'DV-CAGR'!$E$92</f>
+        <v>1.2143505743726701</v>
       </c>
       <c r="M3" s="96">
-        <f>L3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.2964502001728655</v>
+        <f>$B$3*'DV-CAGR'!P92/'DV-CAGR'!$E$92</f>
+        <v>1.2357856318099372</v>
       </c>
       <c r="N3" s="96">
-        <f>M3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.3274139272018723</v>
+        <f>$B$3*'DV-CAGR'!Q92/'DV-CAGR'!$E$92</f>
+        <v>1.257220689247204</v>
       </c>
       <c r="O3" s="96">
-        <f>N3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.3591171754183486</v>
+        <f>$B$3*'DV-CAGR'!R92/'DV-CAGR'!$E$92</f>
+        <v>1.278655746684471</v>
       </c>
       <c r="P3" s="96">
-        <f>O3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.3915776071530017</v>
+        <f>$B$3*'DV-CAGR'!S92/'DV-CAGR'!$E$92</f>
+        <v>1.3000908041217381</v>
       </c>
       <c r="Q3" s="96">
-        <f>P3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.4248133065742512</v>
+        <f>$B$3*'DV-CAGR'!T92/'DV-CAGR'!$E$92</f>
+        <v>1.3215258615590051</v>
       </c>
       <c r="R3" s="96">
-        <f>Q3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.4588427897631768</v>
+        <f>$B$3*'DV-CAGR'!U92/'DV-CAGR'!$E$92</f>
+        <v>1.3429609189962721</v>
       </c>
       <c r="S3" s="96">
-        <f>R3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.4936850150290903</v>
+        <f>$B$3*'DV-CAGR'!V92/'DV-CAGR'!$E$92</f>
+        <v>1.3643959764335392</v>
       </c>
       <c r="T3" s="96">
-        <f>S3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.52935939347148</v>
+        <f>$B$3*'DV-CAGR'!W92/'DV-CAGR'!$E$92</f>
+        <v>1.3858310338708062</v>
       </c>
       <c r="U3" s="96">
-        <f>T3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.5658857997942097</v>
+        <f>$B$3*'DV-CAGR'!X92/'DV-CAGR'!$E$92</f>
+        <v>1.4072660913080732</v>
       </c>
       <c r="V3" s="96">
-        <f>U3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.6032845833779994</v>
+        <f>$B$3*'DV-CAGR'!Y92/'DV-CAGR'!$E$92</f>
+        <v>1.4287011487453403</v>
       </c>
       <c r="W3" s="96">
-        <f>V3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.6415765796173551</v>
+        <f>$B$3*'DV-CAGR'!Z92/'DV-CAGR'!$E$92</f>
+        <v>1.4501362061826073</v>
       </c>
       <c r="X3" s="96">
-        <f>W3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.6807831215282631</v>
+        <f>$B$3*'DV-CAGR'!AA92/'DV-CAGR'!$E$92</f>
+        <v>1.4715712636198743</v>
       </c>
       <c r="Y3" s="96">
-        <f>X3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.7209260516331171</v>
+        <f>$B$3*'DV-CAGR'!AB92/'DV-CAGR'!$E$92</f>
+        <v>1.4930063210571412</v>
       </c>
       <c r="Z3" s="96">
-        <f>Y3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.7620277341294979</v>
+        <f>$B$3*'DV-CAGR'!AC92/'DV-CAGR'!$E$92</f>
+        <v>1.5144413784944082</v>
       </c>
       <c r="AA3" s="96">
-        <f>Z3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.8041110673495864</v>
+        <f>$B$3*'DV-CAGR'!AD92/'DV-CAGR'!$E$92</f>
+        <v>1.5358764359316752</v>
       </c>
       <c r="AB3" s="96">
-        <f>AA3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.8471994965171503</v>
+        <f>$B$3*'DV-CAGR'!AE92/'DV-CAGR'!$E$92</f>
+        <v>1.5573114933689423</v>
       </c>
       <c r="AC3" s="96">
-        <f>AB3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.8913170268092121</v>
+        <f>$B$3*'DV-CAGR'!AF92/'DV-CAGR'!$E$92</f>
+        <v>1.5787465508062093</v>
       </c>
       <c r="AD3" s="96">
-        <f>AC3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.9364882367296739</v>
+        <f>$B$3*'DV-CAGR'!AG92/'DV-CAGR'!$E$92</f>
+        <v>1.6001816082434763</v>
       </c>
       <c r="AE3" s="96">
-        <f>AD3*(1+'DV-CAGR'!$N$85)</f>
-        <v>1.9827382918023526</v>
+        <f>$B$3*'DV-CAGR'!AH92/'DV-CAGR'!$E$92</f>
+        <v>1.6216166656807434</v>
       </c>
       <c r="AF3" s="96">
-        <f>AE3*(1+'DV-CAGR'!$N$85)</f>
-        <v>2.0300929585910508</v>
+        <f>$B$3*'DV-CAGR'!AI92/'DV-CAGR'!$E$92</f>
+        <v>1.6430517231180104</v>
       </c>
       <c r="AG3" s="96">
-        <f>AF3*(1+'DV-CAGR'!$N$85)</f>
-        <v>2.0785786190544768</v>
+        <f>$B$3*'DV-CAGR'!AJ92/'DV-CAGR'!$E$92</f>
+        <v>1.6644867805552774</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="95" customFormat="1">
@@ -29881,40 +29921,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="181" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="182" t="s">
+      <c r="F2" s="183" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="183"/>
+      <c r="G2" s="184"/>
     </row>
     <row r="3" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A3" s="191"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
+      <c r="A3" s="192"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="36" t="s">
         <v>11</v>
       </c>
@@ -29929,7 +29969,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickTop="1">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="188" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -29948,10 +29988,10 @@
       <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="185" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -29967,13 +30007,13 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="189" t="s">
+      <c r="C6" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -29986,13 +30026,13 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -30011,13 +30051,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="189" t="s">
+      <c r="C8" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -30033,13 +30073,13 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="189" t="s">
+      <c r="C9" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -30055,13 +30095,13 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="189" t="s">
+      <c r="C10" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -30077,13 +30117,13 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="190" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -30096,13 +30136,13 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="184" t="s">
+      <c r="B12" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="189" t="s">
+      <c r="C12" s="190" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -30121,13 +30161,13 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="189" t="s">
+      <c r="C13" s="190" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -30143,10 +30183,10 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="185" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -30168,10 +30208,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="185" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -30187,13 +30227,13 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="188" t="s">
+      <c r="A16" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="189" t="s">
+      <c r="C16" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -30206,13 +30246,13 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="189" t="s">
+      <c r="C17" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -30231,13 +30271,13 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="189" t="s">
+      <c r="C18" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -30253,13 +30293,13 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="188" t="s">
+      <c r="A19" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="189" t="s">
+      <c r="C19" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -30275,10 +30315,10 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A20" s="188" t="s">
+      <c r="A20" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="185" t="s">
+      <c r="B20" s="186" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -30300,10 +30340,10 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="191" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -30319,13 +30359,13 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="188" t="s">
+      <c r="A22" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="189" t="s">
+      <c r="C22" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -30338,13 +30378,13 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="188" t="s">
+      <c r="A23" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="184" t="s">
+      <c r="B23" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="189" t="s">
+      <c r="C23" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -30363,13 +30403,13 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="189" t="s">
+      <c r="C24" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -30385,13 +30425,13 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="184" t="s">
+      <c r="B25" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="189" t="s">
+      <c r="C25" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -30407,13 +30447,13 @@
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="189" t="s">
+      <c r="C26" s="190" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -30426,13 +30466,13 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="184" t="s">
+      <c r="B27" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="189" t="s">
+      <c r="C27" s="190" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -30451,13 +30491,13 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="188" t="s">
+      <c r="A28" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="184" t="s">
+      <c r="B28" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="189" t="s">
+      <c r="C28" s="190" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -30473,13 +30513,13 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="188" t="s">
+      <c r="A29" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="184" t="s">
+      <c r="B29" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="189" t="s">
+      <c r="C29" s="190" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -30495,13 +30535,13 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="184" t="s">
+      <c r="B30" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="189" t="s">
+      <c r="C30" s="190" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -30514,13 +30554,13 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="188" t="s">
+      <c r="A31" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="184" t="s">
+      <c r="B31" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="189" t="s">
+      <c r="C31" s="190" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -30542,13 +30582,13 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="184" t="s">
+      <c r="B32" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="189" t="s">
+      <c r="C32" s="190" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -30564,10 +30604,10 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="188" t="s">
+      <c r="A33" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="184" t="s">
+      <c r="B33" s="185" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -30589,10 +30629,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="188" t="s">
+      <c r="A34" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="184" t="s">
+      <c r="B34" s="185" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -30608,10 +30648,10 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="188" t="s">
+      <c r="A35" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="184" t="s">
+      <c r="B35" s="185" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -30633,10 +30673,10 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="188" t="s">
+      <c r="A36" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="184" t="s">
+      <c r="B36" s="185" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -30658,10 +30698,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="185" t="s">
+      <c r="B37" s="186" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -30692,11 +30732,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:A37"/>
     <mergeCell ref="B5:B14"/>
@@ -30709,6 +30744,11 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B34:B37"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30718,10 +30758,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691AF6E-6FF3-4258-B536-2AC6D3469E02}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:AJ92"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="F89" sqref="F89:AJ92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -30738,16 +30778,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="197" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="195" t="s">
+      <c r="C1" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="195" t="s">
+      <c r="D1" s="197" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="116" t="s">
@@ -30779,16 +30819,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="198" t="s">
         <v>716</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="196" t="s">
+      <c r="D2" s="198" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="116" t="s">
@@ -30818,21 +30858,21 @@
       <c r="M2" s="171" t="s">
         <v>717</v>
       </c>
-      <c r="N2" s="197" t="s">
+      <c r="N2" s="193" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="198" t="s">
         <v>716</v>
       </c>
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="196" t="s">
+      <c r="C3" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="196" t="s">
+      <c r="D3" s="198" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="116" t="s">
@@ -30862,7 +30902,7 @@
       <c r="M3" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="197"/>
+      <c r="N3" s="193"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="120" t="s">
@@ -32467,10 +32507,10 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="100" customFormat="1">
-      <c r="C40" s="199" t="s">
+      <c r="C40" s="200" t="s">
         <v>781</v>
       </c>
-      <c r="D40" s="199"/>
+      <c r="D40" s="200"/>
       <c r="E40" s="113">
         <f>E23</f>
         <v>43.7</v>
@@ -32513,8 +32553,8 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="100" customFormat="1">
-      <c r="C41" s="199"/>
-      <c r="D41" s="199"/>
+      <c r="C41" s="200"/>
+      <c r="D41" s="200"/>
       <c r="E41" s="113">
         <f>E24</f>
         <v>53.3</v>
@@ -32557,8 +32597,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="100" customFormat="1">
-      <c r="C42" s="199"/>
-      <c r="D42" s="199"/>
+      <c r="C42" s="200"/>
+      <c r="D42" s="200"/>
       <c r="E42" s="113">
         <f>E27</f>
         <v>19.899999999999999</v>
@@ -32601,8 +32641,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" s="100" customFormat="1">
-      <c r="C43" s="199"/>
-      <c r="D43" s="199"/>
+      <c r="C43" s="200"/>
+      <c r="D43" s="200"/>
       <c r="E43" s="113">
         <f>E28</f>
         <v>20.399999999999999</v>
@@ -32645,8 +32685,8 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="100" customFormat="1">
-      <c r="C44" s="199"/>
-      <c r="D44" s="199"/>
+      <c r="C44" s="200"/>
+      <c r="D44" s="200"/>
       <c r="E44" s="113">
         <f>E31</f>
         <v>39.299999999999997</v>
@@ -32689,8 +32729,8 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="C45" s="199"/>
-      <c r="D45" s="199"/>
+      <c r="C45" s="200"/>
+      <c r="D45" s="200"/>
       <c r="E45" s="113">
         <f>E32</f>
         <v>41.1</v>
@@ -32733,8 +32773,8 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="C46" s="199"/>
-      <c r="D46" s="199"/>
+      <c r="C46" s="200"/>
+      <c r="D46" s="200"/>
       <c r="E46" s="113">
         <f>E36</f>
         <v>60</v>
@@ -32781,10 +32821,10 @@
       <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="C48" s="199" t="s">
+      <c r="C48" s="200" t="s">
         <v>782</v>
       </c>
-      <c r="D48" s="199"/>
+      <c r="D48" s="200"/>
       <c r="E48" s="113">
         <f t="shared" ref="E48:N48" si="14">E25</f>
         <v>130.9</v>
@@ -32827,8 +32867,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="100" customFormat="1">
-      <c r="C49" s="199"/>
-      <c r="D49" s="199"/>
+      <c r="C49" s="200"/>
+      <c r="D49" s="200"/>
       <c r="E49" s="113">
         <f t="shared" ref="E49:N49" si="15">E29</f>
         <v>21.5</v>
@@ -32871,8 +32911,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="100" customFormat="1">
-      <c r="C50" s="199"/>
-      <c r="D50" s="199"/>
+      <c r="C50" s="200"/>
+      <c r="D50" s="200"/>
       <c r="E50" s="113">
         <f t="shared" ref="E50:N50" si="16">E33</f>
         <v>56.7</v>
@@ -32915,8 +32955,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="100" customFormat="1">
-      <c r="C51" s="199"/>
-      <c r="D51" s="199"/>
+      <c r="C51" s="200"/>
+      <c r="D51" s="200"/>
       <c r="E51" s="113">
         <f t="shared" ref="E51:N51" si="17">E35</f>
         <v>215.1</v>
@@ -32959,8 +32999,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="100" customFormat="1">
-      <c r="C52" s="199"/>
-      <c r="D52" s="199"/>
+      <c r="C52" s="200"/>
+      <c r="D52" s="200"/>
       <c r="E52" s="113">
         <f t="shared" ref="E52:N52" si="18">E37</f>
         <v>28.7</v>
@@ -33049,7 +33089,7 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="198" t="s">
+      <c r="A60" s="199" t="s">
         <v>783</v>
       </c>
       <c r="B60" s="132" t="s">
@@ -33101,7 +33141,7 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="198"/>
+      <c r="A61" s="199"/>
       <c r="B61" s="135" t="s">
         <v>725</v>
       </c>
@@ -33151,7 +33191,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A62" s="198"/>
+      <c r="A62" s="199"/>
       <c r="B62" s="138" t="s">
         <v>726</v>
       </c>
@@ -33201,7 +33241,7 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="198" t="s">
+      <c r="A63" s="199" t="s">
         <v>784</v>
       </c>
       <c r="B63" s="132" t="s">
@@ -33253,7 +33293,7 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="198"/>
+      <c r="A64" s="199"/>
       <c r="B64" s="135" t="s">
         <v>725</v>
       </c>
@@ -33303,7 +33343,7 @@
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="198"/>
+      <c r="A65" s="199"/>
       <c r="B65" s="135" t="s">
         <v>725</v>
       </c>
@@ -33353,7 +33393,7 @@
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="198"/>
+      <c r="A66" s="199"/>
       <c r="B66" s="135" t="s">
         <v>726</v>
       </c>
@@ -33403,7 +33443,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A67" s="198"/>
+      <c r="A67" s="199"/>
       <c r="B67" s="138" t="s">
         <v>726</v>
       </c>
@@ -33452,6 +33492,11 @@
         <v>34815</v>
       </c>
     </row>
+    <row r="70" spans="1:15">
+      <c r="B70" s="215" t="s">
+        <v>791</v>
+      </c>
+    </row>
     <row r="71" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="72" spans="1:15" ht="15.75" thickBot="1">
       <c r="B72" s="194" t="s">
@@ -33503,7 +33548,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B73" s="193"/>
+      <c r="B73" s="195"/>
       <c r="C73" s="139" t="s">
         <v>729</v>
       </c>
@@ -33550,7 +33595,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B74" s="192" t="s">
+      <c r="B74" s="196" t="s">
         <v>779</v>
       </c>
       <c r="C74" s="70" t="s">
@@ -33599,7 +33644,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B75" s="193"/>
+      <c r="B75" s="195"/>
       <c r="C75" s="139" t="s">
         <v>729</v>
       </c>
@@ -33688,7 +33733,7 @@
       <c r="O77" s="48"/>
     </row>
     <row r="78" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B78" s="193"/>
+      <c r="B78" s="195"/>
       <c r="C78" s="139" t="s">
         <v>729</v>
       </c>
@@ -33727,7 +33772,7 @@
       <c r="O78" s="48"/>
     </row>
     <row r="79" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B79" s="192" t="s">
+      <c r="B79" s="196" t="s">
         <v>779</v>
       </c>
       <c r="C79" s="70" t="s">
@@ -33768,7 +33813,7 @@
       <c r="O79" s="48"/>
     </row>
     <row r="80" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B80" s="193"/>
+      <c r="B80" s="195"/>
       <c r="C80" s="139" t="s">
         <v>729</v>
       </c>
@@ -33806,7 +33851,7 @@
       </c>
       <c r="O80" s="48"/>
     </row>
-    <row r="81" spans="2:15" ht="15.75" thickBot="1">
+    <row r="81" spans="2:36" ht="15.75" thickBot="1">
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
       <c r="D81" s="48"/>
@@ -33820,9 +33865,11 @@
       <c r="L81" s="48"/>
       <c r="M81" s="48"/>
       <c r="N81" s="48"/>
-      <c r="O81" s="48"/>
-    </row>
-    <row r="82" spans="2:15" ht="16.5" thickTop="1" thickBot="1">
+      <c r="O81" s="48" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="82" spans="2:36" ht="16.5" thickTop="1" thickBot="1">
       <c r="B82" s="194" t="s">
         <v>778</v>
       </c>
@@ -33870,10 +33917,13 @@
         <f>(M82/E82)^(1/8)-1</f>
         <v>2.5754463465193611E-2</v>
       </c>
-      <c r="O82" s="48"/>
-    </row>
-    <row r="83" spans="2:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B83" s="193"/>
+      <c r="O82" s="48">
+        <f>(M82-E82)/8</f>
+        <v>1502.6593177948425</v>
+      </c>
+    </row>
+    <row r="83" spans="2:36" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B83" s="195"/>
       <c r="C83" s="139" t="s">
         <v>729</v>
       </c>
@@ -33918,10 +33968,13 @@
         <f t="shared" ref="N83" si="43">(M83/E83)^(1/8)-1</f>
         <v>-4.5194730002432681E-2</v>
       </c>
-      <c r="O83" s="48"/>
-    </row>
-    <row r="84" spans="2:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B84" s="192" t="s">
+      <c r="O83" s="48">
+        <f t="shared" ref="O83:O85" si="44">(M83-E83)/8</f>
+        <v>-173.85632629554618</v>
+      </c>
+    </row>
+    <row r="84" spans="2:36" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B84" s="196" t="s">
         <v>779</v>
       </c>
       <c r="C84" s="70" t="s">
@@ -33929,95 +33982,752 @@
       </c>
       <c r="D84" s="133"/>
       <c r="E84" s="178">
-        <f t="shared" ref="E84:M84" si="44">E74*E79</f>
+        <f t="shared" ref="E84:M84" si="45">E74*E79</f>
         <v>14176.873480961749</v>
       </c>
       <c r="F84" s="178">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14298.968917874234</v>
       </c>
       <c r="G84" s="178">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14480.549757733557</v>
       </c>
       <c r="H84" s="178">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15005.30291161387</v>
       </c>
       <c r="I84" s="178">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15115.408033898173</v>
       </c>
       <c r="J84" s="178">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15448.667900609029</v>
       </c>
       <c r="K84" s="178">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15347.886968245761</v>
       </c>
       <c r="L84" s="178">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14514.795849424441</v>
       </c>
       <c r="M84" s="178">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14667.412097151402</v>
       </c>
       <c r="N84" s="175">
         <f>(M84/E84)^(1/8)-1</f>
         <v>4.2610726525127429E-3</v>
       </c>
-    </row>
-    <row r="85" spans="2:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B85" s="193"/>
+      <c r="O84" s="48">
+        <f t="shared" si="44"/>
+        <v>61.317327023706639</v>
+      </c>
+    </row>
+    <row r="85" spans="2:36" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B85" s="195"/>
       <c r="C85" s="139" t="s">
         <v>729</v>
       </c>
       <c r="D85" s="133"/>
       <c r="E85" s="178">
-        <f t="shared" ref="E85:M85" si="45">E75*E80</f>
+        <f t="shared" ref="E85:M85" si="46">E75*E80</f>
         <v>24788.778793767851</v>
       </c>
       <c r="F85" s="178">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25272.117646957464</v>
       </c>
       <c r="G85" s="178">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25666.975432524672</v>
       </c>
       <c r="H85" s="178">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>26375.716124613384</v>
       </c>
       <c r="I85" s="178">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>27278.881969656504</v>
       </c>
       <c r="J85" s="178">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>28253.60517048063</v>
       </c>
       <c r="K85" s="178">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>27613.033618093359</v>
       </c>
       <c r="L85" s="178">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>30042.746371001984</v>
       </c>
       <c r="M85" s="178">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>29940.522746053222</v>
       </c>
       <c r="N85" s="176">
-        <f t="shared" ref="N85" si="46">(M85/E85)^(1/8)-1</f>
+        <f t="shared" ref="N85" si="47">(M85/E85)^(1/8)-1</f>
         <v>2.3883468123093499E-2</v>
       </c>
+      <c r="O85" s="48">
+        <f t="shared" si="44"/>
+        <v>643.96799403567138</v>
+      </c>
+    </row>
+    <row r="88" spans="2:36" ht="15.75" thickBot="1">
+      <c r="E88" s="99">
+        <v>2019</v>
+      </c>
+      <c r="F88" s="180">
+        <v>2020</v>
+      </c>
+      <c r="G88" s="180">
+        <v>2021</v>
+      </c>
+      <c r="H88" s="180">
+        <v>2022</v>
+      </c>
+      <c r="I88" s="180">
+        <v>2023</v>
+      </c>
+      <c r="J88" s="180">
+        <v>2024</v>
+      </c>
+      <c r="K88" s="180">
+        <v>2025</v>
+      </c>
+      <c r="L88" s="180">
+        <v>2026</v>
+      </c>
+      <c r="M88" s="180">
+        <v>2027</v>
+      </c>
+      <c r="N88" s="180">
+        <v>2028</v>
+      </c>
+      <c r="O88" s="180">
+        <v>2029</v>
+      </c>
+      <c r="P88" s="180">
+        <v>2030</v>
+      </c>
+      <c r="Q88" s="180">
+        <v>2031</v>
+      </c>
+      <c r="R88" s="180">
+        <v>2032</v>
+      </c>
+      <c r="S88" s="180">
+        <v>2033</v>
+      </c>
+      <c r="T88" s="180">
+        <v>2034</v>
+      </c>
+      <c r="U88" s="180">
+        <v>2035</v>
+      </c>
+      <c r="V88" s="180">
+        <v>2036</v>
+      </c>
+      <c r="W88" s="180">
+        <v>2037</v>
+      </c>
+      <c r="X88" s="180">
+        <v>2038</v>
+      </c>
+      <c r="Y88" s="180">
+        <v>2039</v>
+      </c>
+      <c r="Z88" s="180">
+        <v>2040</v>
+      </c>
+      <c r="AA88" s="180">
+        <v>2041</v>
+      </c>
+      <c r="AB88" s="180">
+        <v>2042</v>
+      </c>
+      <c r="AC88" s="180">
+        <v>2043</v>
+      </c>
+      <c r="AD88" s="180">
+        <v>2044</v>
+      </c>
+      <c r="AE88" s="180">
+        <v>2045</v>
+      </c>
+      <c r="AF88" s="180">
+        <v>2046</v>
+      </c>
+      <c r="AG88" s="180">
+        <v>2047</v>
+      </c>
+      <c r="AH88" s="180">
+        <v>2048</v>
+      </c>
+      <c r="AI88" s="180">
+        <v>2049</v>
+      </c>
+      <c r="AJ88" s="180">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="89" spans="2:36" ht="15.75" thickBot="1">
+      <c r="B89" s="194" t="s">
+        <v>778</v>
+      </c>
+      <c r="C89" s="133" t="s">
+        <v>728</v>
+      </c>
+      <c r="D89" s="133"/>
+      <c r="E89" s="90">
+        <f>L82</f>
+        <v>64309.137872188789</v>
+      </c>
+      <c r="F89" s="90">
+        <f>E89+$O82</f>
+        <v>65811.797189983627</v>
+      </c>
+      <c r="G89" s="90">
+        <f t="shared" ref="G89:AJ92" si="48">F89+$O82</f>
+        <v>67314.456507778465</v>
+      </c>
+      <c r="H89" s="90">
+        <f t="shared" si="48"/>
+        <v>68817.115825573303</v>
+      </c>
+      <c r="I89" s="90">
+        <f t="shared" si="48"/>
+        <v>70319.775143368141</v>
+      </c>
+      <c r="J89" s="90">
+        <f t="shared" si="48"/>
+        <v>71822.434461162979</v>
+      </c>
+      <c r="K89" s="90">
+        <f t="shared" si="48"/>
+        <v>73325.093778957817</v>
+      </c>
+      <c r="L89" s="90">
+        <f t="shared" si="48"/>
+        <v>74827.753096752655</v>
+      </c>
+      <c r="M89" s="90">
+        <f t="shared" si="48"/>
+        <v>76330.412414547493</v>
+      </c>
+      <c r="N89" s="90">
+        <f t="shared" si="48"/>
+        <v>77833.071732342331</v>
+      </c>
+      <c r="O89" s="90">
+        <f t="shared" si="48"/>
+        <v>79335.731050137168</v>
+      </c>
+      <c r="P89" s="90">
+        <f t="shared" si="48"/>
+        <v>80838.390367932006</v>
+      </c>
+      <c r="Q89" s="90">
+        <f t="shared" si="48"/>
+        <v>82341.049685726844</v>
+      </c>
+      <c r="R89" s="90">
+        <f t="shared" si="48"/>
+        <v>83843.709003521682</v>
+      </c>
+      <c r="S89" s="90">
+        <f t="shared" si="48"/>
+        <v>85346.36832131652</v>
+      </c>
+      <c r="T89" s="90">
+        <f t="shared" si="48"/>
+        <v>86849.027639111358</v>
+      </c>
+      <c r="U89" s="90">
+        <f t="shared" si="48"/>
+        <v>88351.686956906196</v>
+      </c>
+      <c r="V89" s="90">
+        <f t="shared" si="48"/>
+        <v>89854.346274701034</v>
+      </c>
+      <c r="W89" s="90">
+        <f t="shared" si="48"/>
+        <v>91357.005592495872</v>
+      </c>
+      <c r="X89" s="90">
+        <f t="shared" si="48"/>
+        <v>92859.66491029071</v>
+      </c>
+      <c r="Y89" s="90">
+        <f t="shared" si="48"/>
+        <v>94362.324228085548</v>
+      </c>
+      <c r="Z89" s="90">
+        <f t="shared" si="48"/>
+        <v>95864.983545880386</v>
+      </c>
+      <c r="AA89" s="90">
+        <f t="shared" si="48"/>
+        <v>97367.642863675224</v>
+      </c>
+      <c r="AB89" s="90">
+        <f t="shared" si="48"/>
+        <v>98870.302181470062</v>
+      </c>
+      <c r="AC89" s="90">
+        <f t="shared" si="48"/>
+        <v>100372.9614992649</v>
+      </c>
+      <c r="AD89" s="90">
+        <f t="shared" si="48"/>
+        <v>101875.62081705974</v>
+      </c>
+      <c r="AE89" s="90">
+        <f t="shared" si="48"/>
+        <v>103378.28013485458</v>
+      </c>
+      <c r="AF89" s="90">
+        <f t="shared" si="48"/>
+        <v>104880.93945264941</v>
+      </c>
+      <c r="AG89" s="90">
+        <f t="shared" si="48"/>
+        <v>106383.59877044425</v>
+      </c>
+      <c r="AH89" s="90">
+        <f t="shared" si="48"/>
+        <v>107886.25808823909</v>
+      </c>
+      <c r="AI89" s="90">
+        <f t="shared" si="48"/>
+        <v>109388.91740603393</v>
+      </c>
+      <c r="AJ89" s="90">
+        <f t="shared" si="48"/>
+        <v>110891.57672382877</v>
+      </c>
+    </row>
+    <row r="90" spans="2:36" ht="15.75" thickBot="1">
+      <c r="B90" s="195"/>
+      <c r="C90" s="139" t="s">
+        <v>729</v>
+      </c>
+      <c r="D90" s="133"/>
+      <c r="E90" s="90">
+        <f t="shared" ref="E90:E92" si="49">L83</f>
+        <v>3276.6076353792082</v>
+      </c>
+      <c r="F90" s="90">
+        <f t="shared" ref="F90:U92" si="50">E90+$O83</f>
+        <v>3102.7513090836619</v>
+      </c>
+      <c r="G90" s="90">
+        <f t="shared" si="50"/>
+        <v>2928.8949827881156</v>
+      </c>
+      <c r="H90" s="90">
+        <f t="shared" si="50"/>
+        <v>2755.0386564925693</v>
+      </c>
+      <c r="I90" s="90">
+        <f t="shared" si="50"/>
+        <v>2581.182330197023</v>
+      </c>
+      <c r="J90" s="90">
+        <f t="shared" si="50"/>
+        <v>2407.3260039014767</v>
+      </c>
+      <c r="K90" s="90">
+        <f t="shared" si="50"/>
+        <v>2233.4696776059304</v>
+      </c>
+      <c r="L90" s="90">
+        <f t="shared" si="50"/>
+        <v>2059.6133513103841</v>
+      </c>
+      <c r="M90" s="90">
+        <f t="shared" si="50"/>
+        <v>1885.7570250148378</v>
+      </c>
+      <c r="N90" s="90">
+        <f t="shared" si="50"/>
+        <v>1711.9006987192915</v>
+      </c>
+      <c r="O90" s="90">
+        <f t="shared" si="50"/>
+        <v>1538.0443724237452</v>
+      </c>
+      <c r="P90" s="90">
+        <f t="shared" si="50"/>
+        <v>1364.1880461281989</v>
+      </c>
+      <c r="Q90" s="90">
+        <f t="shared" si="50"/>
+        <v>1190.3317198326527</v>
+      </c>
+      <c r="R90" s="90">
+        <f t="shared" si="50"/>
+        <v>1016.4753935371065</v>
+      </c>
+      <c r="S90" s="90">
+        <f t="shared" si="50"/>
+        <v>842.61906724156029</v>
+      </c>
+      <c r="T90" s="90">
+        <f t="shared" si="50"/>
+        <v>668.76274094601411</v>
+      </c>
+      <c r="U90" s="90">
+        <f t="shared" si="50"/>
+        <v>494.90641465046792</v>
+      </c>
+      <c r="V90" s="90">
+        <f t="shared" si="48"/>
+        <v>321.05008835492174</v>
+      </c>
+      <c r="W90" s="90">
+        <f t="shared" si="48"/>
+        <v>147.19376205937556</v>
+      </c>
+      <c r="X90" s="90">
+        <f t="shared" si="48"/>
+        <v>-26.662564236170624</v>
+      </c>
+      <c r="Y90" s="90">
+        <f t="shared" si="48"/>
+        <v>-200.51889053171681</v>
+      </c>
+      <c r="Z90" s="90">
+        <f t="shared" si="48"/>
+        <v>-374.37521682726299</v>
+      </c>
+      <c r="AA90" s="90">
+        <f t="shared" si="48"/>
+        <v>-548.23154312280917</v>
+      </c>
+      <c r="AB90" s="90">
+        <f t="shared" si="48"/>
+        <v>-722.08786941835535</v>
+      </c>
+      <c r="AC90" s="90">
+        <f t="shared" si="48"/>
+        <v>-895.94419571390154</v>
+      </c>
+      <c r="AD90" s="90">
+        <f t="shared" si="48"/>
+        <v>-1069.8005220094478</v>
+      </c>
+      <c r="AE90" s="90">
+        <f t="shared" si="48"/>
+        <v>-1243.6568483049941</v>
+      </c>
+      <c r="AF90" s="90">
+        <f t="shared" si="48"/>
+        <v>-1417.5131746005404</v>
+      </c>
+      <c r="AG90" s="90">
+        <f t="shared" si="48"/>
+        <v>-1591.3695008960867</v>
+      </c>
+      <c r="AH90" s="90">
+        <f t="shared" si="48"/>
+        <v>-1765.225827191633</v>
+      </c>
+      <c r="AI90" s="90">
+        <f t="shared" si="48"/>
+        <v>-1939.0821534871793</v>
+      </c>
+      <c r="AJ90" s="90">
+        <f t="shared" si="48"/>
+        <v>-2112.9384797827256</v>
+      </c>
+    </row>
+    <row r="91" spans="2:36" ht="15.75" thickBot="1">
+      <c r="B91" s="196" t="s">
+        <v>779</v>
+      </c>
+      <c r="C91" s="70" t="s">
+        <v>728</v>
+      </c>
+      <c r="D91" s="133"/>
+      <c r="E91" s="90">
+        <f t="shared" si="49"/>
+        <v>14514.795849424441</v>
+      </c>
+      <c r="F91" s="90">
+        <f t="shared" si="50"/>
+        <v>14576.113176448147</v>
+      </c>
+      <c r="G91" s="90">
+        <f t="shared" si="48"/>
+        <v>14637.430503471853</v>
+      </c>
+      <c r="H91" s="90">
+        <f t="shared" si="48"/>
+        <v>14698.747830495558</v>
+      </c>
+      <c r="I91" s="90">
+        <f t="shared" si="48"/>
+        <v>14760.065157519264</v>
+      </c>
+      <c r="J91" s="90">
+        <f t="shared" si="48"/>
+        <v>14821.38248454297</v>
+      </c>
+      <c r="K91" s="90">
+        <f t="shared" si="48"/>
+        <v>14882.699811566676</v>
+      </c>
+      <c r="L91" s="90">
+        <f t="shared" si="48"/>
+        <v>14944.017138590381</v>
+      </c>
+      <c r="M91" s="90">
+        <f t="shared" si="48"/>
+        <v>15005.334465614087</v>
+      </c>
+      <c r="N91" s="90">
+        <f t="shared" si="48"/>
+        <v>15066.651792637793</v>
+      </c>
+      <c r="O91" s="90">
+        <f t="shared" si="48"/>
+        <v>15127.969119661499</v>
+      </c>
+      <c r="P91" s="90">
+        <f t="shared" si="48"/>
+        <v>15189.286446685204</v>
+      </c>
+      <c r="Q91" s="90">
+        <f t="shared" si="48"/>
+        <v>15250.60377370891</v>
+      </c>
+      <c r="R91" s="90">
+        <f t="shared" si="48"/>
+        <v>15311.921100732616</v>
+      </c>
+      <c r="S91" s="90">
+        <f t="shared" si="48"/>
+        <v>15373.238427756321</v>
+      </c>
+      <c r="T91" s="90">
+        <f t="shared" si="48"/>
+        <v>15434.555754780027</v>
+      </c>
+      <c r="U91" s="90">
+        <f t="shared" si="48"/>
+        <v>15495.873081803733</v>
+      </c>
+      <c r="V91" s="90">
+        <f t="shared" si="48"/>
+        <v>15557.190408827439</v>
+      </c>
+      <c r="W91" s="90">
+        <f t="shared" si="48"/>
+        <v>15618.507735851144</v>
+      </c>
+      <c r="X91" s="90">
+        <f t="shared" si="48"/>
+        <v>15679.82506287485</v>
+      </c>
+      <c r="Y91" s="90">
+        <f t="shared" si="48"/>
+        <v>15741.142389898556</v>
+      </c>
+      <c r="Z91" s="90">
+        <f t="shared" si="48"/>
+        <v>15802.459716922262</v>
+      </c>
+      <c r="AA91" s="90">
+        <f t="shared" si="48"/>
+        <v>15863.777043945967</v>
+      </c>
+      <c r="AB91" s="90">
+        <f t="shared" si="48"/>
+        <v>15925.094370969673</v>
+      </c>
+      <c r="AC91" s="90">
+        <f t="shared" si="48"/>
+        <v>15986.411697993379</v>
+      </c>
+      <c r="AD91" s="90">
+        <f t="shared" si="48"/>
+        <v>16047.729025017084</v>
+      </c>
+      <c r="AE91" s="90">
+        <f t="shared" si="48"/>
+        <v>16109.04635204079</v>
+      </c>
+      <c r="AF91" s="90">
+        <f t="shared" si="48"/>
+        <v>16170.363679064496</v>
+      </c>
+      <c r="AG91" s="90">
+        <f t="shared" si="48"/>
+        <v>16231.681006088202</v>
+      </c>
+      <c r="AH91" s="90">
+        <f t="shared" si="48"/>
+        <v>16292.998333111907</v>
+      </c>
+      <c r="AI91" s="90">
+        <f t="shared" si="48"/>
+        <v>16354.315660135613</v>
+      </c>
+      <c r="AJ91" s="90">
+        <f t="shared" si="48"/>
+        <v>16415.632987159319</v>
+      </c>
+    </row>
+    <row r="92" spans="2:36" ht="15.75" thickBot="1">
+      <c r="B92" s="195"/>
+      <c r="C92" s="139" t="s">
+        <v>729</v>
+      </c>
+      <c r="D92" s="133"/>
+      <c r="E92" s="90">
+        <f t="shared" si="49"/>
+        <v>30042.746371001984</v>
+      </c>
+      <c r="F92" s="90">
+        <f t="shared" si="50"/>
+        <v>30686.714365037657</v>
+      </c>
+      <c r="G92" s="90">
+        <f t="shared" si="48"/>
+        <v>31330.682359073329</v>
+      </c>
+      <c r="H92" s="90">
+        <f t="shared" si="48"/>
+        <v>31974.650353109002</v>
+      </c>
+      <c r="I92" s="90">
+        <f t="shared" si="48"/>
+        <v>32618.618347144675</v>
+      </c>
+      <c r="J92" s="90">
+        <f t="shared" si="48"/>
+        <v>33262.586341180344</v>
+      </c>
+      <c r="K92" s="90">
+        <f t="shared" si="48"/>
+        <v>33906.554335216017</v>
+      </c>
+      <c r="L92" s="90">
+        <f t="shared" si="48"/>
+        <v>34550.522329251689</v>
+      </c>
+      <c r="M92" s="90">
+        <f t="shared" si="48"/>
+        <v>35194.490323287362</v>
+      </c>
+      <c r="N92" s="90">
+        <f t="shared" si="48"/>
+        <v>35838.458317323035</v>
+      </c>
+      <c r="O92" s="90">
+        <f t="shared" si="48"/>
+        <v>36482.426311358708</v>
+      </c>
+      <c r="P92" s="90">
+        <f t="shared" si="48"/>
+        <v>37126.39430539438</v>
+      </c>
+      <c r="Q92" s="90">
+        <f t="shared" si="48"/>
+        <v>37770.362299430053</v>
+      </c>
+      <c r="R92" s="90">
+        <f t="shared" si="48"/>
+        <v>38414.330293465726</v>
+      </c>
+      <c r="S92" s="90">
+        <f t="shared" si="48"/>
+        <v>39058.298287501399</v>
+      </c>
+      <c r="T92" s="90">
+        <f t="shared" si="48"/>
+        <v>39702.266281537071</v>
+      </c>
+      <c r="U92" s="90">
+        <f t="shared" si="48"/>
+        <v>40346.234275572744</v>
+      </c>
+      <c r="V92" s="90">
+        <f t="shared" si="48"/>
+        <v>40990.202269608417</v>
+      </c>
+      <c r="W92" s="90">
+        <f t="shared" si="48"/>
+        <v>41634.17026364409</v>
+      </c>
+      <c r="X92" s="90">
+        <f t="shared" si="48"/>
+        <v>42278.138257679762</v>
+      </c>
+      <c r="Y92" s="90">
+        <f t="shared" si="48"/>
+        <v>42922.106251715435</v>
+      </c>
+      <c r="Z92" s="90">
+        <f t="shared" si="48"/>
+        <v>43566.074245751108</v>
+      </c>
+      <c r="AA92" s="90">
+        <f t="shared" si="48"/>
+        <v>44210.042239786781</v>
+      </c>
+      <c r="AB92" s="90">
+        <f t="shared" si="48"/>
+        <v>44854.010233822453</v>
+      </c>
+      <c r="AC92" s="90">
+        <f t="shared" si="48"/>
+        <v>45497.978227858126</v>
+      </c>
+      <c r="AD92" s="90">
+        <f t="shared" si="48"/>
+        <v>46141.946221893799</v>
+      </c>
+      <c r="AE92" s="90">
+        <f t="shared" si="48"/>
+        <v>46785.914215929472</v>
+      </c>
+      <c r="AF92" s="90">
+        <f t="shared" si="48"/>
+        <v>47429.882209965144</v>
+      </c>
+      <c r="AG92" s="90">
+        <f t="shared" si="48"/>
+        <v>48073.850204000817</v>
+      </c>
+      <c r="AH92" s="90">
+        <f t="shared" si="48"/>
+        <v>48717.81819803649</v>
+      </c>
+      <c r="AI92" s="90">
+        <f t="shared" si="48"/>
+        <v>49361.786192072163</v>
+      </c>
+      <c r="AJ92" s="90">
+        <f t="shared" si="48"/>
+        <v>50005.754186107835</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="B74:B75"/>
@@ -34028,11 +34738,6 @@
     <mergeCell ref="A63:A67"/>
     <mergeCell ref="C40:D46"/>
     <mergeCell ref="C48:D52"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34053,29 +34758,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="201" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="85" t="s">
@@ -34988,28 +35693,28 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="B18" s="201"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
-      <c r="O18" s="201"/>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="201"/>
-      <c r="R18" s="201"/>
-      <c r="S18" s="201"/>
-      <c r="T18" s="201"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="202"/>
+      <c r="R18" s="202"/>
+      <c r="S18" s="202"/>
+      <c r="T18" s="202"/>
       <c r="U18" s="87">
         <v>44452.597080150474</v>
       </c>
@@ -35038,29 +35743,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="201" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="85" t="s">
@@ -35973,28 +36678,28 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="B18" s="201"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
-      <c r="O18" s="201"/>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="201"/>
-      <c r="R18" s="201"/>
-      <c r="S18" s="201"/>
-      <c r="T18" s="201"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="202"/>
+      <c r="R18" s="202"/>
+      <c r="S18" s="202"/>
+      <c r="T18" s="202"/>
       <c r="U18" s="87">
         <v>44452.596946840291</v>
       </c>
@@ -36023,29 +36728,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="201" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="85" t="s">
@@ -36633,28 +37338,28 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="201"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="201"/>
-      <c r="R13" s="201"/>
-      <c r="S13" s="201"/>
-      <c r="T13" s="201"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="202"/>
+      <c r="Q13" s="202"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="202"/>
+      <c r="T13" s="202"/>
       <c r="U13" s="87">
         <v>44452.596521967585</v>
       </c>
@@ -36683,19 +37388,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="201" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="85" t="s">
@@ -37223,18 +37928,18 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="202" t="s">
+      <c r="A19" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
       <c r="K19" s="87">
         <v>44452.580671828706</v>
       </c>
@@ -37268,19 +37973,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="201" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="85" t="s">
@@ -37808,18 +38513,18 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="202" t="s">
+      <c r="A19" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
       <c r="K19" s="87">
         <v>44452.580602870381</v>
       </c>
